--- a/Proyecto ExtraClase/Proyecto extraclase.xlsx
+++ b/Proyecto ExtraClase/Proyecto extraclase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DAVID\Documents\GitHub\RepositorioDOO\Proyecto ExtraClase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C4C236-A020-4F3D-B779-D11DE800A249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88741C8C-AD8E-4355-ABF5-FFE58C5E57EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10650" yWindow="12630" windowWidth="21600" windowHeight="11835" firstSheet="1" activeTab="1" xr2:uid="{91EDD603-1B87-409C-9594-5C05F8123E08}"/>
+    <workbookView xWindow="0" yWindow="4365" windowWidth="21600" windowHeight="11835" firstSheet="1" activeTab="1" xr2:uid="{91EDD603-1B87-409C-9594-5C05F8123E08}"/>
   </bookViews>
   <sheets>
     <sheet name="Valores" sheetId="1" state="hidden" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="504">
   <si>
     <t>Tipo de dato</t>
   </si>
@@ -850,9 +850,6 @@
     <t xml:space="preserve">Atributo que representa quien fue el cliente que solicito una ruta o cliente que solicita una ruta que necesite </t>
   </si>
   <si>
-    <t>Atributo que reprenseta que conductor creo que ruta o que conductor acepto a un cliente</t>
-  </si>
-  <si>
     <t>Confirmar ruta</t>
   </si>
   <si>
@@ -877,9 +874,6 @@
     <t>Comportamiento en caso de que un cliente cambie de parecer o se equivoco en crear la ruta la puede modificar</t>
   </si>
   <si>
-    <t>Comportamiento que permite al cliente cancelar una ruta que se haya creado antes</t>
-  </si>
-  <si>
     <t xml:space="preserve">Comportamiento que permite al conductor confirmar un cliente en su ruta </t>
   </si>
   <si>
@@ -1477,9 +1471,6 @@
     <t>Objeto de dominio Cliente</t>
   </si>
   <si>
-    <t>Objetio de dominio Conductor</t>
-  </si>
-  <si>
     <t>Fecha exacta en que se creo la peticion</t>
   </si>
   <si>
@@ -1553,13 +1544,28 @@
   </si>
   <si>
     <t>cliente[]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Double </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t>ConductorVehiculo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1613,6 +1619,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2203,7 +2217,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="410">
+  <cellXfs count="411">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2773,194 +2787,233 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2974,44 +3027,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3030,11 +3050,14 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3045,14 +3068,17 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3060,21 +3086,30 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3093,26 +3128,23 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3168,27 +3200,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3198,54 +3245,72 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3264,59 +3329,11 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3324,11 +3341,11 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3774,8 +3791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90D05C5-BA3B-422D-836B-B3214C52165B}">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView topLeftCell="I10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="56.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3802,78 +3819,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="276" t="s">
+      <c r="A1" s="226" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="276"/>
-      <c r="C1" s="276"/>
-      <c r="D1" s="276"/>
-      <c r="E1" s="276"/>
-      <c r="F1" s="276"/>
-      <c r="G1" s="276"/>
-      <c r="H1" s="276"/>
-      <c r="I1" s="276"/>
-      <c r="J1" s="276"/>
-      <c r="K1" s="276"/>
-      <c r="L1" s="276"/>
-      <c r="M1" s="276"/>
-      <c r="N1" s="276"/>
-      <c r="O1" s="276"/>
-      <c r="P1" s="276"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="226"/>
+      <c r="I1" s="226"/>
+      <c r="J1" s="226"/>
+      <c r="K1" s="226"/>
+      <c r="L1" s="226"/>
+      <c r="M1" s="226"/>
+      <c r="N1" s="226"/>
+      <c r="O1" s="226"/>
+      <c r="P1" s="226"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="179" t="str">
         <f>'Objeto de dominio'!A1&amp;":"</f>
         <v>Objeto de dominio:</v>
       </c>
-      <c r="B2" s="342" t="str">
+      <c r="B2" s="348" t="str">
         <f>'Objeto de dominio'!A8</f>
         <v>Ubicación</v>
       </c>
-      <c r="C2" s="342"/>
-      <c r="D2" s="342"/>
-      <c r="E2" s="342"/>
-      <c r="F2" s="342"/>
-      <c r="G2" s="342"/>
-      <c r="H2" s="342"/>
-      <c r="I2" s="342"/>
-      <c r="J2" s="342"/>
-      <c r="K2" s="342"/>
-      <c r="L2" s="342"/>
-      <c r="M2" s="342"/>
-      <c r="N2" s="342"/>
-      <c r="O2" s="342"/>
-      <c r="P2" s="342"/>
-      <c r="Q2" s="342"/>
-      <c r="R2" s="342"/>
-      <c r="S2" s="343"/>
+      <c r="C2" s="348"/>
+      <c r="D2" s="348"/>
+      <c r="E2" s="348"/>
+      <c r="F2" s="348"/>
+      <c r="G2" s="348"/>
+      <c r="H2" s="348"/>
+      <c r="I2" s="348"/>
+      <c r="J2" s="348"/>
+      <c r="K2" s="348"/>
+      <c r="L2" s="348"/>
+      <c r="M2" s="348"/>
+      <c r="N2" s="348"/>
+      <c r="O2" s="348"/>
+      <c r="P2" s="348"/>
+      <c r="Q2" s="348"/>
+      <c r="R2" s="348"/>
+      <c r="S2" s="349"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="180" t="str">
         <f>'Objeto de dominio'!B1&amp;":"</f>
         <v>Descripcion:</v>
       </c>
-      <c r="B3" s="330" t="str">
+      <c r="B3" s="337" t="str">
         <f>'Objeto de dominio'!B8</f>
         <v>Objeto que nos representa en que lugar se encuentra un usuario al momento de tomar una ruta y se genera un registro de la ubicación en tiempo real de la ubicación geografica del usuario.</v>
       </c>
-      <c r="C3" s="330"/>
-      <c r="D3" s="330"/>
-      <c r="E3" s="330"/>
-      <c r="F3" s="330"/>
-      <c r="G3" s="330"/>
-      <c r="H3" s="330"/>
-      <c r="I3" s="330"/>
-      <c r="J3" s="330"/>
-      <c r="K3" s="330"/>
-      <c r="L3" s="330"/>
-      <c r="M3" s="330"/>
-      <c r="N3" s="330"/>
-      <c r="O3" s="330"/>
-      <c r="P3" s="330"/>
-      <c r="Q3" s="330"/>
-      <c r="R3" s="330"/>
-      <c r="S3" s="344"/>
+      <c r="C3" s="337"/>
+      <c r="D3" s="337"/>
+      <c r="E3" s="337"/>
+      <c r="F3" s="337"/>
+      <c r="G3" s="337"/>
+      <c r="H3" s="337"/>
+      <c r="I3" s="337"/>
+      <c r="J3" s="337"/>
+      <c r="K3" s="337"/>
+      <c r="L3" s="337"/>
+      <c r="M3" s="337"/>
+      <c r="N3" s="337"/>
+      <c r="O3" s="337"/>
+      <c r="P3" s="337"/>
+      <c r="Q3" s="337"/>
+      <c r="R3" s="337"/>
+      <c r="S3" s="350"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="181" t="s">
@@ -3948,13 +3965,13 @@
         <v>14</v>
       </c>
       <c r="Q5" s="107" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R5" s="120" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="S5" s="183" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.25">
@@ -4129,18 +4146,18 @@
     </row>
     <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="338" t="s">
+      <c r="A14" s="344" t="s">
         <v>107</v>
       </c>
-      <c r="B14" s="339"/>
-      <c r="C14" s="339" t="s">
+      <c r="B14" s="345"/>
+      <c r="C14" s="345" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="339"/>
-      <c r="E14" s="339"/>
-      <c r="F14" s="339"/>
-      <c r="G14" s="339"/>
-      <c r="H14" s="339"/>
+      <c r="D14" s="345"/>
+      <c r="E14" s="345"/>
+      <c r="F14" s="345"/>
+      <c r="G14" s="345"/>
+      <c r="H14" s="345"/>
       <c r="I14" s="157" t="s">
         <v>109</v>
       </c>
@@ -4153,33 +4170,33 @@
       <c r="L14" s="158" t="s">
         <v>202</v>
       </c>
-      <c r="Q14" s="358"/>
-      <c r="R14" s="359"/>
-      <c r="S14" s="358"/>
-      <c r="T14" s="358"/>
+      <c r="Q14" s="340"/>
+      <c r="R14" s="341"/>
+      <c r="S14" s="340"/>
+      <c r="T14" s="340"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="349" t="s">
-        <v>420</v>
-      </c>
-      <c r="B15" s="348"/>
-      <c r="C15" s="347" t="s">
-        <v>314</v>
-      </c>
-      <c r="D15" s="347"/>
-      <c r="E15" s="347"/>
-      <c r="F15" s="347"/>
-      <c r="G15" s="347"/>
-      <c r="H15" s="347"/>
-      <c r="I15" s="348" t="s">
-        <v>315</v>
-      </c>
-      <c r="J15" s="348"/>
-      <c r="K15" s="354" t="s">
-        <v>318</v>
-      </c>
-      <c r="L15" s="360" t="s">
-        <v>323</v>
+      <c r="A15" s="355" t="s">
+        <v>418</v>
+      </c>
+      <c r="B15" s="354"/>
+      <c r="C15" s="353" t="s">
+        <v>312</v>
+      </c>
+      <c r="D15" s="353"/>
+      <c r="E15" s="353"/>
+      <c r="F15" s="353"/>
+      <c r="G15" s="353"/>
+      <c r="H15" s="353"/>
+      <c r="I15" s="354" t="s">
+        <v>313</v>
+      </c>
+      <c r="J15" s="354"/>
+      <c r="K15" s="360" t="s">
+        <v>316</v>
+      </c>
+      <c r="L15" s="342" t="s">
+        <v>321</v>
       </c>
       <c r="M15" s="105"/>
       <c r="N15" s="105"/>
@@ -4187,73 +4204,73 @@
       <c r="P15" s="113"/>
     </row>
     <row r="16" spans="1:20" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="349"/>
-      <c r="B16" s="348"/>
-      <c r="C16" s="347"/>
-      <c r="D16" s="347"/>
-      <c r="E16" s="347"/>
-      <c r="F16" s="347"/>
-      <c r="G16" s="347"/>
-      <c r="H16" s="347"/>
-      <c r="I16" s="348"/>
-      <c r="J16" s="348"/>
-      <c r="K16" s="355"/>
-      <c r="L16" s="361"/>
+      <c r="A16" s="355"/>
+      <c r="B16" s="354"/>
+      <c r="C16" s="353"/>
+      <c r="D16" s="353"/>
+      <c r="E16" s="353"/>
+      <c r="F16" s="353"/>
+      <c r="G16" s="353"/>
+      <c r="H16" s="353"/>
+      <c r="I16" s="354"/>
+      <c r="J16" s="354"/>
+      <c r="K16" s="361"/>
+      <c r="L16" s="343"/>
       <c r="M16" s="105"/>
       <c r="N16" s="105"/>
       <c r="O16" s="105"/>
       <c r="P16" s="113"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="350" t="s">
-        <v>316</v>
-      </c>
-      <c r="B17" s="351"/>
-      <c r="C17" s="351" t="s">
-        <v>421</v>
-      </c>
-      <c r="D17" s="351"/>
-      <c r="E17" s="351"/>
-      <c r="F17" s="351"/>
-      <c r="G17" s="351"/>
-      <c r="H17" s="351"/>
+      <c r="A17" s="356" t="s">
+        <v>314</v>
+      </c>
+      <c r="B17" s="357"/>
+      <c r="C17" s="357" t="s">
+        <v>419</v>
+      </c>
+      <c r="D17" s="357"/>
+      <c r="E17" s="357"/>
+      <c r="F17" s="357"/>
+      <c r="G17" s="357"/>
+      <c r="H17" s="357"/>
       <c r="I17" s="42" t="s">
+        <v>313</v>
+      </c>
+      <c r="J17" s="177" t="s">
         <v>315</v>
       </c>
-      <c r="J17" s="177" t="s">
+      <c r="K17" s="219" t="s">
         <v>317</v>
       </c>
-      <c r="K17" s="219" t="s">
+      <c r="L17" s="191" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="90" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="338" t="s">
+        <v>417</v>
+      </c>
+      <c r="B18" s="339"/>
+      <c r="C18" s="339" t="s">
+        <v>420</v>
+      </c>
+      <c r="D18" s="339"/>
+      <c r="E18" s="339"/>
+      <c r="F18" s="339"/>
+      <c r="G18" s="339"/>
+      <c r="H18" s="339"/>
+      <c r="I18" s="116" t="s">
+        <v>313</v>
+      </c>
+      <c r="J18" s="117" t="s">
+        <v>315</v>
+      </c>
+      <c r="K18" s="116" t="s">
         <v>319</v>
       </c>
-      <c r="L17" s="191" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" s="90" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="356" t="s">
-        <v>419</v>
-      </c>
-      <c r="B18" s="357"/>
-      <c r="C18" s="357" t="s">
-        <v>422</v>
-      </c>
-      <c r="D18" s="357"/>
-      <c r="E18" s="357"/>
-      <c r="F18" s="357"/>
-      <c r="G18" s="357"/>
-      <c r="H18" s="357"/>
-      <c r="I18" s="116" t="s">
-        <v>315</v>
-      </c>
-      <c r="J18" s="117" t="s">
-        <v>317</v>
-      </c>
-      <c r="K18" s="116" t="s">
-        <v>321</v>
-      </c>
       <c r="L18" s="118" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="P18" s="50"/>
     </row>
@@ -4262,50 +4279,45 @@
       <c r="A20" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="B20" s="352" t="s">
+      <c r="B20" s="358" t="s">
         <v>108</v>
       </c>
-      <c r="C20" s="352"/>
-      <c r="D20" s="353"/>
+      <c r="C20" s="358"/>
+      <c r="D20" s="359"/>
     </row>
     <row r="21" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="41" t="s">
+        <v>316</v>
+      </c>
+      <c r="B21" s="351" t="s">
         <v>318</v>
       </c>
-      <c r="B21" s="345" t="s">
-        <v>320</v>
-      </c>
-      <c r="C21" s="345"/>
-      <c r="D21" s="346"/>
+      <c r="C21" s="351"/>
+      <c r="D21" s="352"/>
     </row>
     <row r="22" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="41" t="s">
-        <v>319</v>
-      </c>
-      <c r="B22" s="345" t="s">
-        <v>322</v>
-      </c>
-      <c r="C22" s="345"/>
-      <c r="D22" s="346"/>
+        <v>317</v>
+      </c>
+      <c r="B22" s="351" t="s">
+        <v>320</v>
+      </c>
+      <c r="C22" s="351"/>
+      <c r="D22" s="352"/>
     </row>
     <row r="23" spans="1:16" s="90" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="114" t="s">
-        <v>321</v>
-      </c>
-      <c r="B23" s="340" t="s">
-        <v>423</v>
-      </c>
-      <c r="C23" s="340"/>
-      <c r="D23" s="341"/>
+        <v>319</v>
+      </c>
+      <c r="B23" s="346" t="s">
+        <v>421</v>
+      </c>
+      <c r="C23" s="346"/>
+      <c r="D23" s="347"/>
       <c r="P23" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="L15:L16"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:H14"/>
@@ -4322,6 +4334,11 @@
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="K15:K16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="L15:L16"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -4357,8 +4374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77FC918-86BF-4C7B-BE6F-DBB545967D24}">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:D20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4384,56 +4401,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="276" t="s">
+      <c r="A1" s="226" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="276"/>
-      <c r="C1" s="276"/>
-      <c r="D1" s="276"/>
-      <c r="E1" s="276"/>
-      <c r="F1" s="276"/>
-      <c r="G1" s="276"/>
-      <c r="H1" s="276"/>
-      <c r="I1" s="276"/>
-      <c r="J1" s="276"/>
-      <c r="K1" s="276"/>
-      <c r="L1" s="276"/>
-      <c r="M1" s="276"/>
-      <c r="N1" s="276"/>
-      <c r="O1" s="276"/>
-      <c r="P1" s="276"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="226"/>
+      <c r="I1" s="226"/>
+      <c r="J1" s="226"/>
+      <c r="K1" s="226"/>
+      <c r="L1" s="226"/>
+      <c r="M1" s="226"/>
+      <c r="N1" s="226"/>
+      <c r="O1" s="226"/>
+      <c r="P1" s="226"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="196" t="str">
         <f>'Objeto de dominio'!A1&amp;":"</f>
         <v>Objeto de dominio:</v>
       </c>
-      <c r="B2" s="364" t="str">
+      <c r="B2" s="375" t="str">
         <f>'Objeto de dominio'!A9</f>
         <v>Tipo vehiculo</v>
       </c>
-      <c r="C2" s="364"/>
-      <c r="D2" s="364"/>
-      <c r="E2" s="364"/>
-      <c r="F2" s="364"/>
-      <c r="G2" s="364"/>
-      <c r="H2" s="364"/>
+      <c r="C2" s="375"/>
+      <c r="D2" s="375"/>
+      <c r="E2" s="375"/>
+      <c r="F2" s="375"/>
+      <c r="G2" s="375"/>
+      <c r="H2" s="375"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="196" t="str">
         <f>'Objeto de dominio'!B1&amp;":"</f>
         <v>Descripcion:</v>
       </c>
-      <c r="B3" s="365" t="str">
+      <c r="B3" s="376" t="str">
         <f>'Objeto de dominio'!B9</f>
         <v>Objeto que describe con exactitud que tipo de medio trasporte se va utilizar, como lo puede ser que sea tipo motocicleta o tipo automovil.</v>
       </c>
-      <c r="C3" s="365"/>
-      <c r="D3" s="365"/>
-      <c r="E3" s="365"/>
-      <c r="F3" s="365"/>
-      <c r="G3" s="365"/>
-      <c r="H3" s="365"/>
+      <c r="C3" s="376"/>
+      <c r="D3" s="376"/>
+      <c r="E3" s="376"/>
+      <c r="F3" s="376"/>
+      <c r="G3" s="376"/>
+      <c r="H3" s="376"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -4498,16 +4515,16 @@
         <v>14</v>
       </c>
       <c r="Q5" s="146" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="R5" s="133" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="S5" s="133" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="T5" s="133" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.25">
@@ -4531,7 +4548,7 @@
       </c>
       <c r="I6" s="95"/>
       <c r="J6" s="95" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="K6" s="95" t="s">
         <v>4</v>
@@ -4549,7 +4566,7 @@
         <v>4</v>
       </c>
       <c r="P6" s="145" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="Q6" s="147" t="s">
         <v>198</v>
@@ -4601,7 +4618,7 @@
         <v>7</v>
       </c>
       <c r="P7" s="145" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="Q7" s="149" t="s">
         <v>198</v>
@@ -4618,18 +4635,18 @@
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="268" t="s">
+      <c r="A9" s="237" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="228"/>
-      <c r="C9" s="228" t="s">
+      <c r="B9" s="234"/>
+      <c r="C9" s="234" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="228"/>
-      <c r="E9" s="228"/>
-      <c r="F9" s="228"/>
-      <c r="G9" s="228"/>
-      <c r="H9" s="228"/>
+      <c r="D9" s="234"/>
+      <c r="E9" s="234"/>
+      <c r="F9" s="234"/>
+      <c r="G9" s="234"/>
+      <c r="H9" s="234"/>
       <c r="I9" s="139" t="s">
         <v>109</v>
       </c>
@@ -4639,125 +4656,125 @@
       <c r="K9" s="139" t="s">
         <v>140</v>
       </c>
-      <c r="L9" s="228" t="s">
+      <c r="L9" s="234" t="s">
         <v>202</v>
       </c>
-      <c r="M9" s="273"/>
+      <c r="M9" s="243"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="372" t="s">
-        <v>363</v>
-      </c>
-      <c r="B10" s="371"/>
-      <c r="C10" s="371" t="s">
+      <c r="A10" s="367" t="s">
+        <v>361</v>
+      </c>
+      <c r="B10" s="366"/>
+      <c r="C10" s="366" t="s">
+        <v>368</v>
+      </c>
+      <c r="D10" s="366"/>
+      <c r="E10" s="366"/>
+      <c r="F10" s="366"/>
+      <c r="G10" s="366"/>
+      <c r="H10" s="366"/>
+      <c r="I10" s="142" t="s">
         <v>370</v>
-      </c>
-      <c r="D10" s="371"/>
-      <c r="E10" s="371"/>
-      <c r="F10" s="371"/>
-      <c r="G10" s="371"/>
-      <c r="H10" s="371"/>
-      <c r="I10" s="142" t="s">
-        <v>372</v>
       </c>
       <c r="J10" s="143"/>
       <c r="K10" s="151" t="s">
+        <v>363</v>
+      </c>
+      <c r="L10" s="142" t="s">
         <v>365</v>
       </c>
-      <c r="L10" s="142" t="s">
+      <c r="M10" s="144"/>
+    </row>
+    <row r="11" spans="1:20" s="90" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="372" t="s">
         <v>367</v>
       </c>
-      <c r="M10" s="144"/>
-    </row>
-    <row r="11" spans="1:20" s="90" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="376" t="s">
+      <c r="B11" s="370"/>
+      <c r="C11" s="370" t="s">
         <v>369</v>
       </c>
-      <c r="B11" s="362"/>
-      <c r="C11" s="362" t="s">
-        <v>371</v>
-      </c>
-      <c r="D11" s="362"/>
-      <c r="E11" s="362"/>
-      <c r="F11" s="362"/>
-      <c r="G11" s="362"/>
-      <c r="H11" s="362"/>
+      <c r="D11" s="370"/>
+      <c r="E11" s="370"/>
+      <c r="F11" s="370"/>
+      <c r="G11" s="370"/>
+      <c r="H11" s="370"/>
       <c r="I11" s="140" t="s">
+        <v>370</v>
+      </c>
+      <c r="J11" s="141" t="s">
+        <v>362</v>
+      </c>
+      <c r="K11" s="152" t="s">
+        <v>364</v>
+      </c>
+      <c r="L11" s="370" t="s">
         <v>372</v>
       </c>
-      <c r="J11" s="141" t="s">
-        <v>364</v>
-      </c>
-      <c r="K11" s="152" t="s">
-        <v>366</v>
-      </c>
-      <c r="L11" s="362" t="s">
-        <v>374</v>
-      </c>
-      <c r="M11" s="375"/>
+      <c r="M11" s="371"/>
       <c r="P11" s="50"/>
     </row>
     <row r="12" spans="1:20" s="90" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="363" t="s">
-        <v>434</v>
-      </c>
-      <c r="B12" s="363"/>
-      <c r="C12" s="363" t="s">
-        <v>435</v>
-      </c>
-      <c r="D12" s="363"/>
-      <c r="E12" s="363"/>
-      <c r="F12" s="363"/>
-      <c r="G12" s="363"/>
-      <c r="H12" s="363"/>
+      <c r="A12" s="374" t="s">
+        <v>432</v>
+      </c>
+      <c r="B12" s="374"/>
+      <c r="C12" s="374" t="s">
+        <v>433</v>
+      </c>
+      <c r="D12" s="374"/>
+      <c r="E12" s="374"/>
+      <c r="F12" s="374"/>
+      <c r="G12" s="374"/>
+      <c r="H12" s="374"/>
       <c r="I12" s="140" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J12" s="165"/>
       <c r="K12" s="152" t="s">
-        <v>438</v>
-      </c>
-      <c r="L12" s="362" t="s">
-        <v>374</v>
-      </c>
-      <c r="M12" s="375"/>
+        <v>436</v>
+      </c>
+      <c r="L12" s="370" t="s">
+        <v>372</v>
+      </c>
+      <c r="M12" s="371"/>
       <c r="P12" s="50"/>
     </row>
     <row r="13" spans="1:20" s="90" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="368" t="s">
-        <v>437</v>
-      </c>
-      <c r="B13" s="368"/>
-      <c r="C13" s="368" t="s">
-        <v>436</v>
-      </c>
-      <c r="D13" s="368"/>
-      <c r="E13" s="368"/>
-      <c r="F13" s="368"/>
-      <c r="G13" s="368"/>
-      <c r="H13" s="368"/>
+      <c r="A13" s="377" t="s">
+        <v>435</v>
+      </c>
+      <c r="B13" s="377"/>
+      <c r="C13" s="377" t="s">
+        <v>434</v>
+      </c>
+      <c r="D13" s="377"/>
+      <c r="E13" s="377"/>
+      <c r="F13" s="377"/>
+      <c r="G13" s="377"/>
+      <c r="H13" s="377"/>
       <c r="I13" s="140" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J13" s="165"/>
       <c r="K13" s="152" t="s">
-        <v>439</v>
-      </c>
-      <c r="L13" s="377" t="s">
-        <v>442</v>
-      </c>
-      <c r="M13" s="363"/>
+        <v>437</v>
+      </c>
+      <c r="L13" s="373" t="s">
+        <v>440</v>
+      </c>
+      <c r="M13" s="374"/>
       <c r="P13" s="50"/>
     </row>
     <row r="14" spans="1:20" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="359"/>
-      <c r="B14" s="359"/>
-      <c r="C14" s="359"/>
-      <c r="D14" s="359"/>
-      <c r="E14" s="359"/>
-      <c r="F14" s="359"/>
-      <c r="G14" s="359"/>
-      <c r="H14" s="359"/>
+      <c r="A14" s="341"/>
+      <c r="B14" s="341"/>
+      <c r="C14" s="341"/>
+      <c r="D14" s="341"/>
+      <c r="E14" s="341"/>
+      <c r="F14" s="341"/>
+      <c r="G14" s="341"/>
+      <c r="H14" s="341"/>
       <c r="I14" s="115"/>
       <c r="J14" s="8"/>
       <c r="K14" s="138"/>
@@ -4768,54 +4785,62 @@
       <c r="A16" s="214" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="373" t="s">
+      <c r="B16" s="368" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="373"/>
-      <c r="D16" s="374"/>
+      <c r="C16" s="368"/>
+      <c r="D16" s="369"/>
     </row>
     <row r="17" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="210" t="s">
-        <v>365</v>
-      </c>
-      <c r="B17" s="366" t="s">
-        <v>368</v>
-      </c>
-      <c r="C17" s="366"/>
-      <c r="D17" s="367"/>
+        <v>363</v>
+      </c>
+      <c r="B17" s="364" t="s">
+        <v>366</v>
+      </c>
+      <c r="C17" s="364"/>
+      <c r="D17" s="365"/>
     </row>
     <row r="18" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="210" t="s">
-        <v>366</v>
-      </c>
-      <c r="B18" s="366" t="s">
-        <v>373</v>
-      </c>
-      <c r="C18" s="366"/>
-      <c r="D18" s="367"/>
+        <v>364</v>
+      </c>
+      <c r="B18" s="364" t="s">
+        <v>371</v>
+      </c>
+      <c r="C18" s="364"/>
+      <c r="D18" s="365"/>
     </row>
     <row r="19" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="210" t="s">
+        <v>436</v>
+      </c>
+      <c r="B19" s="364" t="s">
         <v>438</v>
       </c>
-      <c r="B19" s="366" t="s">
-        <v>440</v>
-      </c>
-      <c r="C19" s="366"/>
-      <c r="D19" s="367"/>
+      <c r="C19" s="364"/>
+      <c r="D19" s="365"/>
     </row>
     <row r="20" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="211" t="s">
+        <v>437</v>
+      </c>
+      <c r="B20" s="362" t="s">
         <v>439</v>
       </c>
-      <c r="B20" s="369" t="s">
-        <v>441</v>
-      </c>
-      <c r="C20" s="369"/>
-      <c r="D20" s="370"/>
+      <c r="C20" s="362"/>
+      <c r="D20" s="363"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C13:H13"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A9:B9"/>
@@ -4832,14 +4857,6 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="L13:M13"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C13:H13"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -4875,8 +4892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971452CE-07B7-49FC-9670-DF6CAD46AC1E}">
   <dimension ref="A1:V40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:B27"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4907,82 +4924,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="276" t="s">
+      <c r="A1" s="226" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="276"/>
-      <c r="C1" s="276"/>
-      <c r="D1" s="276"/>
-      <c r="E1" s="276"/>
-      <c r="F1" s="276"/>
-      <c r="G1" s="276"/>
-      <c r="H1" s="276"/>
-      <c r="I1" s="276"/>
-      <c r="J1" s="276"/>
-      <c r="K1" s="276"/>
-      <c r="L1" s="276"/>
-      <c r="M1" s="276"/>
-      <c r="N1" s="276"/>
-      <c r="O1" s="276"/>
-      <c r="P1" s="276"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="226"/>
+      <c r="I1" s="226"/>
+      <c r="J1" s="226"/>
+      <c r="K1" s="226"/>
+      <c r="L1" s="226"/>
+      <c r="M1" s="226"/>
+      <c r="N1" s="226"/>
+      <c r="O1" s="226"/>
+      <c r="P1" s="226"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="str">
         <f>'Objeto de dominio'!A1&amp;":"</f>
         <v>Objeto de dominio:</v>
       </c>
-      <c r="B2" s="400" t="str">
+      <c r="B2" s="385" t="str">
         <f>'Objeto de dominio'!A10</f>
         <v>Peticion ruta</v>
       </c>
-      <c r="C2" s="400"/>
-      <c r="D2" s="400"/>
-      <c r="E2" s="400"/>
-      <c r="F2" s="400"/>
-      <c r="G2" s="400"/>
-      <c r="H2" s="400"/>
-      <c r="I2" s="400"/>
-      <c r="J2" s="400"/>
-      <c r="K2" s="400"/>
-      <c r="L2" s="400"/>
-      <c r="M2" s="400"/>
-      <c r="N2" s="400"/>
-      <c r="O2" s="400"/>
-      <c r="P2" s="400"/>
-      <c r="Q2" s="400"/>
-      <c r="R2" s="400"/>
-      <c r="S2" s="400"/>
-      <c r="T2" s="400"/>
-      <c r="U2" s="400"/>
+      <c r="C2" s="385"/>
+      <c r="D2" s="385"/>
+      <c r="E2" s="385"/>
+      <c r="F2" s="385"/>
+      <c r="G2" s="385"/>
+      <c r="H2" s="385"/>
+      <c r="I2" s="385"/>
+      <c r="J2" s="385"/>
+      <c r="K2" s="385"/>
+      <c r="L2" s="385"/>
+      <c r="M2" s="385"/>
+      <c r="N2" s="385"/>
+      <c r="O2" s="385"/>
+      <c r="P2" s="385"/>
+      <c r="Q2" s="385"/>
+      <c r="R2" s="385"/>
+      <c r="S2" s="385"/>
+      <c r="T2" s="385"/>
+      <c r="U2" s="385"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="str">
         <f>'Objeto de dominio'!B1&amp;":"</f>
         <v>Descripcion:</v>
       </c>
-      <c r="B3" s="400" t="str">
+      <c r="B3" s="385" t="str">
         <f>'Objeto de dominio'!B10</f>
         <v>Objeto con el cual un cliente puede hacer una solicitud para guardar el cupo en una reuta especifica, con la cual un conductor puede ver cuales clientes acepta o no para compartir su ruta</v>
       </c>
-      <c r="C3" s="400"/>
-      <c r="D3" s="400"/>
-      <c r="E3" s="400"/>
-      <c r="F3" s="400"/>
-      <c r="G3" s="400"/>
-      <c r="H3" s="400"/>
-      <c r="I3" s="400"/>
-      <c r="J3" s="400"/>
-      <c r="K3" s="400"/>
-      <c r="L3" s="400"/>
-      <c r="M3" s="400"/>
-      <c r="N3" s="400"/>
-      <c r="O3" s="400"/>
-      <c r="P3" s="400"/>
-      <c r="Q3" s="400"/>
-      <c r="R3" s="400"/>
-      <c r="S3" s="400"/>
-      <c r="T3" s="400"/>
-      <c r="U3" s="400"/>
+      <c r="C3" s="385"/>
+      <c r="D3" s="385"/>
+      <c r="E3" s="385"/>
+      <c r="F3" s="385"/>
+      <c r="G3" s="385"/>
+      <c r="H3" s="385"/>
+      <c r="I3" s="385"/>
+      <c r="J3" s="385"/>
+      <c r="K3" s="385"/>
+      <c r="L3" s="385"/>
+      <c r="M3" s="385"/>
+      <c r="N3" s="385"/>
+      <c r="O3" s="385"/>
+      <c r="P3" s="385"/>
+      <c r="Q3" s="385"/>
+      <c r="R3" s="385"/>
+      <c r="S3" s="385"/>
+      <c r="T3" s="385"/>
+      <c r="U3" s="385"/>
     </row>
     <row r="4" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="106" t="s">
@@ -5054,22 +5071,22 @@
         <v>14</v>
       </c>
       <c r="Q5" s="153" t="s">
+        <v>290</v>
+      </c>
+      <c r="R5" s="154" t="s">
+        <v>291</v>
+      </c>
+      <c r="S5" s="154" t="s">
+        <v>410</v>
+      </c>
+      <c r="T5" s="154" t="s">
+        <v>409</v>
+      </c>
+      <c r="U5" s="154" t="s">
+        <v>408</v>
+      </c>
+      <c r="V5" s="154" t="s">
         <v>292</v>
-      </c>
-      <c r="R5" s="154" t="s">
-        <v>293</v>
-      </c>
-      <c r="S5" s="154" t="s">
-        <v>412</v>
-      </c>
-      <c r="T5" s="154" t="s">
-        <v>411</v>
-      </c>
-      <c r="U5" s="154" t="s">
-        <v>410</v>
-      </c>
-      <c r="V5" s="154" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -5134,7 +5151,7 @@
     </row>
     <row r="7" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="59" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B7" s="93" t="s">
         <v>3</v>
@@ -5145,7 +5162,7 @@
       <c r="F7" s="93"/>
       <c r="G7" s="93"/>
       <c r="H7" s="94" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I7" s="93"/>
       <c r="J7" s="94"/>
@@ -5165,7 +5182,7 @@
         <v>7</v>
       </c>
       <c r="P7" s="94" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="Q7" s="109" t="s">
         <v>198</v>
@@ -5188,7 +5205,7 @@
     </row>
     <row r="8" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="59" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B8" s="93" t="s">
         <v>3</v>
@@ -5199,7 +5216,7 @@
       <c r="F8" s="93"/>
       <c r="G8" s="93"/>
       <c r="H8" s="94" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I8" s="93"/>
       <c r="J8" s="94"/>
@@ -5219,7 +5236,7 @@
         <v>7</v>
       </c>
       <c r="P8" s="94" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="Q8" s="109" t="s">
         <v>198</v>
@@ -5254,7 +5271,7 @@
       <c r="G9" s="93"/>
       <c r="H9" s="94"/>
       <c r="I9" s="93" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="J9" s="94"/>
       <c r="K9" s="93" t="s">
@@ -5273,7 +5290,7 @@
         <v>7</v>
       </c>
       <c r="P9" s="94" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="Q9" s="108" t="s">
         <v>200</v>
@@ -5361,7 +5378,7 @@
       <c r="F11" s="93"/>
       <c r="G11" s="93"/>
       <c r="H11" s="94" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="I11" s="93"/>
       <c r="J11" s="94"/>
@@ -5402,63 +5419,33 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>46</v>
-      </c>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="59"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="93"/>
       <c r="D12" s="93"/>
       <c r="E12" s="93"/>
       <c r="F12" s="93"/>
       <c r="G12" s="93"/>
-      <c r="H12" s="94" t="s">
-        <v>476</v>
-      </c>
+      <c r="H12" s="94"/>
       <c r="I12" s="93"/>
       <c r="J12" s="94"/>
-      <c r="K12" s="93" t="s">
-        <v>7</v>
-      </c>
-      <c r="L12" s="93" t="s">
-        <v>7</v>
-      </c>
-      <c r="M12" s="93" t="s">
-        <v>4</v>
-      </c>
-      <c r="N12" s="93" t="s">
-        <v>7</v>
-      </c>
-      <c r="O12" s="93" t="s">
-        <v>7</v>
-      </c>
-      <c r="P12" s="94" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q12" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="R12" s="108" t="s">
-        <v>200</v>
-      </c>
-      <c r="S12" s="108" t="s">
-        <v>200</v>
-      </c>
-      <c r="T12" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="U12" s="108" t="s">
-        <v>201</v>
-      </c>
-      <c r="V12" s="108" t="s">
-        <v>200</v>
-      </c>
+      <c r="K12" s="93"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="93"/>
+      <c r="P12" s="94"/>
+      <c r="Q12" s="108"/>
+      <c r="R12" s="108"/>
+      <c r="S12" s="108"/>
+      <c r="T12" s="108"/>
+      <c r="U12" s="108"/>
+      <c r="V12" s="108"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="59" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B13" s="93" t="s">
         <v>12</v>
@@ -5469,10 +5456,10 @@
       <c r="F13" s="93"/>
       <c r="G13" s="93"/>
       <c r="H13" s="94" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I13" s="93" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="J13" s="94"/>
       <c r="K13" s="93" t="s">
@@ -5491,7 +5478,7 @@
         <v>7</v>
       </c>
       <c r="P13" s="94" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="Q13" s="108" t="s">
         <v>198</v>
@@ -5516,6 +5503,9 @@
       <c r="A15" s="195"/>
       <c r="B15" s="195"/>
       <c r="C15" s="195"/>
+      <c r="D15" s="3" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="192"/>
@@ -5530,420 +5520,470 @@
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="192"/>
       <c r="B18" s="193"/>
-      <c r="C18" s="194"/>
+      <c r="C18" s="194" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="19" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="332" t="s">
+      <c r="A20" s="331" t="s">
         <v>107</v>
       </c>
-      <c r="B20" s="324"/>
-      <c r="C20" s="324" t="s">
+      <c r="B20" s="329"/>
+      <c r="C20" s="329" t="s">
         <v>108</v>
       </c>
-      <c r="D20" s="324"/>
-      <c r="E20" s="324"/>
-      <c r="F20" s="324"/>
-      <c r="G20" s="324"/>
-      <c r="H20" s="324"/>
-      <c r="I20" s="324" t="s">
+      <c r="D20" s="329"/>
+      <c r="E20" s="329"/>
+      <c r="F20" s="329"/>
+      <c r="G20" s="329"/>
+      <c r="H20" s="329"/>
+      <c r="I20" s="329" t="s">
         <v>109</v>
       </c>
-      <c r="J20" s="324"/>
-      <c r="K20" s="324"/>
-      <c r="L20" s="324"/>
-      <c r="M20" s="324" t="s">
+      <c r="J20" s="329"/>
+      <c r="K20" s="329"/>
+      <c r="L20" s="329"/>
+      <c r="M20" s="329" t="s">
         <v>110</v>
       </c>
-      <c r="N20" s="324"/>
-      <c r="O20" s="324"/>
-      <c r="P20" s="324"/>
-      <c r="Q20" s="324" t="s">
+      <c r="N20" s="329"/>
+      <c r="O20" s="329"/>
+      <c r="P20" s="329"/>
+      <c r="Q20" s="329" t="s">
         <v>140</v>
       </c>
-      <c r="R20" s="324"/>
-      <c r="S20" s="324" t="s">
-        <v>307</v>
-      </c>
-      <c r="T20" s="324"/>
+      <c r="R20" s="329"/>
+      <c r="S20" s="329" t="s">
+        <v>305</v>
+      </c>
+      <c r="T20" s="329"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="378" t="s">
-        <v>292</v>
-      </c>
-      <c r="B21" s="379"/>
-      <c r="C21" s="390" t="s">
-        <v>274</v>
-      </c>
-      <c r="D21" s="391"/>
-      <c r="E21" s="391"/>
-      <c r="F21" s="391"/>
-      <c r="G21" s="391"/>
-      <c r="H21" s="379"/>
-      <c r="I21" s="390" t="s">
-        <v>281</v>
-      </c>
-      <c r="J21" s="391"/>
-      <c r="K21" s="391"/>
-      <c r="L21" s="379"/>
-      <c r="M21" s="390"/>
-      <c r="N21" s="391"/>
-      <c r="O21" s="391"/>
-      <c r="P21" s="379"/>
-      <c r="Q21" s="394" t="s">
-        <v>286</v>
-      </c>
-      <c r="R21" s="394"/>
-      <c r="S21" s="389"/>
-      <c r="T21" s="389"/>
+      <c r="A21" s="396" t="s">
+        <v>290</v>
+      </c>
+      <c r="B21" s="388"/>
+      <c r="C21" s="386" t="s">
+        <v>273</v>
+      </c>
+      <c r="D21" s="387"/>
+      <c r="E21" s="387"/>
+      <c r="F21" s="387"/>
+      <c r="G21" s="387"/>
+      <c r="H21" s="388"/>
+      <c r="I21" s="386" t="s">
+        <v>279</v>
+      </c>
+      <c r="J21" s="387"/>
+      <c r="K21" s="387"/>
+      <c r="L21" s="388"/>
+      <c r="M21" s="386"/>
+      <c r="N21" s="387"/>
+      <c r="O21" s="387"/>
+      <c r="P21" s="388"/>
+      <c r="Q21" s="380" t="s">
+        <v>284</v>
+      </c>
+      <c r="R21" s="380"/>
+      <c r="S21" s="381"/>
+      <c r="T21" s="381"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="399"/>
-      <c r="B22" s="397"/>
-      <c r="C22" s="395"/>
-      <c r="D22" s="396"/>
-      <c r="E22" s="396"/>
-      <c r="F22" s="396"/>
-      <c r="G22" s="396"/>
-      <c r="H22" s="397"/>
-      <c r="I22" s="395"/>
-      <c r="J22" s="396"/>
-      <c r="K22" s="396"/>
-      <c r="L22" s="397"/>
-      <c r="M22" s="395"/>
-      <c r="N22" s="396"/>
-      <c r="O22" s="396"/>
-      <c r="P22" s="397"/>
-      <c r="Q22" s="394" t="s">
-        <v>287</v>
-      </c>
-      <c r="R22" s="394"/>
-      <c r="S22" s="389" t="s">
-        <v>308</v>
-      </c>
-      <c r="T22" s="389"/>
+      <c r="A22" s="397"/>
+      <c r="B22" s="391"/>
+      <c r="C22" s="389"/>
+      <c r="D22" s="390"/>
+      <c r="E22" s="390"/>
+      <c r="F22" s="390"/>
+      <c r="G22" s="390"/>
+      <c r="H22" s="391"/>
+      <c r="I22" s="389"/>
+      <c r="J22" s="390"/>
+      <c r="K22" s="390"/>
+      <c r="L22" s="391"/>
+      <c r="M22" s="389"/>
+      <c r="N22" s="390"/>
+      <c r="O22" s="390"/>
+      <c r="P22" s="391"/>
+      <c r="Q22" s="380" t="s">
+        <v>285</v>
+      </c>
+      <c r="R22" s="380"/>
+      <c r="S22" s="381" t="s">
+        <v>306</v>
+      </c>
+      <c r="T22" s="381"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="380"/>
-      <c r="B23" s="381"/>
+      <c r="A23" s="398"/>
+      <c r="B23" s="394"/>
       <c r="C23" s="392"/>
       <c r="D23" s="393"/>
       <c r="E23" s="393"/>
       <c r="F23" s="393"/>
       <c r="G23" s="393"/>
-      <c r="H23" s="381"/>
+      <c r="H23" s="394"/>
       <c r="I23" s="392"/>
       <c r="J23" s="393"/>
       <c r="K23" s="393"/>
-      <c r="L23" s="381"/>
+      <c r="L23" s="394"/>
       <c r="M23" s="392"/>
       <c r="N23" s="393"/>
       <c r="O23" s="393"/>
-      <c r="P23" s="381"/>
-      <c r="Q23" s="394" t="s">
-        <v>299</v>
-      </c>
-      <c r="R23" s="394"/>
-      <c r="S23" s="389"/>
-      <c r="T23" s="389"/>
+      <c r="P23" s="394"/>
+      <c r="Q23" s="380" t="s">
+        <v>297</v>
+      </c>
+      <c r="R23" s="380"/>
+      <c r="S23" s="381"/>
+      <c r="T23" s="381"/>
     </row>
     <row r="24" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="388" t="s">
+      <c r="A24" s="395" t="s">
+        <v>291</v>
+      </c>
+      <c r="B24" s="381"/>
+      <c r="C24" s="409" t="s">
+        <v>274</v>
+      </c>
+      <c r="D24" s="409"/>
+      <c r="E24" s="409"/>
+      <c r="F24" s="409"/>
+      <c r="G24" s="409"/>
+      <c r="H24" s="409"/>
+      <c r="I24" s="381" t="s">
+        <v>279</v>
+      </c>
+      <c r="J24" s="381"/>
+      <c r="K24" s="381"/>
+      <c r="L24" s="381"/>
+      <c r="M24" s="381"/>
+      <c r="N24" s="381"/>
+      <c r="O24" s="381"/>
+      <c r="P24" s="381"/>
+      <c r="Q24" s="380" t="s">
         <v>293</v>
       </c>
-      <c r="B24" s="389"/>
-      <c r="C24" s="398" t="s">
+      <c r="R24" s="380"/>
+      <c r="S24" s="381" t="s">
+        <v>307</v>
+      </c>
+      <c r="T24" s="381"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="395" t="s">
+        <v>292</v>
+      </c>
+      <c r="B25" s="381"/>
+      <c r="C25" s="381" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="381"/>
+      <c r="E25" s="381"/>
+      <c r="F25" s="381"/>
+      <c r="G25" s="381"/>
+      <c r="H25" s="381"/>
+      <c r="I25" s="381" t="s">
+        <v>281</v>
+      </c>
+      <c r="J25" s="381"/>
+      <c r="K25" s="381"/>
+      <c r="L25" s="381"/>
+      <c r="M25" s="381"/>
+      <c r="N25" s="381"/>
+      <c r="O25" s="381"/>
+      <c r="P25" s="381"/>
+      <c r="Q25" s="380" t="s">
+        <v>294</v>
+      </c>
+      <c r="R25" s="380"/>
+      <c r="S25" s="381" t="s">
+        <v>307</v>
+      </c>
+      <c r="T25" s="381"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="395" t="s">
+        <v>267</v>
+      </c>
+      <c r="B26" s="381"/>
+      <c r="C26" s="381" t="s">
         <v>275</v>
       </c>
-      <c r="D24" s="398"/>
-      <c r="E24" s="398"/>
-      <c r="F24" s="398"/>
-      <c r="G24" s="398"/>
-      <c r="H24" s="398"/>
-      <c r="I24" s="389" t="s">
-        <v>281</v>
-      </c>
-      <c r="J24" s="389"/>
-      <c r="K24" s="389"/>
-      <c r="L24" s="389"/>
-      <c r="M24" s="389"/>
-      <c r="N24" s="389"/>
-      <c r="O24" s="389"/>
-      <c r="P24" s="389"/>
-      <c r="Q24" s="394" t="s">
-        <v>295</v>
-      </c>
-      <c r="R24" s="394"/>
-      <c r="S24" s="389" t="s">
+      <c r="D26" s="381"/>
+      <c r="E26" s="381"/>
+      <c r="F26" s="381"/>
+      <c r="G26" s="381"/>
+      <c r="H26" s="381"/>
+      <c r="I26" s="381" t="s">
+        <v>280</v>
+      </c>
+      <c r="J26" s="381"/>
+      <c r="K26" s="381"/>
+      <c r="L26" s="381"/>
+      <c r="M26" s="381"/>
+      <c r="N26" s="381"/>
+      <c r="O26" s="381"/>
+      <c r="P26" s="381"/>
+      <c r="Q26" s="380" t="s">
+        <v>286</v>
+      </c>
+      <c r="R26" s="380"/>
+      <c r="S26" s="381" t="s">
+        <v>308</v>
+      </c>
+      <c r="T26" s="381"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="395" t="s">
+        <v>268</v>
+      </c>
+      <c r="B27" s="381"/>
+      <c r="C27" s="381" t="s">
+        <v>276</v>
+      </c>
+      <c r="D27" s="381"/>
+      <c r="E27" s="381"/>
+      <c r="F27" s="381"/>
+      <c r="G27" s="381"/>
+      <c r="H27" s="381"/>
+      <c r="I27" s="381" t="s">
+        <v>280</v>
+      </c>
+      <c r="J27" s="381"/>
+      <c r="K27" s="381"/>
+      <c r="L27" s="381"/>
+      <c r="M27" s="381"/>
+      <c r="N27" s="381"/>
+      <c r="O27" s="381"/>
+      <c r="P27" s="381"/>
+      <c r="Q27" s="380" t="s">
+        <v>296</v>
+      </c>
+      <c r="R27" s="380"/>
+      <c r="S27" s="381"/>
+      <c r="T27" s="381"/>
+    </row>
+    <row r="28" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="396" t="s">
+        <v>269</v>
+      </c>
+      <c r="B28" s="388"/>
+      <c r="C28" s="399" t="s">
+        <v>277</v>
+      </c>
+      <c r="D28" s="400"/>
+      <c r="E28" s="400"/>
+      <c r="F28" s="400"/>
+      <c r="G28" s="400"/>
+      <c r="H28" s="401"/>
+      <c r="I28" s="386" t="s">
+        <v>282</v>
+      </c>
+      <c r="J28" s="387"/>
+      <c r="K28" s="387"/>
+      <c r="L28" s="388"/>
+      <c r="M28" s="386" t="s">
+        <v>283</v>
+      </c>
+      <c r="N28" s="387"/>
+      <c r="O28" s="387"/>
+      <c r="P28" s="388"/>
+      <c r="Q28" s="380" t="s">
+        <v>301</v>
+      </c>
+      <c r="R28" s="380"/>
+      <c r="S28" s="381" t="s">
         <v>309</v>
       </c>
-      <c r="T24" s="389"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="388" t="s">
-        <v>294</v>
-      </c>
-      <c r="B25" s="389"/>
-      <c r="C25" s="389" t="s">
-        <v>276</v>
-      </c>
-      <c r="D25" s="389"/>
-      <c r="E25" s="389"/>
-      <c r="F25" s="389"/>
-      <c r="G25" s="389"/>
-      <c r="H25" s="389"/>
-      <c r="I25" s="389" t="s">
-        <v>283</v>
-      </c>
-      <c r="J25" s="389"/>
-      <c r="K25" s="389"/>
-      <c r="L25" s="389"/>
-      <c r="M25" s="389"/>
-      <c r="N25" s="389"/>
-      <c r="O25" s="389"/>
-      <c r="P25" s="389"/>
-      <c r="Q25" s="394" t="s">
-        <v>296</v>
-      </c>
-      <c r="R25" s="394"/>
-      <c r="S25" s="389" t="s">
-        <v>309</v>
-      </c>
-      <c r="T25" s="389"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="388" t="s">
-        <v>268</v>
-      </c>
-      <c r="B26" s="389"/>
-      <c r="C26" s="389" t="s">
-        <v>277</v>
-      </c>
-      <c r="D26" s="389"/>
-      <c r="E26" s="389"/>
-      <c r="F26" s="389"/>
-      <c r="G26" s="389"/>
-      <c r="H26" s="389"/>
-      <c r="I26" s="389" t="s">
-        <v>282</v>
-      </c>
-      <c r="J26" s="389"/>
-      <c r="K26" s="389"/>
-      <c r="L26" s="389"/>
-      <c r="M26" s="389"/>
-      <c r="N26" s="389"/>
-      <c r="O26" s="389"/>
-      <c r="P26" s="389"/>
-      <c r="Q26" s="394" t="s">
-        <v>288</v>
-      </c>
-      <c r="R26" s="394"/>
-      <c r="S26" s="389" t="s">
-        <v>310</v>
-      </c>
-      <c r="T26" s="389"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="388" t="s">
-        <v>269</v>
-      </c>
-      <c r="B27" s="389"/>
-      <c r="C27" s="389" t="s">
-        <v>278</v>
-      </c>
-      <c r="D27" s="389"/>
-      <c r="E27" s="389"/>
-      <c r="F27" s="389"/>
-      <c r="G27" s="389"/>
-      <c r="H27" s="389"/>
-      <c r="I27" s="389" t="s">
-        <v>282</v>
-      </c>
-      <c r="J27" s="389"/>
-      <c r="K27" s="389"/>
-      <c r="L27" s="389"/>
-      <c r="M27" s="389"/>
-      <c r="N27" s="389"/>
-      <c r="O27" s="389"/>
-      <c r="P27" s="389"/>
-      <c r="Q27" s="394" t="s">
-        <v>298</v>
-      </c>
-      <c r="R27" s="394"/>
-      <c r="S27" s="389"/>
-      <c r="T27" s="389"/>
-    </row>
-    <row r="28" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="378" t="s">
-        <v>270</v>
-      </c>
-      <c r="B28" s="379"/>
-      <c r="C28" s="382" t="s">
-        <v>279</v>
-      </c>
-      <c r="D28" s="383"/>
-      <c r="E28" s="383"/>
-      <c r="F28" s="383"/>
-      <c r="G28" s="383"/>
-      <c r="H28" s="384"/>
-      <c r="I28" s="390" t="s">
-        <v>284</v>
-      </c>
-      <c r="J28" s="391"/>
-      <c r="K28" s="391"/>
-      <c r="L28" s="379"/>
-      <c r="M28" s="390" t="s">
-        <v>285</v>
-      </c>
-      <c r="N28" s="391"/>
-      <c r="O28" s="391"/>
-      <c r="P28" s="379"/>
-      <c r="Q28" s="394" t="s">
-        <v>303</v>
-      </c>
-      <c r="R28" s="394"/>
-      <c r="S28" s="389" t="s">
-        <v>311</v>
-      </c>
-      <c r="T28" s="389"/>
+      <c r="T28" s="381"/>
     </row>
     <row r="29" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="380"/>
-      <c r="B29" s="381"/>
-      <c r="C29" s="385"/>
-      <c r="D29" s="386"/>
-      <c r="E29" s="386"/>
-      <c r="F29" s="386"/>
-      <c r="G29" s="386"/>
-      <c r="H29" s="387"/>
+      <c r="A29" s="398"/>
+      <c r="B29" s="394"/>
+      <c r="C29" s="402"/>
+      <c r="D29" s="403"/>
+      <c r="E29" s="403"/>
+      <c r="F29" s="403"/>
+      <c r="G29" s="403"/>
+      <c r="H29" s="404"/>
       <c r="I29" s="392"/>
       <c r="J29" s="393"/>
       <c r="K29" s="393"/>
-      <c r="L29" s="381"/>
+      <c r="L29" s="394"/>
       <c r="M29" s="392"/>
       <c r="N29" s="393"/>
       <c r="O29" s="393"/>
-      <c r="P29" s="381"/>
-      <c r="Q29" s="394" t="s">
-        <v>290</v>
-      </c>
-      <c r="R29" s="394"/>
-      <c r="S29" s="389"/>
-      <c r="T29" s="389"/>
+      <c r="P29" s="394"/>
+      <c r="Q29" s="380" t="s">
+        <v>288</v>
+      </c>
+      <c r="R29" s="380"/>
+      <c r="S29" s="381"/>
+      <c r="T29" s="381"/>
     </row>
     <row r="30" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="199" t="s">
         <v>119</v>
       </c>
-      <c r="B31" s="324" t="s">
+      <c r="B31" s="329" t="s">
         <v>108</v>
       </c>
-      <c r="C31" s="324"/>
-      <c r="D31" s="324"/>
-      <c r="E31" s="331"/>
+      <c r="C31" s="329"/>
+      <c r="D31" s="329"/>
+      <c r="E31" s="330"/>
+      <c r="L31" s="3" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="200" t="s">
-        <v>286</v>
-      </c>
-      <c r="B32" s="389" t="s">
-        <v>289</v>
-      </c>
-      <c r="C32" s="389"/>
-      <c r="D32" s="389"/>
-      <c r="E32" s="401"/>
+        <v>284</v>
+      </c>
+      <c r="B32" s="381" t="s">
+        <v>287</v>
+      </c>
+      <c r="C32" s="381"/>
+      <c r="D32" s="381"/>
+      <c r="E32" s="382"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="200" t="s">
-        <v>287</v>
-      </c>
-      <c r="B33" s="402" t="s">
-        <v>304</v>
-      </c>
-      <c r="C33" s="402"/>
-      <c r="D33" s="402"/>
-      <c r="E33" s="403"/>
+        <v>285</v>
+      </c>
+      <c r="B33" s="383" t="s">
+        <v>302</v>
+      </c>
+      <c r="C33" s="383"/>
+      <c r="D33" s="383"/>
+      <c r="E33" s="384"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="200" t="s">
-        <v>288</v>
-      </c>
-      <c r="B34" s="389" t="s">
-        <v>291</v>
-      </c>
-      <c r="C34" s="389"/>
-      <c r="D34" s="389"/>
-      <c r="E34" s="401"/>
+        <v>286</v>
+      </c>
+      <c r="B34" s="381" t="s">
+        <v>289</v>
+      </c>
+      <c r="C34" s="381"/>
+      <c r="D34" s="381"/>
+      <c r="E34" s="382"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="200" t="s">
-        <v>290</v>
-      </c>
-      <c r="B35" s="389" t="s">
-        <v>305</v>
-      </c>
-      <c r="C35" s="389"/>
-      <c r="D35" s="389"/>
-      <c r="E35" s="401"/>
+        <v>288</v>
+      </c>
+      <c r="B35" s="381" t="s">
+        <v>303</v>
+      </c>
+      <c r="C35" s="381"/>
+      <c r="D35" s="381"/>
+      <c r="E35" s="382"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="200" t="s">
+        <v>293</v>
+      </c>
+      <c r="B36" s="381" t="s">
         <v>295</v>
       </c>
-      <c r="B36" s="389" t="s">
-        <v>297</v>
-      </c>
-      <c r="C36" s="389"/>
-      <c r="D36" s="389"/>
-      <c r="E36" s="401"/>
+      <c r="C36" s="381"/>
+      <c r="D36" s="381"/>
+      <c r="E36" s="382"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="200" t="s">
-        <v>296</v>
-      </c>
-      <c r="B37" s="389" t="s">
-        <v>487</v>
-      </c>
-      <c r="C37" s="389"/>
-      <c r="D37" s="389"/>
-      <c r="E37" s="401"/>
+        <v>294</v>
+      </c>
+      <c r="B37" s="381" t="s">
+        <v>484</v>
+      </c>
+      <c r="C37" s="381"/>
+      <c r="D37" s="381"/>
+      <c r="E37" s="382"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="200" t="s">
+        <v>296</v>
+      </c>
+      <c r="B38" s="381" t="s">
         <v>298</v>
       </c>
-      <c r="B38" s="389" t="s">
-        <v>300</v>
-      </c>
-      <c r="C38" s="389"/>
-      <c r="D38" s="389"/>
-      <c r="E38" s="401"/>
+      <c r="C38" s="381"/>
+      <c r="D38" s="381"/>
+      <c r="E38" s="382"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="200" t="s">
+        <v>297</v>
+      </c>
+      <c r="B39" s="381" t="s">
         <v>299</v>
       </c>
-      <c r="B39" s="389" t="s">
-        <v>301</v>
-      </c>
-      <c r="C39" s="389"/>
-      <c r="D39" s="389"/>
-      <c r="E39" s="401"/>
+      <c r="C39" s="381"/>
+      <c r="D39" s="381"/>
+      <c r="E39" s="382"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="201" t="s">
-        <v>302</v>
-      </c>
-      <c r="B40" s="404" t="s">
-        <v>306</v>
-      </c>
-      <c r="C40" s="404"/>
-      <c r="D40" s="404"/>
-      <c r="E40" s="405"/>
+        <v>300</v>
+      </c>
+      <c r="B40" s="378" t="s">
+        <v>304</v>
+      </c>
+      <c r="C40" s="378"/>
+      <c r="D40" s="378"/>
+      <c r="E40" s="379"/>
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="C28:H29"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="I28:L29"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="M28:P29"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="I21:L23"/>
+    <mergeCell ref="M21:P23"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="A21:B23"/>
+    <mergeCell ref="C21:H23"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="B2:U2"/>
+    <mergeCell ref="B3:U3"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B33:E33"/>
     <mergeCell ref="B40:E40"/>
     <mergeCell ref="Q29:R29"/>
     <mergeCell ref="S20:T20"/>
@@ -5960,51 +6000,6 @@
     <mergeCell ref="B35:E35"/>
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="B2:U2"/>
-    <mergeCell ref="B3:U3"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="I21:L23"/>
-    <mergeCell ref="M21:P23"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="A21:B23"/>
-    <mergeCell ref="C21:H23"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="M28:P29"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="C28:H29"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="I28:L29"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="C27:H27"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -6012,7 +6007,6 @@
     <hyperlink ref="A4" location="'Datos simulados '!A1" display="Datos simulados" xr:uid="{42B2CD83-1AA1-45F4-9048-02657F77649B}"/>
     <hyperlink ref="B10" location="Ruta!A1" display="Ruta" xr:uid="{A8E2334F-62EE-41B7-AFC4-4DF88156E467}"/>
     <hyperlink ref="B11" location="Cliente!A1" display="Cliente" xr:uid="{AC78F13A-C092-4A16-AC35-76343939E8A2}"/>
-    <hyperlink ref="B12" location="Conductor!A1" display="Conductor" xr:uid="{2C9122CB-C8A7-4747-AA33-C562497CD9B4}"/>
     <hyperlink ref="Q21:R21" location="'Peticion ruta'!A32" display="PR-P-1" xr:uid="{3CF05697-D8D9-4AE9-B702-458B14AC8355}"/>
     <hyperlink ref="Q22:R22" location="'Peticion ruta'!A33" display="PR-P-2" xr:uid="{BB47BB0A-76A7-4BC6-88E3-DEBEBD0B4B29}"/>
     <hyperlink ref="Q23:R23" location="'Peticion ruta'!A39" display="PR-P-8" xr:uid="{D5CA5E2F-36FD-4315-B718-75FB4758364A}"/>
@@ -6024,7 +6018,7 @@
     <hyperlink ref="Q29:R29" location="'Peticion ruta'!A35" display="PR-P-4" xr:uid="{65EE6C88-F1F9-45A3-AA3A-BD73DE17D6E4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -6050,8 +6044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAB3554-9B32-4CE9-9788-4B24092013FF}">
   <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:D25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6078,72 +6072,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="276" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="276"/>
-      <c r="C1" s="276"/>
-      <c r="D1" s="276"/>
-      <c r="E1" s="276"/>
-      <c r="F1" s="276"/>
-      <c r="G1" s="276"/>
-      <c r="H1" s="276"/>
-      <c r="I1" s="276"/>
-      <c r="J1" s="276"/>
-      <c r="K1" s="276"/>
-      <c r="L1" s="276"/>
-      <c r="M1" s="276"/>
-      <c r="N1" s="276"/>
-      <c r="O1" s="276"/>
-      <c r="P1" s="276"/>
+      <c r="A1" s="226" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="226"/>
+      <c r="I1" s="226"/>
+      <c r="J1" s="226"/>
+      <c r="K1" s="226"/>
+      <c r="L1" s="226"/>
+      <c r="M1" s="226"/>
+      <c r="N1" s="226"/>
+      <c r="O1" s="226"/>
+      <c r="P1" s="226"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="str">
         <f>'Objeto de dominio'!A1&amp;":"</f>
         <v>Objeto de dominio:</v>
       </c>
-      <c r="B2" s="408" t="str">
+      <c r="B2" s="405" t="str">
         <f>'Objeto de dominio'!A11&amp;":"</f>
         <v>Conductor Vehiculo:</v>
       </c>
-      <c r="C2" s="408"/>
-      <c r="D2" s="408"/>
-      <c r="E2" s="408"/>
-      <c r="F2" s="408"/>
-      <c r="G2" s="408"/>
-      <c r="H2" s="408"/>
-      <c r="I2" s="408"/>
-      <c r="J2" s="408"/>
-      <c r="K2" s="408"/>
-      <c r="L2" s="408"/>
-      <c r="M2" s="408"/>
-      <c r="N2" s="408"/>
-      <c r="O2" s="408"/>
-      <c r="P2" s="408"/>
+      <c r="C2" s="405"/>
+      <c r="D2" s="405"/>
+      <c r="E2" s="405"/>
+      <c r="F2" s="405"/>
+      <c r="G2" s="405"/>
+      <c r="H2" s="405"/>
+      <c r="I2" s="405"/>
+      <c r="J2" s="405"/>
+      <c r="K2" s="405"/>
+      <c r="L2" s="405"/>
+      <c r="M2" s="405"/>
+      <c r="N2" s="405"/>
+      <c r="O2" s="405"/>
+      <c r="P2" s="405"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="str">
         <f>'Objeto de dominio'!B1&amp;":"</f>
         <v>Descripcion:</v>
       </c>
-      <c r="B3" s="409" t="str">
+      <c r="B3" s="406" t="str">
         <f>'Objeto de dominio'!B11</f>
         <v>Objeto que tiene la funcion de especificar quien es el conductor de que vehiculo, facilitando a los clientes para tomar la decisión de que ruta y vehiculo usar.</v>
       </c>
-      <c r="C3" s="409"/>
-      <c r="D3" s="409"/>
-      <c r="E3" s="409"/>
-      <c r="F3" s="409"/>
-      <c r="G3" s="409"/>
-      <c r="H3" s="409"/>
-      <c r="I3" s="409"/>
-      <c r="J3" s="409"/>
-      <c r="K3" s="409"/>
-      <c r="L3" s="409"/>
-      <c r="M3" s="409"/>
-      <c r="N3" s="409"/>
-      <c r="O3" s="409"/>
-      <c r="P3" s="409"/>
+      <c r="C3" s="406"/>
+      <c r="D3" s="406"/>
+      <c r="E3" s="406"/>
+      <c r="F3" s="406"/>
+      <c r="G3" s="406"/>
+      <c r="H3" s="406"/>
+      <c r="I3" s="406"/>
+      <c r="J3" s="406"/>
+      <c r="K3" s="406"/>
+      <c r="L3" s="406"/>
+      <c r="M3" s="406"/>
+      <c r="N3" s="406"/>
+      <c r="O3" s="406"/>
+      <c r="P3" s="406"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
@@ -6289,7 +6283,7 @@
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
       <c r="H7" s="18" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
@@ -6309,7 +6303,7 @@
         <v>7</v>
       </c>
       <c r="P7" s="98" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="Q7" s="47" t="s">
         <v>197</v>
@@ -6335,7 +6329,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I8" s="18"/>
       <c r="J8" s="18" t="s">
@@ -6378,7 +6372,9 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="195"/>
-      <c r="B11" s="195"/>
+      <c r="B11" s="195" t="s">
+        <v>502</v>
+      </c>
       <c r="C11" s="195"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -6393,223 +6389,206 @@
     </row>
     <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="332" t="s">
+      <c r="A15" s="331" t="s">
         <v>107</v>
       </c>
-      <c r="B15" s="324"/>
-      <c r="C15" s="324" t="s">
+      <c r="B15" s="329"/>
+      <c r="C15" s="329" t="s">
         <v>108</v>
       </c>
-      <c r="D15" s="324"/>
-      <c r="E15" s="324"/>
-      <c r="F15" s="324"/>
-      <c r="G15" s="324"/>
-      <c r="H15" s="324"/>
-      <c r="I15" s="324" t="s">
+      <c r="D15" s="329"/>
+      <c r="E15" s="329"/>
+      <c r="F15" s="329"/>
+      <c r="G15" s="329"/>
+      <c r="H15" s="329"/>
+      <c r="I15" s="329" t="s">
         <v>109</v>
       </c>
-      <c r="J15" s="324"/>
-      <c r="K15" s="324"/>
-      <c r="L15" s="324"/>
-      <c r="M15" s="324" t="s">
+      <c r="J15" s="329"/>
+      <c r="K15" s="329"/>
+      <c r="L15" s="329"/>
+      <c r="M15" s="329" t="s">
         <v>110</v>
       </c>
-      <c r="N15" s="324"/>
-      <c r="O15" s="324"/>
+      <c r="N15" s="329"/>
+      <c r="O15" s="329"/>
       <c r="P15" s="212" t="s">
         <v>140</v>
       </c>
-      <c r="Q15" s="406" t="s">
+      <c r="Q15" s="407" t="s">
         <v>202</v>
       </c>
-      <c r="R15" s="407"/>
+      <c r="R15" s="408"/>
     </row>
     <row r="16" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="333" t="s">
+      <c r="A16" s="326" t="s">
         <v>159</v>
       </c>
-      <c r="B16" s="223"/>
-      <c r="C16" s="274" t="s">
+      <c r="B16" s="235"/>
+      <c r="C16" s="244" t="s">
         <v>177</v>
       </c>
-      <c r="D16" s="274"/>
-      <c r="E16" s="274"/>
-      <c r="F16" s="274"/>
-      <c r="G16" s="274"/>
-      <c r="H16" s="274"/>
-      <c r="I16" s="223" t="s">
+      <c r="D16" s="244"/>
+      <c r="E16" s="244"/>
+      <c r="F16" s="244"/>
+      <c r="G16" s="244"/>
+      <c r="H16" s="244"/>
+      <c r="I16" s="235" t="s">
         <v>185</v>
       </c>
-      <c r="J16" s="223"/>
-      <c r="K16" s="223"/>
-      <c r="L16" s="223"/>
-      <c r="M16" s="295"/>
-      <c r="N16" s="295"/>
-      <c r="O16" s="295"/>
+      <c r="J16" s="235"/>
+      <c r="K16" s="235"/>
+      <c r="L16" s="235"/>
+      <c r="M16" s="294"/>
+      <c r="N16" s="294"/>
+      <c r="O16" s="294"/>
       <c r="P16" s="216" t="s">
         <v>189</v>
       </c>
-      <c r="Q16" s="223" t="s">
+      <c r="Q16" s="235" t="s">
         <v>206</v>
       </c>
-      <c r="R16" s="261"/>
+      <c r="R16" s="236"/>
     </row>
     <row r="17" spans="1:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="333"/>
-      <c r="B17" s="223"/>
-      <c r="C17" s="274"/>
-      <c r="D17" s="274"/>
-      <c r="E17" s="274"/>
-      <c r="F17" s="274"/>
-      <c r="G17" s="274"/>
-      <c r="H17" s="274"/>
-      <c r="I17" s="223"/>
-      <c r="J17" s="223"/>
-      <c r="K17" s="223"/>
-      <c r="L17" s="223"/>
-      <c r="M17" s="295"/>
-      <c r="N17" s="295"/>
-      <c r="O17" s="295"/>
+      <c r="A17" s="326"/>
+      <c r="B17" s="235"/>
+      <c r="C17" s="244"/>
+      <c r="D17" s="244"/>
+      <c r="E17" s="244"/>
+      <c r="F17" s="244"/>
+      <c r="G17" s="244"/>
+      <c r="H17" s="244"/>
+      <c r="I17" s="235"/>
+      <c r="J17" s="235"/>
+      <c r="K17" s="235"/>
+      <c r="L17" s="235"/>
+      <c r="M17" s="294"/>
+      <c r="N17" s="294"/>
+      <c r="O17" s="294"/>
       <c r="P17" s="216" t="s">
         <v>190</v>
       </c>
-      <c r="Q17" s="223" t="s">
+      <c r="Q17" s="235" t="s">
         <v>203</v>
       </c>
-      <c r="R17" s="261"/>
+      <c r="R17" s="236"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="320" t="s">
+      <c r="A18" s="321" t="s">
         <v>175</v>
       </c>
-      <c r="B18" s="295"/>
-      <c r="C18" s="295" t="s">
+      <c r="B18" s="294"/>
+      <c r="C18" s="294" t="s">
         <v>178</v>
       </c>
-      <c r="D18" s="295"/>
-      <c r="E18" s="295"/>
-      <c r="F18" s="295"/>
-      <c r="G18" s="295"/>
-      <c r="H18" s="295"/>
-      <c r="I18" s="295" t="s">
+      <c r="D18" s="294"/>
+      <c r="E18" s="294"/>
+      <c r="F18" s="294"/>
+      <c r="G18" s="294"/>
+      <c r="H18" s="294"/>
+      <c r="I18" s="294" t="s">
         <v>186</v>
       </c>
-      <c r="J18" s="295"/>
-      <c r="K18" s="295"/>
-      <c r="L18" s="295"/>
-      <c r="M18" s="295"/>
-      <c r="N18" s="295"/>
-      <c r="O18" s="295"/>
+      <c r="J18" s="294"/>
+      <c r="K18" s="294"/>
+      <c r="L18" s="294"/>
+      <c r="M18" s="294"/>
+      <c r="N18" s="294"/>
+      <c r="O18" s="294"/>
       <c r="P18" s="216" t="s">
         <v>192</v>
       </c>
-      <c r="Q18" s="295" t="s">
+      <c r="Q18" s="294" t="s">
         <v>205</v>
       </c>
-      <c r="R18" s="334"/>
+      <c r="R18" s="324"/>
     </row>
     <row r="19" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="318" t="s">
+      <c r="A19" s="322" t="s">
         <v>176</v>
       </c>
-      <c r="B19" s="319"/>
-      <c r="C19" s="319" t="s">
+      <c r="B19" s="323"/>
+      <c r="C19" s="323" t="s">
         <v>179</v>
       </c>
-      <c r="D19" s="319"/>
-      <c r="E19" s="319"/>
-      <c r="F19" s="319"/>
-      <c r="G19" s="319"/>
-      <c r="H19" s="319"/>
-      <c r="I19" s="319" t="s">
+      <c r="D19" s="323"/>
+      <c r="E19" s="323"/>
+      <c r="F19" s="323"/>
+      <c r="G19" s="323"/>
+      <c r="H19" s="323"/>
+      <c r="I19" s="323" t="s">
         <v>187</v>
       </c>
-      <c r="J19" s="319"/>
-      <c r="K19" s="319"/>
-      <c r="L19" s="319"/>
-      <c r="M19" s="319" t="s">
+      <c r="J19" s="323"/>
+      <c r="K19" s="323"/>
+      <c r="L19" s="323"/>
+      <c r="M19" s="323" t="s">
         <v>180</v>
       </c>
-      <c r="N19" s="319"/>
-      <c r="O19" s="319"/>
+      <c r="N19" s="323"/>
+      <c r="O19" s="323"/>
       <c r="P19" s="217" t="s">
         <v>193</v>
       </c>
-      <c r="Q19" s="319" t="s">
+      <c r="Q19" s="323" t="s">
         <v>207</v>
       </c>
-      <c r="R19" s="335"/>
+      <c r="R19" s="325"/>
     </row>
     <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="215" t="s">
         <v>188</v>
       </c>
-      <c r="B21" s="406" t="s">
+      <c r="B21" s="407" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="406"/>
-      <c r="D21" s="407"/>
+      <c r="C21" s="407"/>
+      <c r="D21" s="408"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="218" t="s">
         <v>189</v>
       </c>
-      <c r="B22" s="295" t="s">
+      <c r="B22" s="294" t="s">
         <v>195</v>
       </c>
-      <c r="C22" s="295"/>
-      <c r="D22" s="334"/>
+      <c r="C22" s="294"/>
+      <c r="D22" s="324"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="218" t="s">
         <v>190</v>
       </c>
-      <c r="B23" s="295" t="s">
+      <c r="B23" s="294" t="s">
         <v>191</v>
       </c>
-      <c r="C23" s="295"/>
-      <c r="D23" s="334"/>
+      <c r="C23" s="294"/>
+      <c r="D23" s="324"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="218" t="s">
         <v>192</v>
       </c>
-      <c r="B24" s="295" t="s">
+      <c r="B24" s="294" t="s">
         <v>204</v>
       </c>
-      <c r="C24" s="295"/>
-      <c r="D24" s="334"/>
+      <c r="C24" s="294"/>
+      <c r="D24" s="324"/>
     </row>
     <row r="25" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="168" t="s">
         <v>193</v>
       </c>
-      <c r="B25" s="319" t="s">
+      <c r="B25" s="323" t="s">
         <v>194</v>
       </c>
-      <c r="C25" s="319"/>
-      <c r="D25" s="335"/>
+      <c r="C25" s="323"/>
+      <c r="D25" s="325"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C19:H19"/>
     <mergeCell ref="Q15:R15"/>
     <mergeCell ref="Q16:R16"/>
     <mergeCell ref="Q17:R17"/>
@@ -6622,6 +6601,23 @@
     <mergeCell ref="I16:L17"/>
     <mergeCell ref="C16:H17"/>
     <mergeCell ref="A16:B17"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="M15:O15"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -6656,9 +6652,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DBE1D4-99F5-4379-9208-42439ACBACBC}">
-  <dimension ref="G34"/>
+  <dimension ref="G31:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
@@ -6667,6 +6663,11 @@
     <col min="1" max="16384" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
+    <row r="31" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S31" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
     <row r="34" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G34" s="206"/>
     </row>
@@ -6681,7 +6682,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6705,7 +6706,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -6745,7 +6746,7 @@
         <v>75</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -6753,7 +6754,7 @@
         <v>52</v>
       </c>
       <c r="B8" s="96" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -6761,7 +6762,7 @@
         <v>85</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -6836,72 +6837,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="276" t="s">
+      <c r="A1" s="226" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="276"/>
-      <c r="C1" s="276"/>
-      <c r="D1" s="276"/>
-      <c r="E1" s="276"/>
-      <c r="F1" s="276"/>
-      <c r="G1" s="276"/>
-      <c r="H1" s="276"/>
-      <c r="I1" s="276"/>
-      <c r="J1" s="276"/>
-      <c r="K1" s="276"/>
-      <c r="L1" s="276"/>
-      <c r="M1" s="276"/>
-      <c r="N1" s="276"/>
-      <c r="O1" s="276"/>
-      <c r="P1" s="276"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="226"/>
+      <c r="I1" s="226"/>
+      <c r="J1" s="226"/>
+      <c r="K1" s="226"/>
+      <c r="L1" s="226"/>
+      <c r="M1" s="226"/>
+      <c r="N1" s="226"/>
+      <c r="O1" s="226"/>
+      <c r="P1" s="226"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="str">
         <f>'Objeto de dominio'!A1&amp;":"</f>
         <v>Objeto de dominio:</v>
       </c>
-      <c r="B2" s="278" t="str">
+      <c r="B2" s="228" t="str">
         <f>'Objeto de dominio'!A2</f>
         <v>Clientes</v>
       </c>
-      <c r="C2" s="279"/>
-      <c r="D2" s="279"/>
-      <c r="E2" s="279"/>
-      <c r="F2" s="279"/>
-      <c r="G2" s="279"/>
-      <c r="H2" s="279"/>
-      <c r="I2" s="279"/>
-      <c r="J2" s="279"/>
-      <c r="K2" s="279"/>
-      <c r="L2" s="279"/>
-      <c r="M2" s="279"/>
-      <c r="N2" s="279"/>
-      <c r="O2" s="279"/>
-      <c r="P2" s="280"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="229"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="229"/>
+      <c r="G2" s="229"/>
+      <c r="H2" s="229"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="229"/>
+      <c r="K2" s="229"/>
+      <c r="L2" s="229"/>
+      <c r="M2" s="229"/>
+      <c r="N2" s="229"/>
+      <c r="O2" s="229"/>
+      <c r="P2" s="230"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="str">
         <f>'Objeto de dominio'!B1&amp;":"</f>
         <v>Descripcion:</v>
       </c>
-      <c r="B3" s="277" t="str">
+      <c r="B3" s="227" t="str">
         <f>'Objeto de dominio'!B2</f>
         <v>Objeto que representa a un tipo de usuario, el cual es quien solicita el servicio de carro compartido. Por ejemplo es quien contacta con un conductor para llegar a un destino en común.</v>
       </c>
-      <c r="C3" s="277"/>
-      <c r="D3" s="277"/>
-      <c r="E3" s="277"/>
-      <c r="F3" s="277"/>
-      <c r="G3" s="277"/>
-      <c r="H3" s="277"/>
-      <c r="I3" s="277"/>
-      <c r="J3" s="277"/>
-      <c r="K3" s="277"/>
-      <c r="L3" s="277"/>
-      <c r="M3" s="277"/>
-      <c r="N3" s="277"/>
-      <c r="O3" s="277"/>
-      <c r="P3" s="277"/>
+      <c r="C3" s="227"/>
+      <c r="D3" s="227"/>
+      <c r="E3" s="227"/>
+      <c r="F3" s="227"/>
+      <c r="G3" s="227"/>
+      <c r="H3" s="227"/>
+      <c r="I3" s="227"/>
+      <c r="J3" s="227"/>
+      <c r="K3" s="227"/>
+      <c r="L3" s="227"/>
+      <c r="M3" s="227"/>
+      <c r="N3" s="227"/>
+      <c r="O3" s="227"/>
+      <c r="P3" s="227"/>
     </row>
     <row r="4" spans="1:26" s="65" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="51" t="s">
@@ -6979,16 +6980,16 @@
         <v>218</v>
       </c>
       <c r="S5" s="132" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="T5" s="132" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="U5" s="132" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="V5" s="132" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="W5" s="132" t="s">
         <v>219</v>
@@ -7257,7 +7258,7 @@
         <v>199</v>
       </c>
       <c r="S9" s="66" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="T9" s="66" t="s">
         <v>198</v>
@@ -7283,7 +7284,7 @@
     </row>
     <row r="10" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="59" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B10" s="93" t="s">
         <v>11</v>
@@ -7312,7 +7313,7 @@
         <v>7</v>
       </c>
       <c r="P10" s="94" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="Q10" s="66" t="s">
         <v>198</v>
@@ -7347,7 +7348,7 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="59" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B11" s="93" t="s">
         <v>6</v>
@@ -7378,7 +7379,7 @@
         <v>7</v>
       </c>
       <c r="P11" s="94" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="Q11" s="66" t="s">
         <v>198</v>
@@ -7557,11 +7558,11 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="281" t="s">
+      <c r="A15" s="231" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="282"/>
-      <c r="C15" s="283"/>
+      <c r="B15" s="232"/>
+      <c r="C15" s="233"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
@@ -7585,7 +7586,7 @@
         <v>40</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="V17" s="3" t="s">
         <v>144</v>
@@ -7607,354 +7608,354 @@
     </row>
     <row r="19" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="268" t="s">
+      <c r="A20" s="237" t="s">
         <v>107</v>
       </c>
-      <c r="B20" s="228"/>
-      <c r="C20" s="228" t="s">
+      <c r="B20" s="234"/>
+      <c r="C20" s="234" t="s">
         <v>108</v>
       </c>
-      <c r="D20" s="228"/>
-      <c r="E20" s="228"/>
-      <c r="F20" s="228"/>
-      <c r="G20" s="228"/>
-      <c r="H20" s="228"/>
-      <c r="I20" s="228" t="s">
+      <c r="D20" s="234"/>
+      <c r="E20" s="234"/>
+      <c r="F20" s="234"/>
+      <c r="G20" s="234"/>
+      <c r="H20" s="234"/>
+      <c r="I20" s="234" t="s">
         <v>109</v>
       </c>
-      <c r="J20" s="228"/>
-      <c r="K20" s="228"/>
-      <c r="L20" s="228"/>
-      <c r="M20" s="228" t="s">
+      <c r="J20" s="234"/>
+      <c r="K20" s="234"/>
+      <c r="L20" s="234"/>
+      <c r="M20" s="234" t="s">
         <v>110</v>
       </c>
-      <c r="N20" s="228"/>
-      <c r="O20" s="228"/>
-      <c r="P20" s="228"/>
-      <c r="Q20" s="228" t="s">
+      <c r="N20" s="234"/>
+      <c r="O20" s="234"/>
+      <c r="P20" s="234"/>
+      <c r="Q20" s="234" t="s">
         <v>140</v>
       </c>
-      <c r="R20" s="264"/>
-      <c r="S20" s="228" t="s">
+      <c r="R20" s="248"/>
+      <c r="S20" s="234" t="s">
         <v>208</v>
       </c>
-      <c r="T20" s="229"/>
-      <c r="U20" s="259"/>
-      <c r="V20" s="259"/>
+      <c r="T20" s="284"/>
+      <c r="U20" s="250"/>
+      <c r="V20" s="250"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="266" t="s">
+      <c r="A21" s="238" t="s">
         <v>145</v>
       </c>
-      <c r="B21" s="267"/>
-      <c r="C21" s="267" t="s">
+      <c r="B21" s="224"/>
+      <c r="C21" s="224" t="s">
         <v>150</v>
       </c>
-      <c r="D21" s="267"/>
-      <c r="E21" s="267"/>
-      <c r="F21" s="267"/>
-      <c r="G21" s="267"/>
-      <c r="H21" s="267"/>
-      <c r="I21" s="267" t="s">
-        <v>491</v>
-      </c>
-      <c r="J21" s="267"/>
-      <c r="K21" s="267"/>
-      <c r="L21" s="267"/>
-      <c r="M21" s="267"/>
-      <c r="N21" s="267"/>
-      <c r="O21" s="267"/>
-      <c r="P21" s="267"/>
-      <c r="Q21" s="260" t="s">
+      <c r="D21" s="224"/>
+      <c r="E21" s="224"/>
+      <c r="F21" s="224"/>
+      <c r="G21" s="224"/>
+      <c r="H21" s="224"/>
+      <c r="I21" s="224" t="s">
+        <v>488</v>
+      </c>
+      <c r="J21" s="224"/>
+      <c r="K21" s="224"/>
+      <c r="L21" s="224"/>
+      <c r="M21" s="224"/>
+      <c r="N21" s="224"/>
+      <c r="O21" s="224"/>
+      <c r="P21" s="224"/>
+      <c r="Q21" s="247" t="s">
         <v>121</v>
       </c>
-      <c r="R21" s="260"/>
-      <c r="S21" s="223" t="s">
+      <c r="R21" s="247"/>
+      <c r="S21" s="235" t="s">
         <v>209</v>
       </c>
-      <c r="T21" s="224"/>
-      <c r="U21" s="258"/>
-      <c r="V21" s="258"/>
+      <c r="T21" s="240"/>
+      <c r="U21" s="249"/>
+      <c r="V21" s="249"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="266"/>
-      <c r="B22" s="267"/>
-      <c r="C22" s="267"/>
-      <c r="D22" s="267"/>
-      <c r="E22" s="267"/>
-      <c r="F22" s="267"/>
-      <c r="G22" s="267"/>
-      <c r="H22" s="267"/>
-      <c r="I22" s="267"/>
-      <c r="J22" s="267"/>
-      <c r="K22" s="267"/>
-      <c r="L22" s="267"/>
-      <c r="M22" s="267"/>
-      <c r="N22" s="267"/>
-      <c r="O22" s="267"/>
-      <c r="P22" s="267"/>
-      <c r="Q22" s="260" t="s">
+      <c r="A22" s="238"/>
+      <c r="B22" s="224"/>
+      <c r="C22" s="224"/>
+      <c r="D22" s="224"/>
+      <c r="E22" s="224"/>
+      <c r="F22" s="224"/>
+      <c r="G22" s="224"/>
+      <c r="H22" s="224"/>
+      <c r="I22" s="224"/>
+      <c r="J22" s="224"/>
+      <c r="K22" s="224"/>
+      <c r="L22" s="224"/>
+      <c r="M22" s="224"/>
+      <c r="N22" s="224"/>
+      <c r="O22" s="224"/>
+      <c r="P22" s="224"/>
+      <c r="Q22" s="247" t="s">
         <v>122</v>
       </c>
-      <c r="R22" s="260"/>
-      <c r="S22" s="223" t="s">
+      <c r="R22" s="247"/>
+      <c r="S22" s="235" t="s">
         <v>210</v>
       </c>
-      <c r="T22" s="224"/>
-      <c r="U22" s="258"/>
-      <c r="V22" s="258"/>
+      <c r="T22" s="240"/>
+      <c r="U22" s="249"/>
+      <c r="V22" s="249"/>
     </row>
     <row r="23" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="237" t="s">
+      <c r="A23" s="260" t="s">
         <v>151</v>
       </c>
-      <c r="B23" s="238"/>
-      <c r="C23" s="243" t="s">
+      <c r="B23" s="261"/>
+      <c r="C23" s="266" t="s">
         <v>152</v>
       </c>
-      <c r="D23" s="244"/>
-      <c r="E23" s="244"/>
-      <c r="F23" s="244"/>
-      <c r="G23" s="244"/>
-      <c r="H23" s="245"/>
-      <c r="I23" s="252" t="s">
-        <v>389</v>
-      </c>
-      <c r="J23" s="253"/>
-      <c r="K23" s="253"/>
-      <c r="L23" s="238"/>
-      <c r="M23" s="252"/>
-      <c r="N23" s="253"/>
-      <c r="O23" s="253"/>
-      <c r="P23" s="238"/>
-      <c r="Q23" s="260" t="s">
+      <c r="D23" s="267"/>
+      <c r="E23" s="267"/>
+      <c r="F23" s="267"/>
+      <c r="G23" s="267"/>
+      <c r="H23" s="268"/>
+      <c r="I23" s="275" t="s">
+        <v>387</v>
+      </c>
+      <c r="J23" s="276"/>
+      <c r="K23" s="276"/>
+      <c r="L23" s="261"/>
+      <c r="M23" s="275"/>
+      <c r="N23" s="276"/>
+      <c r="O23" s="276"/>
+      <c r="P23" s="261"/>
+      <c r="Q23" s="247" t="s">
         <v>131</v>
       </c>
-      <c r="R23" s="260"/>
-      <c r="S23" s="223" t="s">
+      <c r="R23" s="247"/>
+      <c r="S23" s="235" t="s">
+        <v>270</v>
+      </c>
+      <c r="T23" s="240"/>
+      <c r="U23" s="249"/>
+      <c r="V23" s="249"/>
+    </row>
+    <row r="24" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="262"/>
+      <c r="B24" s="263"/>
+      <c r="C24" s="269"/>
+      <c r="D24" s="270"/>
+      <c r="E24" s="270"/>
+      <c r="F24" s="270"/>
+      <c r="G24" s="270"/>
+      <c r="H24" s="271"/>
+      <c r="I24" s="277"/>
+      <c r="J24" s="278"/>
+      <c r="K24" s="278"/>
+      <c r="L24" s="263"/>
+      <c r="M24" s="277"/>
+      <c r="N24" s="278"/>
+      <c r="O24" s="278"/>
+      <c r="P24" s="263"/>
+      <c r="Q24" s="247" t="s">
+        <v>133</v>
+      </c>
+      <c r="R24" s="247"/>
+      <c r="S24" s="235" t="s">
         <v>271</v>
       </c>
-      <c r="T23" s="224"/>
-      <c r="U23" s="258"/>
-      <c r="V23" s="258"/>
-    </row>
-    <row r="24" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="239"/>
-      <c r="B24" s="240"/>
-      <c r="C24" s="246"/>
-      <c r="D24" s="247"/>
-      <c r="E24" s="247"/>
-      <c r="F24" s="247"/>
-      <c r="G24" s="247"/>
-      <c r="H24" s="248"/>
-      <c r="I24" s="254"/>
-      <c r="J24" s="255"/>
-      <c r="K24" s="255"/>
-      <c r="L24" s="240"/>
-      <c r="M24" s="254"/>
-      <c r="N24" s="255"/>
-      <c r="O24" s="255"/>
-      <c r="P24" s="240"/>
-      <c r="Q24" s="260" t="s">
-        <v>133</v>
-      </c>
-      <c r="R24" s="260"/>
-      <c r="S24" s="223" t="s">
-        <v>272</v>
-      </c>
-      <c r="T24" s="224"/>
-      <c r="U24" s="258"/>
-      <c r="V24" s="258"/>
+      <c r="T24" s="240"/>
+      <c r="U24" s="249"/>
+      <c r="V24" s="249"/>
     </row>
     <row r="25" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="241"/>
-      <c r="B25" s="242"/>
-      <c r="C25" s="249"/>
-      <c r="D25" s="250"/>
-      <c r="E25" s="250"/>
-      <c r="F25" s="250"/>
-      <c r="G25" s="250"/>
-      <c r="H25" s="251"/>
-      <c r="I25" s="256"/>
-      <c r="J25" s="257"/>
-      <c r="K25" s="257"/>
-      <c r="L25" s="242"/>
-      <c r="M25" s="256"/>
-      <c r="N25" s="257"/>
-      <c r="O25" s="257"/>
-      <c r="P25" s="242"/>
-      <c r="Q25" s="230" t="s">
-        <v>484</v>
-      </c>
-      <c r="R25" s="231"/>
+      <c r="A25" s="264"/>
+      <c r="B25" s="265"/>
+      <c r="C25" s="272"/>
+      <c r="D25" s="273"/>
+      <c r="E25" s="273"/>
+      <c r="F25" s="273"/>
+      <c r="G25" s="273"/>
+      <c r="H25" s="274"/>
+      <c r="I25" s="279"/>
+      <c r="J25" s="280"/>
+      <c r="K25" s="280"/>
+      <c r="L25" s="265"/>
+      <c r="M25" s="279"/>
+      <c r="N25" s="280"/>
+      <c r="O25" s="280"/>
+      <c r="P25" s="265"/>
+      <c r="Q25" s="251" t="s">
+        <v>481</v>
+      </c>
+      <c r="R25" s="252"/>
       <c r="S25" s="207"/>
       <c r="T25" s="209"/>
       <c r="U25" s="203"/>
       <c r="V25" s="203"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="266" t="s">
+      <c r="A26" s="238" t="s">
         <v>153</v>
       </c>
-      <c r="B26" s="267"/>
-      <c r="C26" s="267" t="s">
+      <c r="B26" s="224"/>
+      <c r="C26" s="224" t="s">
         <v>154</v>
       </c>
-      <c r="D26" s="267"/>
-      <c r="E26" s="267"/>
-      <c r="F26" s="267"/>
-      <c r="G26" s="267"/>
-      <c r="H26" s="267"/>
-      <c r="I26" s="267" t="s">
+      <c r="D26" s="224"/>
+      <c r="E26" s="224"/>
+      <c r="F26" s="224"/>
+      <c r="G26" s="224"/>
+      <c r="H26" s="224"/>
+      <c r="I26" s="224" t="s">
+        <v>388</v>
+      </c>
+      <c r="J26" s="224"/>
+      <c r="K26" s="224"/>
+      <c r="L26" s="224"/>
+      <c r="M26" s="224"/>
+      <c r="N26" s="224"/>
+      <c r="O26" s="224"/>
+      <c r="P26" s="224"/>
+      <c r="Q26" s="247" t="s">
+        <v>130</v>
+      </c>
+      <c r="R26" s="247"/>
+      <c r="S26" s="235" t="s">
+        <v>270</v>
+      </c>
+      <c r="T26" s="240"/>
+      <c r="U26" s="249"/>
+      <c r="V26" s="249"/>
+    </row>
+    <row r="27" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="238" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" s="224"/>
+      <c r="C27" s="225" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="225"/>
+      <c r="E27" s="225"/>
+      <c r="F27" s="225"/>
+      <c r="G27" s="225"/>
+      <c r="H27" s="225"/>
+      <c r="I27" s="224" t="s">
+        <v>391</v>
+      </c>
+      <c r="J27" s="224"/>
+      <c r="K27" s="224"/>
+      <c r="L27" s="224"/>
+      <c r="M27" s="224"/>
+      <c r="N27" s="224"/>
+      <c r="O27" s="224"/>
+      <c r="P27" s="224"/>
+      <c r="Q27" s="247" t="s">
+        <v>142</v>
+      </c>
+      <c r="R27" s="247"/>
+      <c r="S27" s="235"/>
+      <c r="T27" s="240"/>
+      <c r="U27" s="249"/>
+      <c r="V27" s="249"/>
+    </row>
+    <row r="28" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="238" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="224"/>
+      <c r="C28" s="225" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="225"/>
+      <c r="E28" s="225"/>
+      <c r="F28" s="225"/>
+      <c r="G28" s="225"/>
+      <c r="H28" s="225"/>
+      <c r="I28" s="224" t="s">
+        <v>389</v>
+      </c>
+      <c r="J28" s="224"/>
+      <c r="K28" s="224"/>
+      <c r="L28" s="224"/>
+      <c r="M28" s="224"/>
+      <c r="N28" s="224"/>
+      <c r="O28" s="224"/>
+      <c r="P28" s="224"/>
+      <c r="Q28" s="247" t="s">
+        <v>136</v>
+      </c>
+      <c r="R28" s="247"/>
+      <c r="S28" s="235" t="s">
         <v>390</v>
       </c>
-      <c r="J26" s="267"/>
-      <c r="K26" s="267"/>
-      <c r="L26" s="267"/>
-      <c r="M26" s="267"/>
-      <c r="N26" s="267"/>
-      <c r="O26" s="267"/>
-      <c r="P26" s="267"/>
-      <c r="Q26" s="260" t="s">
-        <v>130</v>
-      </c>
-      <c r="R26" s="260"/>
-      <c r="S26" s="223" t="s">
-        <v>271</v>
-      </c>
-      <c r="T26" s="224"/>
-      <c r="U26" s="258"/>
-      <c r="V26" s="258"/>
-    </row>
-    <row r="27" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="266" t="s">
-        <v>113</v>
-      </c>
-      <c r="B27" s="267"/>
-      <c r="C27" s="284" t="s">
-        <v>115</v>
-      </c>
-      <c r="D27" s="284"/>
-      <c r="E27" s="284"/>
-      <c r="F27" s="284"/>
-      <c r="G27" s="284"/>
-      <c r="H27" s="284"/>
-      <c r="I27" s="267" t="s">
-        <v>393</v>
-      </c>
-      <c r="J27" s="267"/>
-      <c r="K27" s="267"/>
-      <c r="L27" s="267"/>
-      <c r="M27" s="267"/>
-      <c r="N27" s="267"/>
-      <c r="O27" s="267"/>
-      <c r="P27" s="267"/>
-      <c r="Q27" s="260" t="s">
-        <v>142</v>
-      </c>
-      <c r="R27" s="260"/>
-      <c r="S27" s="223"/>
-      <c r="T27" s="224"/>
-      <c r="U27" s="258"/>
-      <c r="V27" s="258"/>
-    </row>
-    <row r="28" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="266" t="s">
-        <v>114</v>
-      </c>
-      <c r="B28" s="267"/>
-      <c r="C28" s="284" t="s">
-        <v>116</v>
-      </c>
-      <c r="D28" s="284"/>
-      <c r="E28" s="284"/>
-      <c r="F28" s="284"/>
-      <c r="G28" s="284"/>
-      <c r="H28" s="284"/>
-      <c r="I28" s="267" t="s">
-        <v>391</v>
-      </c>
-      <c r="J28" s="267"/>
-      <c r="K28" s="267"/>
-      <c r="L28" s="267"/>
-      <c r="M28" s="267"/>
-      <c r="N28" s="267"/>
-      <c r="O28" s="267"/>
-      <c r="P28" s="267"/>
-      <c r="Q28" s="260" t="s">
-        <v>136</v>
-      </c>
-      <c r="R28" s="260"/>
-      <c r="S28" s="223" t="s">
-        <v>392</v>
-      </c>
-      <c r="T28" s="224"/>
-      <c r="U28" s="258"/>
-      <c r="V28" s="258"/>
+      <c r="T28" s="240"/>
+      <c r="U28" s="249"/>
+      <c r="V28" s="249"/>
     </row>
     <row r="29" spans="1:22" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="269" t="s">
+      <c r="A29" s="239" t="s">
         <v>117</v>
       </c>
-      <c r="B29" s="270"/>
-      <c r="C29" s="285" t="s">
+      <c r="B29" s="223"/>
+      <c r="C29" s="246" t="s">
         <v>118</v>
       </c>
-      <c r="D29" s="285"/>
-      <c r="E29" s="285"/>
-      <c r="F29" s="285"/>
-      <c r="G29" s="285"/>
-      <c r="H29" s="285"/>
-      <c r="I29" s="270" t="s">
-        <v>391</v>
-      </c>
-      <c r="J29" s="270"/>
-      <c r="K29" s="270"/>
-      <c r="L29" s="270"/>
-      <c r="M29" s="270"/>
-      <c r="N29" s="270"/>
-      <c r="O29" s="270"/>
-      <c r="P29" s="270"/>
-      <c r="Q29" s="265" t="s">
+      <c r="D29" s="246"/>
+      <c r="E29" s="246"/>
+      <c r="F29" s="246"/>
+      <c r="G29" s="246"/>
+      <c r="H29" s="246"/>
+      <c r="I29" s="223" t="s">
+        <v>389</v>
+      </c>
+      <c r="J29" s="223"/>
+      <c r="K29" s="223"/>
+      <c r="L29" s="223"/>
+      <c r="M29" s="223"/>
+      <c r="N29" s="223"/>
+      <c r="O29" s="223"/>
+      <c r="P29" s="223"/>
+      <c r="Q29" s="283" t="s">
         <v>138</v>
       </c>
-      <c r="R29" s="265"/>
-      <c r="S29" s="225" t="s">
-        <v>273</v>
-      </c>
-      <c r="T29" s="226"/>
-      <c r="U29" s="258"/>
-      <c r="V29" s="258"/>
+      <c r="R29" s="283"/>
+      <c r="S29" s="258" t="s">
+        <v>272</v>
+      </c>
+      <c r="T29" s="285"/>
+      <c r="U29" s="249"/>
+      <c r="V29" s="249"/>
     </row>
     <row r="30" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="232" t="s">
-        <v>488</v>
-      </c>
-      <c r="B30" s="232"/>
-      <c r="C30" s="233" t="s">
-        <v>489</v>
-      </c>
-      <c r="D30" s="233"/>
-      <c r="E30" s="233"/>
-      <c r="F30" s="233"/>
-      <c r="G30" s="233"/>
-      <c r="H30" s="233"/>
-      <c r="I30" s="227" t="s">
-        <v>490</v>
-      </c>
-      <c r="J30" s="227"/>
-      <c r="K30" s="227"/>
-      <c r="L30" s="227"/>
-      <c r="M30" s="227" t="s">
-        <v>501</v>
-      </c>
-      <c r="N30" s="227"/>
-      <c r="O30" s="227"/>
-      <c r="P30" s="227"/>
-      <c r="Q30" s="235" t="s">
-        <v>495</v>
-      </c>
-      <c r="R30" s="235"/>
+      <c r="A30" s="253" t="s">
+        <v>485</v>
+      </c>
+      <c r="B30" s="253"/>
+      <c r="C30" s="254" t="s">
+        <v>486</v>
+      </c>
+      <c r="D30" s="254"/>
+      <c r="E30" s="254"/>
+      <c r="F30" s="254"/>
+      <c r="G30" s="254"/>
+      <c r="H30" s="254"/>
+      <c r="I30" s="255" t="s">
+        <v>487</v>
+      </c>
+      <c r="J30" s="255"/>
+      <c r="K30" s="255"/>
+      <c r="L30" s="255"/>
+      <c r="M30" s="255" t="s">
+        <v>498</v>
+      </c>
+      <c r="N30" s="255"/>
+      <c r="O30" s="255"/>
+      <c r="P30" s="255"/>
+      <c r="Q30" s="257" t="s">
+        <v>492</v>
+      </c>
+      <c r="R30" s="257"/>
       <c r="S30" s="220"/>
       <c r="T30" s="220"/>
       <c r="U30" s="203"/>
@@ -7963,130 +7964,153 @@
     <row r="31" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="126" t="s">
-        <v>381</v>
-      </c>
-      <c r="B32" s="228" t="s">
+        <v>379</v>
+      </c>
+      <c r="B32" s="234" t="s">
         <v>120</v>
       </c>
-      <c r="C32" s="228"/>
-      <c r="D32" s="273"/>
+      <c r="C32" s="234"/>
+      <c r="D32" s="243"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="123" t="s">
         <v>121</v>
       </c>
-      <c r="B33" s="223" t="s">
+      <c r="B33" s="235" t="s">
         <v>155</v>
       </c>
-      <c r="C33" s="223"/>
-      <c r="D33" s="261"/>
+      <c r="C33" s="235"/>
+      <c r="D33" s="236"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="124" t="s">
         <v>144</v>
       </c>
-      <c r="B34" s="223" t="s">
+      <c r="B34" s="235" t="s">
         <v>129</v>
       </c>
-      <c r="C34" s="223"/>
-      <c r="D34" s="261"/>
+      <c r="C34" s="235"/>
+      <c r="D34" s="236"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="124" t="s">
         <v>130</v>
       </c>
-      <c r="B35" s="224" t="s">
+      <c r="B35" s="240" t="s">
         <v>141</v>
       </c>
-      <c r="C35" s="271"/>
-      <c r="D35" s="272"/>
+      <c r="C35" s="241"/>
+      <c r="D35" s="242"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="124" t="s">
         <v>131</v>
       </c>
-      <c r="B36" s="223" t="s">
+      <c r="B36" s="235" t="s">
         <v>156</v>
       </c>
-      <c r="C36" s="223"/>
-      <c r="D36" s="261"/>
+      <c r="C36" s="235"/>
+      <c r="D36" s="236"/>
     </row>
     <row r="37" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="124" t="s">
         <v>133</v>
       </c>
-      <c r="B37" s="274" t="s">
+      <c r="B37" s="244" t="s">
         <v>132</v>
       </c>
-      <c r="C37" s="274"/>
-      <c r="D37" s="275"/>
+      <c r="C37" s="244"/>
+      <c r="D37" s="245"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="124" t="s">
         <v>143</v>
       </c>
-      <c r="B38" s="223" t="s">
+      <c r="B38" s="235" t="s">
         <v>135</v>
       </c>
-      <c r="C38" s="223"/>
-      <c r="D38" s="261"/>
+      <c r="C38" s="235"/>
+      <c r="D38" s="236"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="124" t="s">
         <v>138</v>
       </c>
-      <c r="B39" s="223" t="s">
+      <c r="B39" s="235" t="s">
         <v>137</v>
       </c>
-      <c r="C39" s="223"/>
-      <c r="D39" s="261"/>
+      <c r="C39" s="235"/>
+      <c r="D39" s="236"/>
     </row>
     <row r="40" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="125" t="s">
         <v>142</v>
       </c>
-      <c r="B40" s="262" t="s">
+      <c r="B40" s="281" t="s">
         <v>139</v>
       </c>
-      <c r="C40" s="262"/>
-      <c r="D40" s="263"/>
+      <c r="C40" s="281"/>
+      <c r="D40" s="282"/>
     </row>
     <row r="41" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="208" t="s">
-        <v>492</v>
-      </c>
-      <c r="B41" s="225" t="s">
+        <v>489</v>
+      </c>
+      <c r="B41" s="258" t="s">
         <v>134</v>
       </c>
-      <c r="C41" s="225"/>
-      <c r="D41" s="236"/>
+      <c r="C41" s="258"/>
+      <c r="D41" s="259"/>
     </row>
     <row r="42" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="208" t="s">
-        <v>493</v>
-      </c>
-      <c r="B42" s="234" t="s">
-        <v>494</v>
-      </c>
-      <c r="C42" s="227"/>
-      <c r="D42" s="227"/>
+        <v>490</v>
+      </c>
+      <c r="B42" s="256" t="s">
+        <v>491</v>
+      </c>
+      <c r="C42" s="255"/>
+      <c r="D42" s="255"/>
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q24:R24"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="A20:B20"/>
@@ -8103,50 +8127,27 @@
     <mergeCell ref="C27:H27"/>
     <mergeCell ref="C29:H29"/>
     <mergeCell ref="A21:B22"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="M20:P20"/>
     <mergeCell ref="C21:H22"/>
     <mergeCell ref="I21:L22"/>
     <mergeCell ref="M21:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="B41:D41"/>
     <mergeCell ref="A23:B25"/>
     <mergeCell ref="C23:H25"/>
     <mergeCell ref="I23:L25"/>
     <mergeCell ref="M23:P25"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M27:P27"/>
     <mergeCell ref="M28:P28"/>
     <mergeCell ref="M29:P29"/>
   </mergeCells>
@@ -8194,8 +8195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D607A43C-CF77-4FEB-8267-E2A8E14E5F12}">
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8224,72 +8225,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="276" t="s">
+      <c r="A1" s="226" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="276"/>
-      <c r="C1" s="276"/>
-      <c r="D1" s="276"/>
-      <c r="E1" s="276"/>
-      <c r="F1" s="276"/>
-      <c r="G1" s="276"/>
-      <c r="H1" s="276"/>
-      <c r="I1" s="276"/>
-      <c r="J1" s="276"/>
-      <c r="K1" s="276"/>
-      <c r="L1" s="276"/>
-      <c r="M1" s="276"/>
-      <c r="N1" s="276"/>
-      <c r="O1" s="276"/>
-      <c r="P1" s="276"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="226"/>
+      <c r="I1" s="226"/>
+      <c r="J1" s="226"/>
+      <c r="K1" s="226"/>
+      <c r="L1" s="226"/>
+      <c r="M1" s="226"/>
+      <c r="N1" s="226"/>
+      <c r="O1" s="226"/>
+      <c r="P1" s="226"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="str">
         <f>'Objeto de dominio'!A1&amp;":"</f>
         <v>Objeto de dominio:</v>
       </c>
-      <c r="B2" s="297" t="str">
+      <c r="B2" s="286" t="str">
         <f>'Objeto de dominio'!A3</f>
         <v>Conductor</v>
       </c>
-      <c r="C2" s="298"/>
-      <c r="D2" s="298"/>
-      <c r="E2" s="298"/>
-      <c r="F2" s="298"/>
-      <c r="G2" s="298"/>
-      <c r="H2" s="298"/>
-      <c r="I2" s="298"/>
-      <c r="J2" s="298"/>
-      <c r="K2" s="298"/>
-      <c r="L2" s="298"/>
-      <c r="M2" s="298"/>
-      <c r="N2" s="298"/>
-      <c r="O2" s="298"/>
-      <c r="P2" s="299"/>
+      <c r="C2" s="287"/>
+      <c r="D2" s="287"/>
+      <c r="E2" s="287"/>
+      <c r="F2" s="287"/>
+      <c r="G2" s="287"/>
+      <c r="H2" s="287"/>
+      <c r="I2" s="287"/>
+      <c r="J2" s="287"/>
+      <c r="K2" s="287"/>
+      <c r="L2" s="287"/>
+      <c r="M2" s="287"/>
+      <c r="N2" s="287"/>
+      <c r="O2" s="287"/>
+      <c r="P2" s="288"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="str">
         <f>'Objeto de dominio'!B1&amp;":"</f>
         <v>Descripcion:</v>
       </c>
-      <c r="B3" s="300" t="str">
+      <c r="B3" s="289" t="str">
         <f>'Objeto de dominio'!B3</f>
         <v>Usuario encargadode realizar las rutas, es quien crea y da los detalles de cuando y por donde pasa, para así poder transportar a otros usuarios. El conductor tiene un vehiculo el cual dispone para compartir y generar ganacias de trasportar otros usuarios.</v>
       </c>
-      <c r="C3" s="301"/>
-      <c r="D3" s="301"/>
-      <c r="E3" s="301"/>
-      <c r="F3" s="301"/>
-      <c r="G3" s="301"/>
-      <c r="H3" s="301"/>
-      <c r="I3" s="301"/>
-      <c r="J3" s="301"/>
-      <c r="K3" s="301"/>
-      <c r="L3" s="301"/>
-      <c r="M3" s="301"/>
-      <c r="N3" s="301"/>
-      <c r="O3" s="301"/>
-      <c r="P3" s="302"/>
+      <c r="C3" s="290"/>
+      <c r="D3" s="290"/>
+      <c r="E3" s="290"/>
+      <c r="F3" s="290"/>
+      <c r="G3" s="290"/>
+      <c r="H3" s="290"/>
+      <c r="I3" s="290"/>
+      <c r="J3" s="290"/>
+      <c r="K3" s="290"/>
+      <c r="L3" s="290"/>
+      <c r="M3" s="290"/>
+      <c r="N3" s="290"/>
+      <c r="O3" s="290"/>
+      <c r="P3" s="291"/>
     </row>
     <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="51" t="s">
@@ -8364,13 +8365,13 @@
         <v>157</v>
       </c>
       <c r="R5" s="132" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="S5" s="57" t="s">
         <v>214</v>
       </c>
       <c r="T5" s="161" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="U5" s="58" t="s">
         <v>215</v>
@@ -8466,7 +8467,7 @@
         <v>7</v>
       </c>
       <c r="P7" s="94" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="Q7" s="70" t="s">
         <v>198</v>
@@ -8537,7 +8538,7 @@
     </row>
     <row r="9" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="59" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B9" s="93" t="s">
         <v>6</v>
@@ -8568,7 +8569,7 @@
         <v>7</v>
       </c>
       <c r="P9" s="94" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="Q9" s="70" t="s">
         <v>198</v>
@@ -8588,7 +8589,7 @@
     </row>
     <row r="10" spans="1:21" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="59" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B10" s="93" t="s">
         <v>11</v>
@@ -8617,7 +8618,7 @@
         <v>7</v>
       </c>
       <c r="P10" s="94" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="Q10" s="70" t="s">
         <v>198</v>
@@ -8672,7 +8673,7 @@
         <v>7</v>
       </c>
       <c r="P11" s="94" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="Q11" s="70" t="s">
         <v>198</v>
@@ -8684,7 +8685,7 @@
         <v>199</v>
       </c>
       <c r="T11" s="66" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="U11" s="71" t="s">
         <v>200</v>
@@ -8749,11 +8750,11 @@
     </row>
     <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="281" t="s">
+      <c r="A14" s="231" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="282"/>
-      <c r="C14" s="283"/>
+      <c r="B14" s="232"/>
+      <c r="C14" s="233"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
@@ -8789,261 +8790,261 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="294" t="s">
+      <c r="A19" s="292" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="294"/>
-      <c r="C19" s="294" t="s">
+      <c r="B19" s="292"/>
+      <c r="C19" s="292" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="294"/>
-      <c r="E19" s="294"/>
-      <c r="F19" s="294"/>
-      <c r="G19" s="294"/>
-      <c r="H19" s="294"/>
-      <c r="I19" s="294" t="s">
+      <c r="D19" s="292"/>
+      <c r="E19" s="292"/>
+      <c r="F19" s="292"/>
+      <c r="G19" s="292"/>
+      <c r="H19" s="292"/>
+      <c r="I19" s="292" t="s">
         <v>109</v>
       </c>
-      <c r="J19" s="294"/>
-      <c r="K19" s="294"/>
-      <c r="L19" s="294"/>
-      <c r="M19" s="294" t="s">
+      <c r="J19" s="292"/>
+      <c r="K19" s="292"/>
+      <c r="L19" s="292"/>
+      <c r="M19" s="292" t="s">
         <v>110</v>
       </c>
-      <c r="N19" s="294"/>
-      <c r="O19" s="294"/>
+      <c r="N19" s="292"/>
+      <c r="O19" s="292"/>
       <c r="P19" s="127" t="s">
         <v>140</v>
       </c>
-      <c r="Q19" s="294" t="s">
+      <c r="Q19" s="292" t="s">
         <v>208</v>
       </c>
-      <c r="R19" s="294"/>
-      <c r="S19" s="294"/>
+      <c r="R19" s="292"/>
+      <c r="S19" s="292"/>
       <c r="T19" s="162"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="267" t="s">
+      <c r="A20" s="224" t="s">
         <v>157</v>
       </c>
-      <c r="B20" s="267"/>
-      <c r="C20" s="267" t="s">
+      <c r="B20" s="224"/>
+      <c r="C20" s="224" t="s">
         <v>161</v>
       </c>
-      <c r="D20" s="267"/>
-      <c r="E20" s="267"/>
-      <c r="F20" s="267"/>
-      <c r="G20" s="267"/>
-      <c r="H20" s="267"/>
-      <c r="I20" s="267" t="s">
-        <v>394</v>
-      </c>
-      <c r="J20" s="267"/>
-      <c r="K20" s="267"/>
-      <c r="L20" s="267"/>
-      <c r="M20" s="290"/>
-      <c r="N20" s="290"/>
-      <c r="O20" s="290"/>
+      <c r="D20" s="224"/>
+      <c r="E20" s="224"/>
+      <c r="F20" s="224"/>
+      <c r="G20" s="224"/>
+      <c r="H20" s="224"/>
+      <c r="I20" s="224" t="s">
+        <v>392</v>
+      </c>
+      <c r="J20" s="224"/>
+      <c r="K20" s="224"/>
+      <c r="L20" s="224"/>
+      <c r="M20" s="293"/>
+      <c r="N20" s="293"/>
+      <c r="O20" s="293"/>
       <c r="P20" s="129" t="s">
         <v>166</v>
       </c>
-      <c r="Q20" s="295" t="s">
+      <c r="Q20" s="294" t="s">
         <v>209</v>
       </c>
-      <c r="R20" s="295"/>
-      <c r="S20" s="295"/>
+      <c r="R20" s="294"/>
+      <c r="S20" s="294"/>
       <c r="T20" s="163"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="267"/>
-      <c r="B21" s="267"/>
-      <c r="C21" s="267"/>
-      <c r="D21" s="267"/>
-      <c r="E21" s="267"/>
-      <c r="F21" s="267"/>
-      <c r="G21" s="267"/>
-      <c r="H21" s="267"/>
-      <c r="I21" s="267"/>
-      <c r="J21" s="267"/>
-      <c r="K21" s="267"/>
-      <c r="L21" s="267"/>
-      <c r="M21" s="290"/>
-      <c r="N21" s="290"/>
-      <c r="O21" s="290"/>
+      <c r="A21" s="224"/>
+      <c r="B21" s="224"/>
+      <c r="C21" s="224"/>
+      <c r="D21" s="224"/>
+      <c r="E21" s="224"/>
+      <c r="F21" s="224"/>
+      <c r="G21" s="224"/>
+      <c r="H21" s="224"/>
+      <c r="I21" s="224"/>
+      <c r="J21" s="224"/>
+      <c r="K21" s="224"/>
+      <c r="L21" s="224"/>
+      <c r="M21" s="293"/>
+      <c r="N21" s="293"/>
+      <c r="O21" s="293"/>
       <c r="P21" s="130" t="s">
         <v>168</v>
       </c>
-      <c r="Q21" s="295" t="s">
+      <c r="Q21" s="294" t="s">
         <v>210</v>
       </c>
-      <c r="R21" s="295"/>
-      <c r="S21" s="295"/>
+      <c r="R21" s="294"/>
+      <c r="S21" s="294"/>
       <c r="T21" s="163"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="267"/>
-      <c r="B22" s="267"/>
-      <c r="C22" s="267"/>
-      <c r="D22" s="267"/>
-      <c r="E22" s="267"/>
-      <c r="F22" s="267"/>
-      <c r="G22" s="267"/>
-      <c r="H22" s="267"/>
-      <c r="I22" s="267"/>
-      <c r="J22" s="267"/>
-      <c r="K22" s="267"/>
-      <c r="L22" s="267"/>
-      <c r="M22" s="290"/>
-      <c r="N22" s="290"/>
-      <c r="O22" s="290"/>
+      <c r="A22" s="224"/>
+      <c r="B22" s="224"/>
+      <c r="C22" s="224"/>
+      <c r="D22" s="224"/>
+      <c r="E22" s="224"/>
+      <c r="F22" s="224"/>
+      <c r="G22" s="224"/>
+      <c r="H22" s="224"/>
+      <c r="I22" s="224"/>
+      <c r="J22" s="224"/>
+      <c r="K22" s="224"/>
+      <c r="L22" s="224"/>
+      <c r="M22" s="293"/>
+      <c r="N22" s="293"/>
+      <c r="O22" s="293"/>
       <c r="P22" s="130" t="s">
         <v>169</v>
       </c>
-      <c r="Q22" s="295" t="s">
+      <c r="Q22" s="294" t="s">
         <v>211</v>
       </c>
-      <c r="R22" s="295"/>
-      <c r="S22" s="295"/>
+      <c r="R22" s="294"/>
+      <c r="S22" s="294"/>
       <c r="T22" s="163"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="290" t="s">
+      <c r="A23" s="293" t="s">
         <v>162</v>
       </c>
-      <c r="B23" s="290"/>
-      <c r="C23" s="290" t="s">
+      <c r="B23" s="293"/>
+      <c r="C23" s="293" t="s">
         <v>163</v>
       </c>
-      <c r="D23" s="290"/>
-      <c r="E23" s="290"/>
-      <c r="F23" s="290"/>
-      <c r="G23" s="290"/>
-      <c r="H23" s="290"/>
-      <c r="I23" s="290" t="s">
-        <v>395</v>
-      </c>
-      <c r="J23" s="290"/>
-      <c r="K23" s="290"/>
-      <c r="L23" s="290"/>
-      <c r="M23" s="290"/>
-      <c r="N23" s="290"/>
-      <c r="O23" s="290"/>
+      <c r="D23" s="293"/>
+      <c r="E23" s="293"/>
+      <c r="F23" s="293"/>
+      <c r="G23" s="293"/>
+      <c r="H23" s="293"/>
+      <c r="I23" s="293" t="s">
+        <v>393</v>
+      </c>
+      <c r="J23" s="293"/>
+      <c r="K23" s="293"/>
+      <c r="L23" s="293"/>
+      <c r="M23" s="293"/>
+      <c r="N23" s="293"/>
+      <c r="O23" s="293"/>
       <c r="P23" s="130" t="s">
         <v>170</v>
       </c>
-      <c r="Q23" s="295" t="s">
+      <c r="Q23" s="294" t="s">
         <v>212</v>
       </c>
-      <c r="R23" s="295"/>
-      <c r="S23" s="295"/>
+      <c r="R23" s="294"/>
+      <c r="S23" s="294"/>
       <c r="T23" s="163"/>
     </row>
     <row r="24" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="290"/>
-      <c r="B24" s="290"/>
-      <c r="C24" s="290"/>
-      <c r="D24" s="290"/>
-      <c r="E24" s="290"/>
-      <c r="F24" s="290"/>
-      <c r="G24" s="290"/>
-      <c r="H24" s="290"/>
-      <c r="I24" s="290"/>
-      <c r="J24" s="290"/>
-      <c r="K24" s="290"/>
-      <c r="L24" s="290"/>
-      <c r="M24" s="290"/>
-      <c r="N24" s="290"/>
-      <c r="O24" s="290"/>
+      <c r="A24" s="293"/>
+      <c r="B24" s="293"/>
+      <c r="C24" s="293"/>
+      <c r="D24" s="293"/>
+      <c r="E24" s="293"/>
+      <c r="F24" s="293"/>
+      <c r="G24" s="293"/>
+      <c r="H24" s="293"/>
+      <c r="I24" s="293"/>
+      <c r="J24" s="293"/>
+      <c r="K24" s="293"/>
+      <c r="L24" s="293"/>
+      <c r="M24" s="293"/>
+      <c r="N24" s="293"/>
+      <c r="O24" s="293"/>
       <c r="P24" s="130" t="s">
         <v>171</v>
       </c>
-      <c r="Q24" s="296" t="s">
+      <c r="Q24" s="295" t="s">
         <v>213</v>
       </c>
-      <c r="R24" s="296"/>
-      <c r="S24" s="296"/>
+      <c r="R24" s="295"/>
+      <c r="S24" s="295"/>
       <c r="T24" s="164"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="290" t="s">
+      <c r="A25" s="293" t="s">
         <v>158</v>
       </c>
-      <c r="B25" s="290"/>
-      <c r="C25" s="290" t="s">
+      <c r="B25" s="293"/>
+      <c r="C25" s="293" t="s">
         <v>164</v>
       </c>
-      <c r="D25" s="290"/>
-      <c r="E25" s="290"/>
-      <c r="F25" s="290"/>
-      <c r="G25" s="290"/>
-      <c r="H25" s="290"/>
-      <c r="I25" s="290" t="s">
+      <c r="D25" s="293"/>
+      <c r="E25" s="293"/>
+      <c r="F25" s="293"/>
+      <c r="G25" s="293"/>
+      <c r="H25" s="293"/>
+      <c r="I25" s="293" t="s">
         <v>165</v>
       </c>
-      <c r="J25" s="290"/>
-      <c r="K25" s="290"/>
-      <c r="L25" s="290"/>
-      <c r="M25" s="290"/>
-      <c r="N25" s="290"/>
-      <c r="O25" s="290"/>
+      <c r="J25" s="293"/>
+      <c r="K25" s="293"/>
+      <c r="L25" s="293"/>
+      <c r="M25" s="293"/>
+      <c r="N25" s="293"/>
+      <c r="O25" s="293"/>
       <c r="P25" s="130" t="s">
         <v>172</v>
       </c>
-      <c r="Q25" s="295" t="s">
+      <c r="Q25" s="294" t="s">
         <v>212</v>
       </c>
-      <c r="R25" s="295"/>
-      <c r="S25" s="295"/>
+      <c r="R25" s="294"/>
+      <c r="S25" s="294"/>
       <c r="T25" s="163"/>
     </row>
     <row r="26" spans="1:20" s="90" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="290"/>
-      <c r="B26" s="290"/>
-      <c r="C26" s="267"/>
-      <c r="D26" s="267"/>
-      <c r="E26" s="267"/>
-      <c r="F26" s="267"/>
-      <c r="G26" s="267"/>
-      <c r="H26" s="267"/>
-      <c r="I26" s="290"/>
-      <c r="J26" s="290"/>
-      <c r="K26" s="290"/>
-      <c r="L26" s="290"/>
-      <c r="M26" s="291"/>
-      <c r="N26" s="292"/>
-      <c r="O26" s="293"/>
+      <c r="A26" s="293"/>
+      <c r="B26" s="293"/>
+      <c r="C26" s="224"/>
+      <c r="D26" s="224"/>
+      <c r="E26" s="224"/>
+      <c r="F26" s="224"/>
+      <c r="G26" s="224"/>
+      <c r="H26" s="224"/>
+      <c r="I26" s="293"/>
+      <c r="J26" s="293"/>
+      <c r="K26" s="293"/>
+      <c r="L26" s="293"/>
+      <c r="M26" s="296"/>
+      <c r="N26" s="297"/>
+      <c r="O26" s="298"/>
       <c r="P26" s="130"/>
-      <c r="Q26" s="291"/>
-      <c r="R26" s="292"/>
-      <c r="S26" s="293"/>
+      <c r="Q26" s="296"/>
+      <c r="R26" s="297"/>
+      <c r="S26" s="298"/>
       <c r="T26" s="163"/>
     </row>
     <row r="27" spans="1:20" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="288" t="s">
-        <v>406</v>
-      </c>
-      <c r="B27" s="288"/>
-      <c r="C27" s="233" t="s">
-        <v>498</v>
-      </c>
-      <c r="D27" s="233"/>
-      <c r="E27" s="233"/>
-      <c r="F27" s="233"/>
-      <c r="G27" s="233"/>
-      <c r="H27" s="233"/>
-      <c r="I27" s="227" t="s">
-        <v>499</v>
-      </c>
-      <c r="J27" s="227"/>
-      <c r="K27" s="227"/>
-      <c r="L27" s="227"/>
-      <c r="M27" s="289" t="s">
-        <v>500</v>
-      </c>
-      <c r="N27" s="289"/>
-      <c r="O27" s="289"/>
+      <c r="A27" s="301" t="s">
+        <v>404</v>
+      </c>
+      <c r="B27" s="301"/>
+      <c r="C27" s="254" t="s">
+        <v>495</v>
+      </c>
+      <c r="D27" s="254"/>
+      <c r="E27" s="254"/>
+      <c r="F27" s="254"/>
+      <c r="G27" s="254"/>
+      <c r="H27" s="254"/>
+      <c r="I27" s="255" t="s">
+        <v>496</v>
+      </c>
+      <c r="J27" s="255"/>
+      <c r="K27" s="255"/>
+      <c r="L27" s="255"/>
+      <c r="M27" s="302" t="s">
+        <v>497</v>
+      </c>
+      <c r="N27" s="302"/>
+      <c r="O27" s="302"/>
       <c r="P27" s="222" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="Q27" s="163"/>
       <c r="R27" s="163"/>
@@ -9064,11 +9065,11 @@
       <c r="A29" s="126" t="s">
         <v>119</v>
       </c>
-      <c r="B29" s="228" t="s">
+      <c r="B29" s="234" t="s">
         <v>120</v>
       </c>
-      <c r="C29" s="228"/>
-      <c r="D29" s="273"/>
+      <c r="C29" s="234"/>
+      <c r="D29" s="243"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
@@ -9078,11 +9079,11 @@
       <c r="A30" s="128" t="s">
         <v>166</v>
       </c>
-      <c r="B30" s="223" t="s">
+      <c r="B30" s="235" t="s">
         <v>167</v>
       </c>
-      <c r="C30" s="223"/>
-      <c r="D30" s="261"/>
+      <c r="C30" s="235"/>
+      <c r="D30" s="236"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
@@ -9092,11 +9093,11 @@
       <c r="A31" s="124" t="s">
         <v>168</v>
       </c>
-      <c r="B31" s="223" t="s">
+      <c r="B31" s="235" t="s">
         <v>129</v>
       </c>
-      <c r="C31" s="223"/>
-      <c r="D31" s="261"/>
+      <c r="C31" s="235"/>
+      <c r="D31" s="236"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
@@ -9106,61 +9107,75 @@
       <c r="A32" s="124" t="s">
         <v>172</v>
       </c>
-      <c r="B32" s="223" t="s">
+      <c r="B32" s="235" t="s">
         <v>173</v>
       </c>
-      <c r="C32" s="223"/>
-      <c r="D32" s="261"/>
+      <c r="C32" s="235"/>
+      <c r="D32" s="236"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="124" t="s">
         <v>170</v>
       </c>
-      <c r="B33" s="223" t="s">
+      <c r="B33" s="235" t="s">
         <v>174</v>
       </c>
-      <c r="C33" s="223"/>
-      <c r="D33" s="261"/>
+      <c r="C33" s="235"/>
+      <c r="D33" s="236"/>
     </row>
     <row r="34" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="124" t="s">
         <v>171</v>
       </c>
-      <c r="B34" s="274" t="s">
+      <c r="B34" s="244" t="s">
         <v>132</v>
       </c>
-      <c r="C34" s="274"/>
-      <c r="D34" s="275"/>
+      <c r="C34" s="244"/>
+      <c r="D34" s="245"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="125" t="s">
         <v>169</v>
       </c>
-      <c r="B35" s="225" t="s">
+      <c r="B35" s="258" t="s">
         <v>134</v>
       </c>
-      <c r="C35" s="225"/>
-      <c r="D35" s="236"/>
+      <c r="C35" s="258"/>
+      <c r="D35" s="259"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="221" t="s">
-        <v>497</v>
-      </c>
-      <c r="B36" s="286" t="s">
-        <v>496</v>
-      </c>
-      <c r="C36" s="287"/>
-      <c r="D36" s="287"/>
+        <v>494</v>
+      </c>
+      <c r="B36" s="299" t="s">
+        <v>493</v>
+      </c>
+      <c r="C36" s="300"/>
+      <c r="D36" s="300"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="A20:B22"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="C23:H24"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:H26"/>
     <mergeCell ref="Q19:S19"/>
     <mergeCell ref="C20:H22"/>
     <mergeCell ref="A25:B25"/>
@@ -9177,27 +9192,13 @@
     <mergeCell ref="Q23:S23"/>
     <mergeCell ref="Q24:S24"/>
     <mergeCell ref="Q25:S25"/>
-    <mergeCell ref="A20:B22"/>
-    <mergeCell ref="A23:B24"/>
-    <mergeCell ref="C23:H24"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="I19:L19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1:P1" location="'Objeto de dominio'!A1" display="Volver al inicio!A1" xr:uid="{A574EA19-F5B2-40F1-9469-DFD1CCDD1FD9}"/>
@@ -9238,8 +9239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FECAE0DE-2747-4E64-8328-AC22EB569096}">
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9268,92 +9269,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="276" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="276"/>
-      <c r="C1" s="276"/>
-      <c r="D1" s="276"/>
-      <c r="E1" s="276"/>
-      <c r="F1" s="276"/>
-      <c r="G1" s="276"/>
-      <c r="H1" s="276"/>
-      <c r="I1" s="276"/>
-      <c r="J1" s="276"/>
-      <c r="K1" s="276"/>
-      <c r="L1" s="276"/>
-      <c r="M1" s="276"/>
-      <c r="N1" s="276"/>
-      <c r="O1" s="276"/>
-      <c r="P1" s="276"/>
+      <c r="A1" s="226" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="226"/>
+      <c r="I1" s="226"/>
+      <c r="J1" s="226"/>
+      <c r="K1" s="226"/>
+      <c r="L1" s="226"/>
+      <c r="M1" s="226"/>
+      <c r="N1" s="226"/>
+      <c r="O1" s="226"/>
+      <c r="P1" s="226"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="str">
         <f>'Objeto de dominio'!A1&amp;":"</f>
         <v>Objeto de dominio:</v>
       </c>
-      <c r="B2" s="308" t="str">
+      <c r="B2" s="310" t="str">
         <f>'Objeto de dominio'!A4</f>
         <v>Calificación</v>
       </c>
-      <c r="C2" s="308"/>
-      <c r="D2" s="308"/>
-      <c r="E2" s="308"/>
-      <c r="F2" s="308"/>
-      <c r="G2" s="308"/>
-      <c r="H2" s="308"/>
-      <c r="I2" s="308"/>
-      <c r="J2" s="308"/>
-      <c r="K2" s="308"/>
-      <c r="L2" s="308"/>
-      <c r="M2" s="308"/>
-      <c r="N2" s="308"/>
-      <c r="O2" s="308"/>
-      <c r="P2" s="308"/>
+      <c r="C2" s="310"/>
+      <c r="D2" s="310"/>
+      <c r="E2" s="310"/>
+      <c r="F2" s="310"/>
+      <c r="G2" s="310"/>
+      <c r="H2" s="310"/>
+      <c r="I2" s="310"/>
+      <c r="J2" s="310"/>
+      <c r="K2" s="310"/>
+      <c r="L2" s="310"/>
+      <c r="M2" s="310"/>
+      <c r="N2" s="310"/>
+      <c r="O2" s="310"/>
+      <c r="P2" s="310"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="str">
         <f>'Objeto de dominio'!B1&amp;":"</f>
         <v>Descripcion:</v>
       </c>
-      <c r="B3" s="309" t="str">
+      <c r="B3" s="311" t="str">
         <f>'Objeto de dominio'!B4</f>
         <v>Objeto que representa cual es la calificacion conforme al servicio que recibio por parte del conductor, esta calificacion es general, toma en cuenta la actitud del conductor principalmente.</v>
       </c>
-      <c r="C3" s="309"/>
-      <c r="D3" s="309"/>
-      <c r="E3" s="309"/>
-      <c r="F3" s="309"/>
-      <c r="G3" s="309"/>
-      <c r="H3" s="309"/>
-      <c r="I3" s="309"/>
-      <c r="J3" s="309"/>
-      <c r="K3" s="309"/>
-      <c r="L3" s="309"/>
-      <c r="M3" s="309"/>
-      <c r="N3" s="309"/>
-      <c r="O3" s="309"/>
-      <c r="P3" s="309"/>
+      <c r="C3" s="311"/>
+      <c r="D3" s="311"/>
+      <c r="E3" s="311"/>
+      <c r="F3" s="311"/>
+      <c r="G3" s="311"/>
+      <c r="H3" s="311"/>
+      <c r="I3" s="311"/>
+      <c r="J3" s="311"/>
+      <c r="K3" s="311"/>
+      <c r="L3" s="311"/>
+      <c r="M3" s="311"/>
+      <c r="N3" s="311"/>
+      <c r="O3" s="311"/>
+      <c r="P3" s="311"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="310" t="s">
+      <c r="A4" s="303" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="310"/>
-      <c r="C4" s="310"/>
-      <c r="D4" s="310"/>
-      <c r="E4" s="310"/>
-      <c r="F4" s="310"/>
-      <c r="G4" s="310"/>
-      <c r="H4" s="310"/>
-      <c r="I4" s="310"/>
-      <c r="J4" s="310"/>
-      <c r="K4" s="310"/>
-      <c r="L4" s="310"/>
-      <c r="M4" s="310"/>
-      <c r="N4" s="310"/>
-      <c r="O4" s="310"/>
-      <c r="P4" s="310"/>
+      <c r="B4" s="303"/>
+      <c r="C4" s="303"/>
+      <c r="D4" s="303"/>
+      <c r="E4" s="303"/>
+      <c r="F4" s="303"/>
+      <c r="G4" s="303"/>
+      <c r="H4" s="303"/>
+      <c r="I4" s="303"/>
+      <c r="J4" s="303"/>
+      <c r="K4" s="303"/>
+      <c r="L4" s="303"/>
+      <c r="M4" s="303"/>
+      <c r="N4" s="303"/>
+      <c r="O4" s="303"/>
+      <c r="P4" s="303"/>
     </row>
     <row r="5" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="75" t="s">
@@ -9414,7 +9415,7 @@
         <v>225</v>
       </c>
       <c r="T5" s="81" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -9456,7 +9457,7 @@
         <v>59</v>
       </c>
       <c r="P6" s="79" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="Q6" s="80" t="s">
         <v>198</v>
@@ -9620,30 +9621,30 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="311" t="s">
+      <c r="A11" s="304" t="s">
         <v>107</v>
       </c>
-      <c r="B11" s="311"/>
-      <c r="C11" s="311"/>
-      <c r="D11" s="311" t="s">
+      <c r="B11" s="304"/>
+      <c r="C11" s="304"/>
+      <c r="D11" s="304" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="311"/>
-      <c r="F11" s="311"/>
-      <c r="G11" s="311"/>
+      <c r="E11" s="304"/>
+      <c r="F11" s="304"/>
+      <c r="G11" s="304"/>
       <c r="H11" s="156" t="s">
         <v>109</v>
       </c>
-      <c r="I11" s="311" t="s">
+      <c r="I11" s="304" t="s">
         <v>227</v>
       </c>
-      <c r="J11" s="311"/>
-      <c r="K11" s="311" t="s">
+      <c r="J11" s="304"/>
+      <c r="K11" s="304" t="s">
         <v>228</v>
       </c>
-      <c r="L11" s="311"/>
-      <c r="M11" s="311"/>
-      <c r="N11" s="311"/>
+      <c r="L11" s="304"/>
+      <c r="M11" s="304"/>
+      <c r="N11" s="304"/>
       <c r="O11" s="100" t="s">
         <v>229</v>
       </c>
@@ -9653,26 +9654,26 @@
       <c r="S11" s="74"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="223" t="s">
+      <c r="A12" s="235" t="s">
         <v>223</v>
       </c>
-      <c r="B12" s="223"/>
-      <c r="C12" s="223"/>
-      <c r="D12" s="274" t="s">
+      <c r="B12" s="235"/>
+      <c r="C12" s="235"/>
+      <c r="D12" s="244" t="s">
         <v>230</v>
       </c>
-      <c r="E12" s="274"/>
-      <c r="F12" s="274"/>
-      <c r="G12" s="274"/>
+      <c r="E12" s="244"/>
+      <c r="F12" s="244"/>
+      <c r="G12" s="244"/>
       <c r="H12" s="155" t="s">
         <v>231</v>
       </c>
-      <c r="I12" s="223"/>
-      <c r="J12" s="223"/>
-      <c r="K12" s="223"/>
-      <c r="L12" s="223"/>
-      <c r="M12" s="223"/>
-      <c r="N12" s="223"/>
+      <c r="I12" s="235"/>
+      <c r="J12" s="235"/>
+      <c r="K12" s="235"/>
+      <c r="L12" s="235"/>
+      <c r="M12" s="235"/>
+      <c r="N12" s="235"/>
       <c r="O12" s="102"/>
       <c r="P12" s="74"/>
       <c r="Q12" s="74"/>
@@ -9680,28 +9681,28 @@
       <c r="S12" s="74"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="223" t="s">
+      <c r="A13" s="235" t="s">
         <v>224</v>
       </c>
-      <c r="B13" s="223"/>
-      <c r="C13" s="223"/>
-      <c r="D13" s="274" t="s">
+      <c r="B13" s="235"/>
+      <c r="C13" s="235"/>
+      <c r="D13" s="244" t="s">
         <v>232</v>
       </c>
-      <c r="E13" s="274"/>
-      <c r="F13" s="274"/>
-      <c r="G13" s="274"/>
+      <c r="E13" s="244"/>
+      <c r="F13" s="244"/>
+      <c r="G13" s="244"/>
       <c r="H13" s="155" t="s">
         <v>233</v>
       </c>
-      <c r="I13" s="223"/>
-      <c r="J13" s="223"/>
-      <c r="K13" s="223" t="s">
+      <c r="I13" s="235"/>
+      <c r="J13" s="235"/>
+      <c r="K13" s="235" t="s">
         <v>234</v>
       </c>
-      <c r="L13" s="223"/>
-      <c r="M13" s="223"/>
-      <c r="N13" s="223"/>
+      <c r="L13" s="235"/>
+      <c r="M13" s="235"/>
+      <c r="N13" s="235"/>
       <c r="O13" s="102" t="s">
         <v>235</v>
       </c>
@@ -9711,28 +9712,28 @@
       <c r="S13" s="74"/>
     </row>
     <row r="14" spans="1:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="223" t="s">
+      <c r="A14" s="235" t="s">
         <v>225</v>
       </c>
-      <c r="B14" s="223"/>
-      <c r="C14" s="223"/>
-      <c r="D14" s="274" t="s">
+      <c r="B14" s="235"/>
+      <c r="C14" s="235"/>
+      <c r="D14" s="244" t="s">
         <v>236</v>
       </c>
-      <c r="E14" s="274"/>
-      <c r="F14" s="274"/>
-      <c r="G14" s="274"/>
+      <c r="E14" s="244"/>
+      <c r="F14" s="244"/>
+      <c r="G14" s="244"/>
       <c r="H14" s="155" t="s">
         <v>231</v>
       </c>
-      <c r="I14" s="223" t="s">
+      <c r="I14" s="235" t="s">
         <v>237</v>
       </c>
-      <c r="J14" s="223"/>
-      <c r="K14" s="295"/>
-      <c r="L14" s="295"/>
-      <c r="M14" s="295"/>
-      <c r="N14" s="295"/>
+      <c r="J14" s="235"/>
+      <c r="K14" s="294"/>
+      <c r="L14" s="294"/>
+      <c r="M14" s="294"/>
+      <c r="N14" s="294"/>
       <c r="O14" s="102"/>
       <c r="P14" s="74"/>
       <c r="Q14" s="74"/>
@@ -9740,32 +9741,32 @@
       <c r="S14" s="74"/>
     </row>
     <row r="15" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="223" t="s">
-        <v>413</v>
-      </c>
-      <c r="B15" s="223"/>
-      <c r="C15" s="223"/>
-      <c r="D15" s="274" t="s">
-        <v>443</v>
-      </c>
-      <c r="E15" s="274"/>
-      <c r="F15" s="274"/>
-      <c r="G15" s="274"/>
+      <c r="A15" s="235" t="s">
+        <v>411</v>
+      </c>
+      <c r="B15" s="235"/>
+      <c r="C15" s="235"/>
+      <c r="D15" s="244" t="s">
+        <v>441</v>
+      </c>
+      <c r="E15" s="244"/>
+      <c r="F15" s="244"/>
+      <c r="G15" s="244"/>
       <c r="H15" s="155" t="s">
         <v>233</v>
       </c>
-      <c r="I15" s="223" t="s">
-        <v>237</v>
-      </c>
-      <c r="J15" s="223"/>
-      <c r="K15" s="295" t="s">
+      <c r="I15" s="235" t="s">
+        <v>501</v>
+      </c>
+      <c r="J15" s="235"/>
+      <c r="K15" s="294" t="s">
+        <v>442</v>
+      </c>
+      <c r="L15" s="294"/>
+      <c r="M15" s="294"/>
+      <c r="N15" s="294"/>
+      <c r="O15" s="102" t="s">
         <v>444</v>
-      </c>
-      <c r="L15" s="295"/>
-      <c r="M15" s="295"/>
-      <c r="N15" s="295"/>
-      <c r="O15" s="102" t="s">
-        <v>446</v>
       </c>
       <c r="P15" s="90"/>
       <c r="Q15" s="90"/>
@@ -9779,51 +9780,56 @@
       <c r="A17" s="166" t="s">
         <v>119</v>
       </c>
-      <c r="B17" s="303" t="s">
+      <c r="B17" s="305" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="303"/>
-      <c r="D17" s="303"/>
-      <c r="E17" s="303"/>
-      <c r="F17" s="303"/>
-      <c r="G17" s="303"/>
+      <c r="C17" s="305"/>
+      <c r="D17" s="305"/>
+      <c r="E17" s="305"/>
+      <c r="F17" s="305"/>
+      <c r="G17" s="305"/>
+      <c r="H17" s="410" t="s">
+        <v>500</v>
+      </c>
       <c r="P17" s="50"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="167" t="s">
         <v>234</v>
       </c>
-      <c r="B18" s="304" t="s">
+      <c r="B18" s="306" t="s">
         <v>238</v>
       </c>
-      <c r="C18" s="304"/>
-      <c r="D18" s="304"/>
-      <c r="E18" s="304"/>
-      <c r="F18" s="304"/>
-      <c r="G18" s="305"/>
+      <c r="C18" s="306"/>
+      <c r="D18" s="306"/>
+      <c r="E18" s="306"/>
+      <c r="F18" s="306"/>
+      <c r="G18" s="307"/>
+      <c r="H18" s="410" t="s">
+        <v>144</v>
+      </c>
       <c r="P18" s="50"/>
     </row>
     <row r="19" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="168" t="s">
-        <v>444</v>
-      </c>
-      <c r="B19" s="306" t="s">
-        <v>445</v>
-      </c>
-      <c r="C19" s="306"/>
-      <c r="D19" s="306"/>
-      <c r="E19" s="306"/>
-      <c r="F19" s="306"/>
-      <c r="G19" s="307"/>
+        <v>442</v>
+      </c>
+      <c r="B19" s="308" t="s">
+        <v>443</v>
+      </c>
+      <c r="C19" s="308"/>
+      <c r="D19" s="308"/>
+      <c r="E19" s="308"/>
+      <c r="F19" s="308"/>
+      <c r="G19" s="309"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B19:G19"/>
@@ -9840,11 +9846,12 @@
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:N11"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -9881,8 +9888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2B9007-887E-4B83-ABED-E72C2BED92A7}">
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9910,92 +9917,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="315" t="s">
+      <c r="A1" s="312" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="315"/>
-      <c r="C1" s="315"/>
-      <c r="D1" s="315"/>
-      <c r="E1" s="315"/>
-      <c r="F1" s="315"/>
-      <c r="G1" s="315"/>
-      <c r="H1" s="315"/>
-      <c r="I1" s="315"/>
-      <c r="J1" s="315"/>
-      <c r="K1" s="315"/>
-      <c r="L1" s="315"/>
-      <c r="M1" s="315"/>
-      <c r="N1" s="315"/>
-      <c r="O1" s="315"/>
-      <c r="P1" s="315"/>
+      <c r="B1" s="312"/>
+      <c r="C1" s="312"/>
+      <c r="D1" s="312"/>
+      <c r="E1" s="312"/>
+      <c r="F1" s="312"/>
+      <c r="G1" s="312"/>
+      <c r="H1" s="312"/>
+      <c r="I1" s="312"/>
+      <c r="J1" s="312"/>
+      <c r="K1" s="312"/>
+      <c r="L1" s="312"/>
+      <c r="M1" s="312"/>
+      <c r="N1" s="312"/>
+      <c r="O1" s="312"/>
+      <c r="P1" s="312"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="str">
         <f>'Objeto de dominio'!A1&amp;":"</f>
         <v>Objeto de dominio:</v>
       </c>
-      <c r="B2" s="316" t="str">
+      <c r="B2" s="313" t="str">
         <f>'Objeto de dominio'!A5</f>
         <v>Vehiculo</v>
       </c>
-      <c r="C2" s="316"/>
-      <c r="D2" s="316"/>
-      <c r="E2" s="316"/>
-      <c r="F2" s="316"/>
-      <c r="G2" s="316"/>
-      <c r="H2" s="316"/>
-      <c r="I2" s="316"/>
-      <c r="J2" s="316"/>
-      <c r="K2" s="316"/>
-      <c r="L2" s="316"/>
-      <c r="M2" s="316"/>
-      <c r="N2" s="316"/>
-      <c r="O2" s="316"/>
-      <c r="P2" s="316"/>
+      <c r="C2" s="313"/>
+      <c r="D2" s="313"/>
+      <c r="E2" s="313"/>
+      <c r="F2" s="313"/>
+      <c r="G2" s="313"/>
+      <c r="H2" s="313"/>
+      <c r="I2" s="313"/>
+      <c r="J2" s="313"/>
+      <c r="K2" s="313"/>
+      <c r="L2" s="313"/>
+      <c r="M2" s="313"/>
+      <c r="N2" s="313"/>
+      <c r="O2" s="313"/>
+      <c r="P2" s="313"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="str">
         <f>'Objeto de dominio'!B1&amp;":"</f>
         <v>Descripcion:</v>
       </c>
-      <c r="B3" s="316" t="str">
+      <c r="B3" s="313" t="str">
         <f>'Objeto de dominio'!B5</f>
         <v>Objeto que se encarga de identificar al vehiculo del conductor y a su vez el dueño</v>
       </c>
-      <c r="C3" s="316"/>
-      <c r="D3" s="316"/>
-      <c r="E3" s="316"/>
-      <c r="F3" s="316"/>
-      <c r="G3" s="316"/>
-      <c r="H3" s="316"/>
-      <c r="I3" s="316"/>
-      <c r="J3" s="316"/>
-      <c r="K3" s="316"/>
-      <c r="L3" s="316"/>
-      <c r="M3" s="316"/>
-      <c r="N3" s="316"/>
-      <c r="O3" s="316"/>
-      <c r="P3" s="316"/>
+      <c r="C3" s="313"/>
+      <c r="D3" s="313"/>
+      <c r="E3" s="313"/>
+      <c r="F3" s="313"/>
+      <c r="G3" s="313"/>
+      <c r="H3" s="313"/>
+      <c r="I3" s="313"/>
+      <c r="J3" s="313"/>
+      <c r="K3" s="313"/>
+      <c r="L3" s="313"/>
+      <c r="M3" s="313"/>
+      <c r="N3" s="313"/>
+      <c r="O3" s="313"/>
+      <c r="P3" s="313"/>
     </row>
     <row r="4" spans="1:20" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="317" t="s">
+      <c r="A4" s="314" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="317"/>
-      <c r="C4" s="317"/>
-      <c r="D4" s="317"/>
-      <c r="E4" s="317"/>
-      <c r="F4" s="317"/>
-      <c r="G4" s="317"/>
-      <c r="H4" s="317"/>
-      <c r="I4" s="317"/>
-      <c r="J4" s="317"/>
-      <c r="K4" s="317"/>
-      <c r="L4" s="317"/>
-      <c r="M4" s="317"/>
-      <c r="N4" s="317"/>
-      <c r="O4" s="317"/>
-      <c r="P4" s="317"/>
+      <c r="B4" s="314"/>
+      <c r="C4" s="314"/>
+      <c r="D4" s="314"/>
+      <c r="E4" s="314"/>
+      <c r="F4" s="314"/>
+      <c r="G4" s="314"/>
+      <c r="H4" s="314"/>
+      <c r="I4" s="314"/>
+      <c r="J4" s="314"/>
+      <c r="K4" s="314"/>
+      <c r="L4" s="314"/>
+      <c r="M4" s="314"/>
+      <c r="N4" s="314"/>
+      <c r="O4" s="314"/>
+      <c r="P4" s="314"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="54" t="s">
@@ -10202,7 +10209,7 @@
         <v>7</v>
       </c>
       <c r="P8" s="98" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="Q8" s="70" t="s">
         <v>198</v>
@@ -10219,7 +10226,7 @@
     </row>
     <row r="9" spans="1:20" s="90" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="134" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B9" s="95" t="s">
         <v>6</v>
@@ -10252,7 +10259,7 @@
         <v>7</v>
       </c>
       <c r="P9" s="98" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="Q9" s="70" t="s">
         <v>198</v>
@@ -10269,10 +10276,10 @@
     </row>
     <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="134" t="s">
-        <v>46</v>
+        <v>503</v>
       </c>
       <c r="B10" s="99" t="s">
-        <v>46</v>
+        <v>503</v>
       </c>
       <c r="C10" s="95"/>
       <c r="D10" s="95"/>
@@ -10300,7 +10307,7 @@
         <v>7</v>
       </c>
       <c r="P10" s="96" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="Q10" s="70" t="s">
         <v>198</v>
@@ -10317,7 +10324,7 @@
     </row>
     <row r="11" spans="1:20" s="90" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="134" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B11" s="131" t="s">
         <v>3</v>
@@ -10352,7 +10359,7 @@
         <v>7</v>
       </c>
       <c r="P11" s="96" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="Q11" s="70" t="s">
         <v>198</v>
@@ -10369,7 +10376,7 @@
     </row>
     <row r="12" spans="1:20" s="90" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="134" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B12" s="131" t="s">
         <v>3</v>
@@ -10384,7 +10391,7 @@
       <c r="F12" s="95"/>
       <c r="G12" s="95"/>
       <c r="H12" s="95" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I12" s="95"/>
       <c r="J12" s="95"/>
@@ -10404,7 +10411,7 @@
         <v>7</v>
       </c>
       <c r="P12" s="96" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="Q12" s="70" t="s">
         <v>198</v>
@@ -10421,7 +10428,7 @@
     </row>
     <row r="13" spans="1:20" s="90" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="134" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B13" s="131" t="s">
         <v>3</v>
@@ -10436,7 +10443,7 @@
       <c r="F13" s="95"/>
       <c r="G13" s="95"/>
       <c r="H13" s="95" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I13" s="95"/>
       <c r="J13" s="95"/>
@@ -10456,7 +10463,7 @@
         <v>7</v>
       </c>
       <c r="P13" s="96" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="Q13" s="70" t="s">
         <v>198</v>
@@ -10473,7 +10480,7 @@
     </row>
     <row r="14" spans="1:20" s="90" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="135" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B14" s="136" t="s">
         <v>6</v>
@@ -10484,7 +10491,7 @@
       <c r="F14" s="61"/>
       <c r="G14" s="61"/>
       <c r="H14" s="61" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I14" s="61"/>
       <c r="J14" s="61"/>
@@ -10504,7 +10511,7 @@
         <v>7</v>
       </c>
       <c r="P14" s="137" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="Q14" s="72" t="s">
         <v>198</v>
@@ -10574,11 +10581,14 @@
         <v>74</v>
       </c>
       <c r="B17" s="85" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C17" s="86" t="str">
         <f>A13</f>
         <v>Placa</v>
+      </c>
+      <c r="F17" s="90" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="75" x14ac:dyDescent="0.25">
@@ -10632,30 +10642,30 @@
       <c r="T19" s="74"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="311" t="s">
+      <c r="A20" s="304" t="s">
         <v>107</v>
       </c>
-      <c r="B20" s="311"/>
-      <c r="C20" s="311"/>
-      <c r="D20" s="311" t="s">
+      <c r="B20" s="304"/>
+      <c r="C20" s="304"/>
+      <c r="D20" s="304" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="311"/>
-      <c r="F20" s="311"/>
-      <c r="G20" s="311"/>
+      <c r="E20" s="304"/>
+      <c r="F20" s="304"/>
+      <c r="G20" s="304"/>
       <c r="H20" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="I20" s="311" t="s">
+      <c r="I20" s="304" t="s">
         <v>227</v>
       </c>
-      <c r="J20" s="311"/>
-      <c r="K20" s="312" t="s">
+      <c r="J20" s="304"/>
+      <c r="K20" s="315" t="s">
         <v>228</v>
       </c>
-      <c r="L20" s="313"/>
-      <c r="M20" s="313"/>
-      <c r="N20" s="314"/>
+      <c r="L20" s="316"/>
+      <c r="M20" s="316"/>
+      <c r="N20" s="317"/>
       <c r="O20" s="88" t="s">
         <v>229</v>
       </c>
@@ -10666,28 +10676,28 @@
       <c r="T20" s="82"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="295" t="s">
+      <c r="A21" s="294" t="s">
         <v>239</v>
       </c>
-      <c r="B21" s="295"/>
-      <c r="C21" s="295"/>
-      <c r="D21" s="295" t="s">
+      <c r="B21" s="294"/>
+      <c r="C21" s="294"/>
+      <c r="D21" s="294" t="s">
         <v>243</v>
       </c>
-      <c r="E21" s="295"/>
-      <c r="F21" s="295"/>
-      <c r="G21" s="295"/>
+      <c r="E21" s="294"/>
+      <c r="F21" s="294"/>
+      <c r="G21" s="294"/>
       <c r="H21" s="89" t="s">
         <v>244</v>
       </c>
-      <c r="I21" s="295"/>
-      <c r="J21" s="295"/>
-      <c r="K21" s="295" t="s">
+      <c r="I21" s="294"/>
+      <c r="J21" s="294"/>
+      <c r="K21" s="294" t="s">
         <v>245</v>
       </c>
-      <c r="L21" s="295"/>
-      <c r="M21" s="295"/>
-      <c r="N21" s="295"/>
+      <c r="L21" s="294"/>
+      <c r="M21" s="294"/>
+      <c r="N21" s="294"/>
       <c r="O21" s="89" t="s">
         <v>246</v>
       </c>
@@ -10698,26 +10708,26 @@
       <c r="T21" s="82"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="295" t="s">
+      <c r="A22" s="294" t="s">
         <v>160</v>
       </c>
-      <c r="B22" s="295"/>
-      <c r="C22" s="295"/>
-      <c r="D22" s="295" t="s">
+      <c r="B22" s="294"/>
+      <c r="C22" s="294"/>
+      <c r="D22" s="294" t="s">
         <v>247</v>
       </c>
-      <c r="E22" s="295"/>
-      <c r="F22" s="295"/>
-      <c r="G22" s="295"/>
+      <c r="E22" s="294"/>
+      <c r="F22" s="294"/>
+      <c r="G22" s="294"/>
       <c r="H22" s="89" t="s">
         <v>248</v>
       </c>
-      <c r="I22" s="295"/>
-      <c r="J22" s="295"/>
-      <c r="K22" s="295"/>
-      <c r="L22" s="295"/>
-      <c r="M22" s="295"/>
-      <c r="N22" s="295"/>
+      <c r="I22" s="294"/>
+      <c r="J22" s="294"/>
+      <c r="K22" s="294"/>
+      <c r="L22" s="294"/>
+      <c r="M22" s="294"/>
+      <c r="N22" s="294"/>
       <c r="O22" s="89"/>
       <c r="P22" s="82"/>
       <c r="Q22" s="82"/>
@@ -10726,28 +10736,28 @@
       <c r="T22" s="82"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="295" t="s">
+      <c r="A23" s="294" t="s">
         <v>240</v>
       </c>
-      <c r="B23" s="295"/>
-      <c r="C23" s="295"/>
-      <c r="D23" s="296" t="s">
+      <c r="B23" s="294"/>
+      <c r="C23" s="294"/>
+      <c r="D23" s="295" t="s">
         <v>249</v>
       </c>
-      <c r="E23" s="296"/>
-      <c r="F23" s="296"/>
-      <c r="G23" s="296"/>
+      <c r="E23" s="295"/>
+      <c r="F23" s="295"/>
+      <c r="G23" s="295"/>
       <c r="H23" s="89" t="s">
         <v>244</v>
       </c>
-      <c r="I23" s="295" t="s">
+      <c r="I23" s="294" t="s">
         <v>250</v>
       </c>
-      <c r="J23" s="295"/>
-      <c r="K23" s="295"/>
-      <c r="L23" s="295"/>
-      <c r="M23" s="295"/>
-      <c r="N23" s="295"/>
+      <c r="J23" s="294"/>
+      <c r="K23" s="294"/>
+      <c r="L23" s="294"/>
+      <c r="M23" s="294"/>
+      <c r="N23" s="294"/>
       <c r="O23" s="89"/>
       <c r="P23" s="82"/>
       <c r="Q23" s="82"/>
@@ -10756,28 +10766,28 @@
       <c r="T23" s="82"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="295" t="s">
+      <c r="A24" s="294" t="s">
         <v>241</v>
       </c>
-      <c r="B24" s="295"/>
-      <c r="C24" s="295"/>
-      <c r="D24" s="295" t="s">
+      <c r="B24" s="294"/>
+      <c r="C24" s="294"/>
+      <c r="D24" s="294" t="s">
         <v>251</v>
       </c>
-      <c r="E24" s="295"/>
-      <c r="F24" s="295"/>
-      <c r="G24" s="295"/>
+      <c r="E24" s="294"/>
+      <c r="F24" s="294"/>
+      <c r="G24" s="294"/>
       <c r="H24" s="89" t="s">
         <v>244</v>
       </c>
-      <c r="I24" s="295"/>
-      <c r="J24" s="295"/>
-      <c r="K24" s="295" t="s">
+      <c r="I24" s="294"/>
+      <c r="J24" s="294"/>
+      <c r="K24" s="294" t="s">
         <v>252</v>
       </c>
-      <c r="L24" s="295"/>
-      <c r="M24" s="295"/>
-      <c r="N24" s="295"/>
+      <c r="L24" s="294"/>
+      <c r="M24" s="294"/>
+      <c r="N24" s="294"/>
       <c r="O24" s="89" t="s">
         <v>253</v>
       </c>
@@ -10813,14 +10823,14 @@
       <c r="A26" s="87" t="s">
         <v>119</v>
       </c>
-      <c r="B26" s="311" t="s">
+      <c r="B26" s="304" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="311"/>
-      <c r="D26" s="311"/>
-      <c r="E26" s="311"/>
-      <c r="F26" s="311"/>
-      <c r="G26" s="311"/>
+      <c r="C26" s="304"/>
+      <c r="D26" s="304"/>
+      <c r="E26" s="304"/>
+      <c r="F26" s="304"/>
+      <c r="G26" s="304"/>
       <c r="H26" s="82"/>
       <c r="I26" s="82"/>
       <c r="J26" s="82"/>
@@ -10839,14 +10849,14 @@
       <c r="A27" s="89" t="s">
         <v>245</v>
       </c>
-      <c r="B27" s="295" t="s">
+      <c r="B27" s="294" t="s">
         <v>254</v>
       </c>
-      <c r="C27" s="295"/>
-      <c r="D27" s="295"/>
-      <c r="E27" s="295"/>
-      <c r="F27" s="295"/>
-      <c r="G27" s="295"/>
+      <c r="C27" s="294"/>
+      <c r="D27" s="294"/>
+      <c r="E27" s="294"/>
+      <c r="F27" s="294"/>
+      <c r="G27" s="294"/>
       <c r="H27" s="82"/>
       <c r="I27" s="82"/>
       <c r="J27" s="82"/>
@@ -10865,14 +10875,14 @@
       <c r="A28" s="89" t="s">
         <v>252</v>
       </c>
-      <c r="B28" s="295" t="s">
+      <c r="B28" s="294" t="s">
         <v>255</v>
       </c>
-      <c r="C28" s="295"/>
-      <c r="D28" s="295"/>
-      <c r="E28" s="295"/>
-      <c r="F28" s="295"/>
-      <c r="G28" s="295"/>
+      <c r="C28" s="294"/>
+      <c r="D28" s="294"/>
+      <c r="E28" s="294"/>
+      <c r="F28" s="294"/>
+      <c r="G28" s="294"/>
       <c r="H28" s="82"/>
       <c r="I28" s="82"/>
       <c r="J28" s="82"/>
@@ -10889,21 +10899,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="D20:G20"/>
@@ -10920,11 +10915,26 @@
     <mergeCell ref="D24:G24"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="M21:N21"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1:P1" location="'Objeto de dominio'!A1" display="Volver al Inicio" xr:uid="{79632008-52CA-43DE-B9B6-45D10FD31A4C}"/>
     <hyperlink ref="A4" location="'Datos simulados '!A1" display="Datos simulados" xr:uid="{CA6F1F65-BD13-42FC-8507-3E578E8E4819}"/>
-    <hyperlink ref="B10" location="Conductor!A1" display="Conductor" xr:uid="{4F3966F3-F83D-4F9F-BDD6-7800031A46C8}"/>
+    <hyperlink ref="B10" location="'Conductor Vehiculo'!A1" display="Conductor" xr:uid="{4F3966F3-F83D-4F9F-BDD6-7800031A46C8}"/>
     <hyperlink ref="C18" location="Vehiculo!A7" display="Vehiculo!A7" xr:uid="{216C893F-D0EB-4114-9638-49DD7CC3E3C1}"/>
     <hyperlink ref="C17" location="Vehiculo!A12" display="Vehiculo!A12" xr:uid="{E7065E5D-7C21-4ED0-A5EC-F281E7C9884C}"/>
   </hyperlinks>
@@ -10955,8 +10965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D61B2C-9599-4A4E-A00B-69FF1717B2B8}">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10982,76 +10992,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="321" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="321"/>
-      <c r="C1" s="321"/>
-      <c r="D1" s="321"/>
-      <c r="E1" s="321"/>
-      <c r="F1" s="321"/>
-      <c r="G1" s="321"/>
-      <c r="H1" s="321"/>
-      <c r="I1" s="321"/>
-      <c r="J1" s="321"/>
-      <c r="K1" s="321"/>
-      <c r="L1" s="321"/>
-      <c r="M1" s="321"/>
-      <c r="N1" s="321"/>
-      <c r="O1" s="321"/>
-      <c r="P1" s="321"/>
+      <c r="A1" s="318" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="318"/>
+      <c r="C1" s="318"/>
+      <c r="D1" s="318"/>
+      <c r="E1" s="318"/>
+      <c r="F1" s="318"/>
+      <c r="G1" s="318"/>
+      <c r="H1" s="318"/>
+      <c r="I1" s="318"/>
+      <c r="J1" s="318"/>
+      <c r="K1" s="318"/>
+      <c r="L1" s="318"/>
+      <c r="M1" s="318"/>
+      <c r="N1" s="318"/>
+      <c r="O1" s="318"/>
+      <c r="P1" s="318"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="str">
         <f>'Objeto de dominio'!A1&amp;":"</f>
         <v>Objeto de dominio:</v>
       </c>
-      <c r="B2" s="316" t="str">
+      <c r="B2" s="313" t="str">
         <f>'Objeto de dominio'!A6</f>
         <v>Detalle Ruta</v>
       </c>
-      <c r="C2" s="316"/>
-      <c r="D2" s="316"/>
-      <c r="E2" s="316"/>
-      <c r="F2" s="316"/>
-      <c r="G2" s="316"/>
-      <c r="H2" s="316"/>
-      <c r="I2" s="316"/>
-      <c r="J2" s="316"/>
-      <c r="K2" s="316"/>
-      <c r="L2" s="316"/>
-      <c r="M2" s="316"/>
-      <c r="N2" s="316"/>
-      <c r="O2" s="316"/>
-      <c r="P2" s="316"/>
-      <c r="Q2" s="316"/>
-      <c r="R2" s="316"/>
+      <c r="C2" s="313"/>
+      <c r="D2" s="313"/>
+      <c r="E2" s="313"/>
+      <c r="F2" s="313"/>
+      <c r="G2" s="313"/>
+      <c r="H2" s="313"/>
+      <c r="I2" s="313"/>
+      <c r="J2" s="313"/>
+      <c r="K2" s="313"/>
+      <c r="L2" s="313"/>
+      <c r="M2" s="313"/>
+      <c r="N2" s="313"/>
+      <c r="O2" s="313"/>
+      <c r="P2" s="313"/>
+      <c r="Q2" s="313"/>
+      <c r="R2" s="313"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="str">
         <f>'Objeto de dominio'!B1&amp;":"</f>
         <v>Descripcion:</v>
       </c>
-      <c r="B3" s="316" t="str">
+      <c r="B3" s="313" t="str">
         <f>'Objeto de dominio'!B6</f>
         <v>Objeto que se encarga de guardar todo el recorrido de la ruta que hace el conductor en su vehiculo</v>
       </c>
-      <c r="C3" s="316"/>
-      <c r="D3" s="316"/>
-      <c r="E3" s="316"/>
-      <c r="F3" s="316"/>
-      <c r="G3" s="316"/>
-      <c r="H3" s="316"/>
-      <c r="I3" s="316"/>
-      <c r="J3" s="316"/>
-      <c r="K3" s="316"/>
-      <c r="L3" s="316"/>
-      <c r="M3" s="316"/>
-      <c r="N3" s="316"/>
-      <c r="O3" s="316"/>
-      <c r="P3" s="316"/>
-      <c r="Q3" s="316"/>
-      <c r="R3" s="316"/>
+      <c r="C3" s="313"/>
+      <c r="D3" s="313"/>
+      <c r="E3" s="313"/>
+      <c r="F3" s="313"/>
+      <c r="G3" s="313"/>
+      <c r="H3" s="313"/>
+      <c r="I3" s="313"/>
+      <c r="J3" s="313"/>
+      <c r="K3" s="313"/>
+      <c r="L3" s="313"/>
+      <c r="M3" s="313"/>
+      <c r="N3" s="313"/>
+      <c r="O3" s="313"/>
+      <c r="P3" s="313"/>
+      <c r="Q3" s="313"/>
+      <c r="R3" s="313"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
@@ -11133,7 +11143,7 @@
     </row>
     <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="93" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B6" s="95" t="s">
         <v>3</v>
@@ -11148,7 +11158,7 @@
       <c r="F6" s="95"/>
       <c r="G6" s="95"/>
       <c r="H6" s="95" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I6" s="95"/>
       <c r="J6" s="95" t="s">
@@ -11170,7 +11180,7 @@
         <v>59</v>
       </c>
       <c r="P6" s="96" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="Q6" s="101" t="s">
         <v>198</v>
@@ -11214,7 +11224,7 @@
         <v>7</v>
       </c>
       <c r="P7" s="96" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="Q7" s="101" t="s">
         <v>198</v>
@@ -11328,30 +11338,30 @@
       <c r="R10" s="82"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="322" t="s">
+      <c r="A11" s="319" t="s">
         <v>107</v>
       </c>
-      <c r="B11" s="323"/>
-      <c r="C11" s="323"/>
-      <c r="D11" s="323" t="s">
+      <c r="B11" s="320"/>
+      <c r="C11" s="320"/>
+      <c r="D11" s="320" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="323"/>
-      <c r="F11" s="323"/>
-      <c r="G11" s="323"/>
+      <c r="E11" s="320"/>
+      <c r="F11" s="320"/>
+      <c r="G11" s="320"/>
       <c r="H11" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="I11" s="323" t="s">
+      <c r="I11" s="320" t="s">
         <v>227</v>
       </c>
-      <c r="J11" s="323"/>
-      <c r="K11" s="323" t="s">
+      <c r="J11" s="320"/>
+      <c r="K11" s="320" t="s">
         <v>228</v>
       </c>
-      <c r="L11" s="323"/>
-      <c r="M11" s="323"/>
-      <c r="N11" s="323"/>
+      <c r="L11" s="320"/>
+      <c r="M11" s="320"/>
+      <c r="N11" s="320"/>
       <c r="O11" s="170" t="s">
         <v>229</v>
       </c>
@@ -11360,54 +11370,54 @@
       <c r="R11" s="90"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="320" t="s">
+      <c r="A12" s="321" t="s">
         <v>256</v>
       </c>
-      <c r="B12" s="295"/>
-      <c r="C12" s="295"/>
-      <c r="D12" s="295" t="s">
+      <c r="B12" s="294"/>
+      <c r="C12" s="294"/>
+      <c r="D12" s="294" t="s">
         <v>263</v>
       </c>
-      <c r="E12" s="295"/>
-      <c r="F12" s="295"/>
-      <c r="G12" s="295"/>
+      <c r="E12" s="294"/>
+      <c r="F12" s="294"/>
+      <c r="G12" s="294"/>
       <c r="H12" s="102" t="s">
-        <v>383</v>
-      </c>
-      <c r="I12" s="295"/>
-      <c r="J12" s="295"/>
-      <c r="K12" s="295"/>
-      <c r="L12" s="295"/>
-      <c r="M12" s="295"/>
-      <c r="N12" s="295"/>
+        <v>381</v>
+      </c>
+      <c r="I12" s="294"/>
+      <c r="J12" s="294"/>
+      <c r="K12" s="294"/>
+      <c r="L12" s="294"/>
+      <c r="M12" s="294"/>
+      <c r="N12" s="294"/>
       <c r="O12" s="171"/>
       <c r="P12" s="90"/>
       <c r="Q12" s="90"/>
       <c r="R12" s="90"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="318" t="s">
+      <c r="A13" s="322" t="s">
         <v>257</v>
       </c>
-      <c r="B13" s="319"/>
-      <c r="C13" s="319"/>
-      <c r="D13" s="319" t="s">
+      <c r="B13" s="323"/>
+      <c r="C13" s="323"/>
+      <c r="D13" s="323" t="s">
         <v>264</v>
       </c>
-      <c r="E13" s="319"/>
-      <c r="F13" s="319"/>
-      <c r="G13" s="319"/>
+      <c r="E13" s="323"/>
+      <c r="F13" s="323"/>
+      <c r="G13" s="323"/>
       <c r="H13" s="175" t="s">
-        <v>383</v>
-      </c>
-      <c r="I13" s="319" t="s">
+        <v>381</v>
+      </c>
+      <c r="I13" s="323" t="s">
         <v>265</v>
       </c>
-      <c r="J13" s="319"/>
-      <c r="K13" s="319"/>
-      <c r="L13" s="319"/>
-      <c r="M13" s="319"/>
-      <c r="N13" s="319"/>
+      <c r="J13" s="323"/>
+      <c r="K13" s="323"/>
+      <c r="L13" s="323"/>
+      <c r="M13" s="323"/>
+      <c r="N13" s="323"/>
       <c r="O13" s="176"/>
       <c r="P13" s="90"/>
       <c r="Q13" s="90"/>
@@ -11415,6 +11425,16 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="D11:G11"/>
@@ -11422,16 +11442,6 @@
     <mergeCell ref="K11:N11"/>
     <mergeCell ref="B2:R2"/>
     <mergeCell ref="B3:R3"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1:P1" location="'Objeto de dominio'!A1" display="Volver al Inicio" xr:uid="{32095BCB-4239-4A2B-9A83-97362A3EDBFE}"/>
@@ -11447,8 +11457,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481DBA3A-D410-434D-9698-683C168FAD5F}">
   <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:E38"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A4" sqref="A4"/>
+      <selection pane="topRight" sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11478,104 +11490,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="276" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="276"/>
-      <c r="C1" s="276"/>
-      <c r="D1" s="276"/>
-      <c r="E1" s="276"/>
-      <c r="F1" s="276"/>
-      <c r="G1" s="276"/>
-      <c r="H1" s="276"/>
-      <c r="I1" s="276"/>
-      <c r="J1" s="276"/>
-      <c r="K1" s="276"/>
-      <c r="L1" s="276"/>
-      <c r="M1" s="276"/>
-      <c r="N1" s="276"/>
-      <c r="O1" s="276"/>
-      <c r="P1" s="276"/>
+      <c r="A1" s="226" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="226"/>
+      <c r="I1" s="226"/>
+      <c r="J1" s="226"/>
+      <c r="K1" s="226"/>
+      <c r="L1" s="226"/>
+      <c r="M1" s="226"/>
+      <c r="N1" s="226"/>
+      <c r="O1" s="226"/>
+      <c r="P1" s="226"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="str">
         <f>'Objeto de dominio'!A1&amp;":"</f>
         <v>Objeto de dominio:</v>
       </c>
-      <c r="B2" s="329" t="str">
+      <c r="B2" s="336" t="str">
         <f>'Objeto de dominio'!A7</f>
         <v>Ruta</v>
       </c>
-      <c r="C2" s="329"/>
-      <c r="D2" s="329"/>
-      <c r="E2" s="329"/>
-      <c r="F2" s="329"/>
-      <c r="G2" s="329"/>
-      <c r="H2" s="329"/>
-      <c r="I2" s="329"/>
-      <c r="J2" s="329"/>
-      <c r="K2" s="329"/>
-      <c r="L2" s="329"/>
-      <c r="M2" s="329"/>
-      <c r="N2" s="329"/>
-      <c r="O2" s="329"/>
-      <c r="P2" s="329"/>
-      <c r="Q2" s="329"/>
-      <c r="R2" s="329"/>
-      <c r="S2" s="329"/>
-      <c r="T2" s="329"/>
-      <c r="U2" s="329"/>
-      <c r="V2" s="329"/>
+      <c r="C2" s="336"/>
+      <c r="D2" s="336"/>
+      <c r="E2" s="336"/>
+      <c r="F2" s="336"/>
+      <c r="G2" s="336"/>
+      <c r="H2" s="336"/>
+      <c r="I2" s="336"/>
+      <c r="J2" s="336"/>
+      <c r="K2" s="336"/>
+      <c r="L2" s="336"/>
+      <c r="M2" s="336"/>
+      <c r="N2" s="336"/>
+      <c r="O2" s="336"/>
+      <c r="P2" s="336"/>
+      <c r="Q2" s="336"/>
+      <c r="R2" s="336"/>
+      <c r="S2" s="336"/>
+      <c r="T2" s="336"/>
+      <c r="U2" s="336"/>
+      <c r="V2" s="336"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="str">
         <f>'Objeto de dominio'!B1&amp;":"</f>
         <v>Descripcion:</v>
       </c>
-      <c r="B3" s="330" t="str">
+      <c r="B3" s="337" t="str">
         <f>'Objeto de dominio'!B7</f>
         <v>Objeto que nos representa cuales son las rutas que se da en un viaje, como la puede hacer, por donde pasa, quienes estuvieron en el viaje y hasta donde llegaron, se busca es guardar datos por seguridad de los usuarios.</v>
       </c>
-      <c r="C3" s="330"/>
-      <c r="D3" s="330"/>
-      <c r="E3" s="330"/>
-      <c r="F3" s="330"/>
-      <c r="G3" s="330"/>
-      <c r="H3" s="330"/>
-      <c r="I3" s="330"/>
-      <c r="J3" s="330"/>
-      <c r="K3" s="330"/>
-      <c r="L3" s="330"/>
-      <c r="M3" s="330"/>
-      <c r="N3" s="330"/>
-      <c r="O3" s="330"/>
-      <c r="P3" s="330"/>
-      <c r="Q3" s="330"/>
-      <c r="R3" s="330"/>
-      <c r="S3" s="330"/>
-      <c r="T3" s="330"/>
-      <c r="U3" s="330"/>
-      <c r="V3" s="330"/>
+      <c r="C3" s="337"/>
+      <c r="D3" s="337"/>
+      <c r="E3" s="337"/>
+      <c r="F3" s="337"/>
+      <c r="G3" s="337"/>
+      <c r="H3" s="337"/>
+      <c r="I3" s="337"/>
+      <c r="J3" s="337"/>
+      <c r="K3" s="337"/>
+      <c r="L3" s="337"/>
+      <c r="M3" s="337"/>
+      <c r="N3" s="337"/>
+      <c r="O3" s="337"/>
+      <c r="P3" s="337"/>
+      <c r="Q3" s="337"/>
+      <c r="R3" s="337"/>
+      <c r="S3" s="337"/>
+      <c r="T3" s="337"/>
+      <c r="U3" s="337"/>
+      <c r="V3" s="337"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="325" t="s">
+      <c r="A4" s="332" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="325"/>
-      <c r="C4" s="325"/>
-      <c r="D4" s="325"/>
-      <c r="E4" s="325"/>
-      <c r="F4" s="325"/>
-      <c r="G4" s="325"/>
-      <c r="H4" s="325"/>
-      <c r="I4" s="325"/>
-      <c r="J4" s="325"/>
-      <c r="K4" s="325"/>
-      <c r="L4" s="325"/>
-      <c r="M4" s="325"/>
-      <c r="N4" s="325"/>
-      <c r="O4" s="325"/>
-      <c r="P4" s="325"/>
+      <c r="B4" s="332"/>
+      <c r="C4" s="332"/>
+      <c r="D4" s="332"/>
+      <c r="E4" s="332"/>
+      <c r="F4" s="332"/>
+      <c r="G4" s="332"/>
+      <c r="H4" s="332"/>
+      <c r="I4" s="332"/>
+      <c r="J4" s="332"/>
+      <c r="K4" s="332"/>
+      <c r="L4" s="332"/>
+      <c r="M4" s="332"/>
+      <c r="N4" s="332"/>
+      <c r="O4" s="332"/>
+      <c r="P4" s="332"/>
       <c r="Q4" s="177"/>
       <c r="R4" s="177"/>
       <c r="S4" s="177"/>
@@ -11633,22 +11645,22 @@
         <v>14</v>
       </c>
       <c r="Q5" s="107" t="s">
+        <v>327</v>
+      </c>
+      <c r="R5" s="107" t="s">
         <v>329</v>
       </c>
-      <c r="R5" s="107" t="s">
+      <c r="S5" s="107" t="s">
+        <v>334</v>
+      </c>
+      <c r="T5" s="107" t="s">
         <v>331</v>
       </c>
-      <c r="S5" s="107" t="s">
-        <v>336</v>
-      </c>
-      <c r="T5" s="107" t="s">
-        <v>333</v>
-      </c>
       <c r="U5" s="107" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="V5" s="107" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.25">
@@ -11722,7 +11734,7 @@
       <c r="F7" s="95"/>
       <c r="G7" s="95"/>
       <c r="H7" s="93" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I7" s="95"/>
       <c r="J7" s="96"/>
@@ -11742,7 +11754,7 @@
         <v>7</v>
       </c>
       <c r="P7" s="96" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="Q7" s="122" t="s">
         <v>198</v>
@@ -11777,7 +11789,7 @@
       <c r="F8" s="95"/>
       <c r="G8" s="95"/>
       <c r="H8" s="93" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="I8" s="95"/>
       <c r="J8" s="96"/>
@@ -11797,7 +11809,7 @@
         <v>7</v>
       </c>
       <c r="P8" s="96" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="Q8" s="122"/>
       <c r="R8" s="122"/>
@@ -11819,7 +11831,7 @@
       <c r="F9" s="95"/>
       <c r="G9" s="95"/>
       <c r="H9" s="93" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="I9" s="95">
         <v>0</v>
@@ -11875,7 +11887,7 @@
       <c r="F10" s="95"/>
       <c r="G10" s="95"/>
       <c r="H10" s="93" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I10" s="95"/>
       <c r="J10" s="96"/>
@@ -11895,7 +11907,7 @@
         <v>7</v>
       </c>
       <c r="P10" s="94" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="Q10" s="122" t="s">
         <v>198</v>
@@ -11929,10 +11941,10 @@
       <c r="F11" s="95"/>
       <c r="G11" s="95"/>
       <c r="H11" s="93" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I11" s="96" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="J11" s="96"/>
       <c r="K11" s="95" t="s">
@@ -11951,7 +11963,7 @@
         <v>7</v>
       </c>
       <c r="P11" s="94" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q11" s="122" t="s">
         <v>198</v>
@@ -11974,7 +11986,7 @@
     </row>
     <row r="12" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="93" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B12" s="95" t="s">
         <v>12</v>
@@ -11985,10 +11997,10 @@
       <c r="F12" s="95"/>
       <c r="G12" s="95"/>
       <c r="H12" s="93" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I12" s="96" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="J12" s="96"/>
       <c r="K12" s="95" t="s">
@@ -12007,7 +12019,7 @@
         <v>7</v>
       </c>
       <c r="P12" s="94" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="Q12" s="122" t="s">
         <v>198</v>
@@ -12041,10 +12053,10 @@
       <c r="F13" s="95"/>
       <c r="G13" s="95"/>
       <c r="H13" s="93" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I13" s="95" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="J13" s="96"/>
       <c r="K13" s="95" t="s">
@@ -12063,7 +12075,7 @@
         <v>7</v>
       </c>
       <c r="P13" s="94" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="Q13" s="122" t="s">
         <v>198</v>
@@ -12086,7 +12098,7 @@
     </row>
     <row r="14" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="93" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B14" s="95" t="s">
         <v>3</v>
@@ -12105,7 +12117,7 @@
       </c>
       <c r="I14" s="95"/>
       <c r="J14" s="96" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="K14" s="95" t="s">
         <v>7</v>
@@ -12123,7 +12135,7 @@
         <v>7</v>
       </c>
       <c r="P14" s="94" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="Q14" s="122" t="s">
         <v>198</v>
@@ -12146,7 +12158,7 @@
     </row>
     <row r="15" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="93" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B15" s="95" t="s">
         <v>3</v>
@@ -12165,7 +12177,7 @@
       </c>
       <c r="I15" s="95"/>
       <c r="J15" s="96" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="K15" s="95" t="s">
         <v>7</v>
@@ -12183,7 +12195,7 @@
         <v>7</v>
       </c>
       <c r="P15" s="94" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q15" s="122" t="s">
         <v>198</v>
@@ -12206,11 +12218,11 @@
     </row>
     <row r="16" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="326" t="s">
+      <c r="A17" s="333" t="s">
         <v>103</v>
       </c>
-      <c r="B17" s="327"/>
-      <c r="C17" s="328"/>
+      <c r="B17" s="334"/>
+      <c r="C17" s="335"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="110" t="s">
@@ -12228,7 +12240,7 @@
         <v>74</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C19" s="37" t="s">
         <v>46</v>
@@ -12239,7 +12251,7 @@
         <v>106</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C20" s="37" t="s">
         <v>65</v>
@@ -12247,372 +12259,381 @@
     </row>
     <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="332" t="s">
+      <c r="A22" s="331" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="324"/>
-      <c r="C22" s="324" t="s">
+      <c r="B22" s="329"/>
+      <c r="C22" s="329" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="324"/>
-      <c r="E22" s="324"/>
-      <c r="F22" s="324"/>
-      <c r="G22" s="324"/>
-      <c r="H22" s="324"/>
-      <c r="I22" s="324" t="s">
+      <c r="D22" s="329"/>
+      <c r="E22" s="329"/>
+      <c r="F22" s="329"/>
+      <c r="G22" s="329"/>
+      <c r="H22" s="329"/>
+      <c r="I22" s="329" t="s">
         <v>109</v>
       </c>
-      <c r="J22" s="324"/>
-      <c r="K22" s="324"/>
-      <c r="L22" s="324"/>
-      <c r="M22" s="324" t="s">
+      <c r="J22" s="329"/>
+      <c r="K22" s="329"/>
+      <c r="L22" s="329"/>
+      <c r="M22" s="329" t="s">
         <v>110</v>
       </c>
-      <c r="N22" s="324"/>
-      <c r="O22" s="324"/>
-      <c r="P22" s="324"/>
-      <c r="Q22" s="324" t="s">
+      <c r="N22" s="329"/>
+      <c r="O22" s="329"/>
+      <c r="P22" s="329"/>
+      <c r="Q22" s="329" t="s">
         <v>140</v>
       </c>
-      <c r="R22" s="324"/>
-      <c r="S22" s="324" t="s">
-        <v>307</v>
-      </c>
-      <c r="T22" s="324"/>
-      <c r="U22" s="331"/>
+      <c r="R22" s="329"/>
+      <c r="S22" s="329" t="s">
+        <v>305</v>
+      </c>
+      <c r="T22" s="329"/>
+      <c r="U22" s="330"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="333" t="s">
+      <c r="A23" s="326" t="s">
+        <v>327</v>
+      </c>
+      <c r="B23" s="235"/>
+      <c r="C23" s="244" t="s">
+        <v>328</v>
+      </c>
+      <c r="D23" s="244"/>
+      <c r="E23" s="244"/>
+      <c r="F23" s="244"/>
+      <c r="G23" s="244"/>
+      <c r="H23" s="244"/>
+      <c r="I23" s="235" t="s">
+        <v>425</v>
+      </c>
+      <c r="J23" s="235"/>
+      <c r="K23" s="235"/>
+      <c r="L23" s="235"/>
+      <c r="M23" s="235"/>
+      <c r="N23" s="235"/>
+      <c r="O23" s="235"/>
+      <c r="P23" s="235"/>
+      <c r="Q23" s="247" t="s">
+        <v>336</v>
+      </c>
+      <c r="R23" s="247"/>
+      <c r="S23" s="235" t="s">
+        <v>346</v>
+      </c>
+      <c r="T23" s="235"/>
+      <c r="U23" s="236"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="326"/>
+      <c r="B24" s="235"/>
+      <c r="C24" s="244"/>
+      <c r="D24" s="244"/>
+      <c r="E24" s="244"/>
+      <c r="F24" s="244"/>
+      <c r="G24" s="244"/>
+      <c r="H24" s="244"/>
+      <c r="I24" s="235"/>
+      <c r="J24" s="235"/>
+      <c r="K24" s="235"/>
+      <c r="L24" s="235"/>
+      <c r="M24" s="235"/>
+      <c r="N24" s="235"/>
+      <c r="O24" s="235"/>
+      <c r="P24" s="235"/>
+      <c r="Q24" s="247" t="s">
+        <v>338</v>
+      </c>
+      <c r="R24" s="247"/>
+      <c r="S24" s="235" t="s">
+        <v>345</v>
+      </c>
+      <c r="T24" s="235"/>
+      <c r="U24" s="236"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="326" t="s">
         <v>329</v>
       </c>
-      <c r="B23" s="223"/>
-      <c r="C23" s="274" t="s">
+      <c r="B25" s="235"/>
+      <c r="C25" s="235" t="s">
         <v>330</v>
       </c>
-      <c r="D23" s="274"/>
-      <c r="E23" s="274"/>
-      <c r="F23" s="274"/>
-      <c r="G23" s="274"/>
-      <c r="H23" s="274"/>
-      <c r="I23" s="223" t="s">
+      <c r="D25" s="235"/>
+      <c r="E25" s="235"/>
+      <c r="F25" s="235"/>
+      <c r="G25" s="235"/>
+      <c r="H25" s="235"/>
+      <c r="I25" s="235"/>
+      <c r="J25" s="235"/>
+      <c r="K25" s="235"/>
+      <c r="L25" s="235"/>
+      <c r="M25" s="235"/>
+      <c r="N25" s="235"/>
+      <c r="O25" s="235"/>
+      <c r="P25" s="235"/>
+      <c r="Q25" s="247" t="s">
+        <v>340</v>
+      </c>
+      <c r="R25" s="247"/>
+      <c r="S25" s="235" t="s">
+        <v>310</v>
+      </c>
+      <c r="T25" s="235"/>
+      <c r="U25" s="236"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="326" t="s">
+        <v>334</v>
+      </c>
+      <c r="B26" s="235"/>
+      <c r="C26" s="235" t="s">
+        <v>278</v>
+      </c>
+      <c r="D26" s="235"/>
+      <c r="E26" s="235"/>
+      <c r="F26" s="235"/>
+      <c r="G26" s="235"/>
+      <c r="H26" s="235"/>
+      <c r="I26" s="235" t="s">
+        <v>333</v>
+      </c>
+      <c r="J26" s="235"/>
+      <c r="K26" s="235"/>
+      <c r="L26" s="235"/>
+      <c r="M26" s="235"/>
+      <c r="N26" s="235"/>
+      <c r="O26" s="235"/>
+      <c r="P26" s="235"/>
+      <c r="Q26" s="247" t="s">
+        <v>341</v>
+      </c>
+      <c r="R26" s="247"/>
+      <c r="S26" s="235" t="s">
+        <v>310</v>
+      </c>
+      <c r="T26" s="235"/>
+      <c r="U26" s="236"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="326" t="s">
+        <v>482</v>
+      </c>
+      <c r="B27" s="235"/>
+      <c r="C27" s="235" t="s">
+        <v>332</v>
+      </c>
+      <c r="D27" s="235"/>
+      <c r="E27" s="235"/>
+      <c r="F27" s="235"/>
+      <c r="G27" s="235"/>
+      <c r="H27" s="235"/>
+      <c r="I27" s="235" t="s">
+        <v>335</v>
+      </c>
+      <c r="J27" s="235"/>
+      <c r="K27" s="235"/>
+      <c r="L27" s="235"/>
+      <c r="M27" s="235"/>
+      <c r="N27" s="235"/>
+      <c r="O27" s="235"/>
+      <c r="P27" s="235"/>
+      <c r="Q27" s="247" t="s">
+        <v>342</v>
+      </c>
+      <c r="R27" s="247"/>
+      <c r="S27" s="235" t="s">
+        <v>310</v>
+      </c>
+      <c r="T27" s="235"/>
+      <c r="U27" s="236"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="326" t="s">
+        <v>414</v>
+      </c>
+      <c r="B28" s="235"/>
+      <c r="C28" s="235" t="s">
+        <v>423</v>
+      </c>
+      <c r="D28" s="235"/>
+      <c r="E28" s="235"/>
+      <c r="F28" s="235"/>
+      <c r="G28" s="235"/>
+      <c r="H28" s="235"/>
+      <c r="I28" s="235" t="s">
+        <v>425</v>
+      </c>
+      <c r="J28" s="235"/>
+      <c r="K28" s="235"/>
+      <c r="L28" s="235"/>
+      <c r="M28" s="235"/>
+      <c r="N28" s="235"/>
+      <c r="O28" s="235"/>
+      <c r="P28" s="235"/>
+      <c r="Q28" s="247" t="s">
+        <v>426</v>
+      </c>
+      <c r="R28" s="247"/>
+      <c r="S28" s="235" t="s">
+        <v>430</v>
+      </c>
+      <c r="T28" s="235"/>
+      <c r="U28" s="236"/>
+    </row>
+    <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="327" t="s">
+        <v>422</v>
+      </c>
+      <c r="B29" s="258"/>
+      <c r="C29" s="258" t="s">
+        <v>424</v>
+      </c>
+      <c r="D29" s="258"/>
+      <c r="E29" s="258"/>
+      <c r="F29" s="258"/>
+      <c r="G29" s="258"/>
+      <c r="H29" s="258"/>
+      <c r="I29" s="258" t="s">
+        <v>425</v>
+      </c>
+      <c r="J29" s="258"/>
+      <c r="K29" s="258"/>
+      <c r="L29" s="258"/>
+      <c r="M29" s="258"/>
+      <c r="N29" s="258"/>
+      <c r="O29" s="258"/>
+      <c r="P29" s="258"/>
+      <c r="Q29" s="283" t="s">
         <v>427</v>
       </c>
-      <c r="J23" s="223"/>
-      <c r="K23" s="223"/>
-      <c r="L23" s="223"/>
-      <c r="M23" s="223"/>
-      <c r="N23" s="223"/>
-      <c r="O23" s="223"/>
-      <c r="P23" s="223"/>
-      <c r="Q23" s="260" t="s">
-        <v>338</v>
-      </c>
-      <c r="R23" s="260"/>
-      <c r="S23" s="223" t="s">
-        <v>348</v>
-      </c>
-      <c r="T23" s="223"/>
-      <c r="U23" s="261"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="333"/>
-      <c r="B24" s="223"/>
-      <c r="C24" s="274"/>
-      <c r="D24" s="274"/>
-      <c r="E24" s="274"/>
-      <c r="F24" s="274"/>
-      <c r="G24" s="274"/>
-      <c r="H24" s="274"/>
-      <c r="I24" s="223"/>
-      <c r="J24" s="223"/>
-      <c r="K24" s="223"/>
-      <c r="L24" s="223"/>
-      <c r="M24" s="223"/>
-      <c r="N24" s="223"/>
-      <c r="O24" s="223"/>
-      <c r="P24" s="223"/>
-      <c r="Q24" s="260" t="s">
-        <v>340</v>
-      </c>
-      <c r="R24" s="260"/>
-      <c r="S24" s="223" t="s">
-        <v>347</v>
-      </c>
-      <c r="T24" s="223"/>
-      <c r="U24" s="261"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="333" t="s">
-        <v>331</v>
-      </c>
-      <c r="B25" s="223"/>
-      <c r="C25" s="223" t="s">
-        <v>332</v>
-      </c>
-      <c r="D25" s="223"/>
-      <c r="E25" s="223"/>
-      <c r="F25" s="223"/>
-      <c r="G25" s="223"/>
-      <c r="H25" s="223"/>
-      <c r="I25" s="223"/>
-      <c r="J25" s="223"/>
-      <c r="K25" s="223"/>
-      <c r="L25" s="223"/>
-      <c r="M25" s="223"/>
-      <c r="N25" s="223"/>
-      <c r="O25" s="223"/>
-      <c r="P25" s="223"/>
-      <c r="Q25" s="260" t="s">
-        <v>342</v>
-      </c>
-      <c r="R25" s="260"/>
-      <c r="S25" s="223" t="s">
-        <v>312</v>
-      </c>
-      <c r="T25" s="223"/>
-      <c r="U25" s="261"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="333" t="s">
-        <v>336</v>
-      </c>
-      <c r="B26" s="223"/>
-      <c r="C26" s="223" t="s">
-        <v>280</v>
-      </c>
-      <c r="D26" s="223"/>
-      <c r="E26" s="223"/>
-      <c r="F26" s="223"/>
-      <c r="G26" s="223"/>
-      <c r="H26" s="223"/>
-      <c r="I26" s="223" t="s">
-        <v>335</v>
-      </c>
-      <c r="J26" s="223"/>
-      <c r="K26" s="223"/>
-      <c r="L26" s="223"/>
-      <c r="M26" s="223"/>
-      <c r="N26" s="223"/>
-      <c r="O26" s="223"/>
-      <c r="P26" s="223"/>
-      <c r="Q26" s="260" t="s">
-        <v>343</v>
-      </c>
-      <c r="R26" s="260"/>
-      <c r="S26" s="223" t="s">
-        <v>312</v>
-      </c>
-      <c r="T26" s="223"/>
-      <c r="U26" s="261"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="333" t="s">
-        <v>485</v>
-      </c>
-      <c r="B27" s="223"/>
-      <c r="C27" s="223" t="s">
-        <v>334</v>
-      </c>
-      <c r="D27" s="223"/>
-      <c r="E27" s="223"/>
-      <c r="F27" s="223"/>
-      <c r="G27" s="223"/>
-      <c r="H27" s="223"/>
-      <c r="I27" s="223" t="s">
-        <v>337</v>
-      </c>
-      <c r="J27" s="223"/>
-      <c r="K27" s="223"/>
-      <c r="L27" s="223"/>
-      <c r="M27" s="223"/>
-      <c r="N27" s="223"/>
-      <c r="O27" s="223"/>
-      <c r="P27" s="223"/>
-      <c r="Q27" s="260" t="s">
-        <v>344</v>
-      </c>
-      <c r="R27" s="260"/>
-      <c r="S27" s="223" t="s">
-        <v>312</v>
-      </c>
-      <c r="T27" s="223"/>
-      <c r="U27" s="261"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="333" t="s">
-        <v>416</v>
-      </c>
-      <c r="B28" s="223"/>
-      <c r="C28" s="223" t="s">
-        <v>425</v>
-      </c>
-      <c r="D28" s="223"/>
-      <c r="E28" s="223"/>
-      <c r="F28" s="223"/>
-      <c r="G28" s="223"/>
-      <c r="H28" s="223"/>
-      <c r="I28" s="223" t="s">
-        <v>427</v>
-      </c>
-      <c r="J28" s="223"/>
-      <c r="K28" s="223"/>
-      <c r="L28" s="223"/>
-      <c r="M28" s="223"/>
-      <c r="N28" s="223"/>
-      <c r="O28" s="223"/>
-      <c r="P28" s="223"/>
-      <c r="Q28" s="260" t="s">
-        <v>428</v>
-      </c>
-      <c r="R28" s="260"/>
-      <c r="S28" s="223" t="s">
-        <v>432</v>
-      </c>
-      <c r="T28" s="223"/>
-      <c r="U28" s="261"/>
-    </row>
-    <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="336" t="s">
-        <v>424</v>
-      </c>
-      <c r="B29" s="225"/>
-      <c r="C29" s="225" t="s">
-        <v>426</v>
-      </c>
-      <c r="D29" s="225"/>
-      <c r="E29" s="225"/>
-      <c r="F29" s="225"/>
-      <c r="G29" s="225"/>
-      <c r="H29" s="225"/>
-      <c r="I29" s="225" t="s">
-        <v>427</v>
-      </c>
-      <c r="J29" s="225"/>
-      <c r="K29" s="225"/>
-      <c r="L29" s="225"/>
-      <c r="M29" s="225"/>
-      <c r="N29" s="225"/>
-      <c r="O29" s="225"/>
-      <c r="P29" s="225"/>
-      <c r="Q29" s="265" t="s">
-        <v>429</v>
-      </c>
-      <c r="R29" s="265"/>
-      <c r="S29" s="225" t="s">
-        <v>433</v>
-      </c>
-      <c r="T29" s="225"/>
-      <c r="U29" s="236"/>
+      <c r="R29" s="283"/>
+      <c r="S29" s="258" t="s">
+        <v>431</v>
+      </c>
+      <c r="T29" s="258"/>
+      <c r="U29" s="259"/>
     </row>
     <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="199" t="s">
         <v>119</v>
       </c>
-      <c r="B31" s="324" t="s">
+      <c r="B31" s="329" t="s">
         <v>108</v>
       </c>
-      <c r="C31" s="324"/>
-      <c r="D31" s="324"/>
-      <c r="E31" s="331"/>
+      <c r="C31" s="329"/>
+      <c r="D31" s="329"/>
+      <c r="E31" s="330"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="128" t="s">
-        <v>338</v>
-      </c>
-      <c r="B32" s="295" t="s">
-        <v>339</v>
-      </c>
-      <c r="C32" s="295"/>
-      <c r="D32" s="295"/>
-      <c r="E32" s="334"/>
+        <v>336</v>
+      </c>
+      <c r="B32" s="294" t="s">
+        <v>337</v>
+      </c>
+      <c r="C32" s="294"/>
+      <c r="D32" s="294"/>
+      <c r="E32" s="324"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="128" t="s">
-        <v>340</v>
-      </c>
-      <c r="B33" s="295" t="s">
-        <v>341</v>
-      </c>
-      <c r="C33" s="295"/>
-      <c r="D33" s="295"/>
-      <c r="E33" s="334"/>
+        <v>338</v>
+      </c>
+      <c r="B33" s="294" t="s">
+        <v>339</v>
+      </c>
+      <c r="C33" s="294"/>
+      <c r="D33" s="294"/>
+      <c r="E33" s="324"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="128" t="s">
-        <v>342</v>
-      </c>
-      <c r="B34" s="295" t="s">
-        <v>345</v>
-      </c>
-      <c r="C34" s="295"/>
-      <c r="D34" s="295"/>
-      <c r="E34" s="334"/>
+        <v>340</v>
+      </c>
+      <c r="B34" s="294" t="s">
+        <v>343</v>
+      </c>
+      <c r="C34" s="294"/>
+      <c r="D34" s="294"/>
+      <c r="E34" s="324"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="128" t="s">
-        <v>343</v>
-      </c>
-      <c r="B35" s="295" t="s">
-        <v>346</v>
-      </c>
-      <c r="C35" s="295"/>
-      <c r="D35" s="295"/>
-      <c r="E35" s="334"/>
+        <v>341</v>
+      </c>
+      <c r="B35" s="294" t="s">
+        <v>344</v>
+      </c>
+      <c r="C35" s="294"/>
+      <c r="D35" s="294"/>
+      <c r="E35" s="324"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="128" t="s">
-        <v>344</v>
-      </c>
-      <c r="B36" s="291" t="s">
-        <v>486</v>
-      </c>
-      <c r="C36" s="292"/>
-      <c r="D36" s="292"/>
-      <c r="E36" s="337"/>
+        <v>342</v>
+      </c>
+      <c r="B36" s="296" t="s">
+        <v>483</v>
+      </c>
+      <c r="C36" s="297"/>
+      <c r="D36" s="297"/>
+      <c r="E36" s="328"/>
       <c r="J36" s="50"/>
       <c r="P36" s="50"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="128" t="s">
+        <v>426</v>
+      </c>
+      <c r="B37" s="294" t="s">
         <v>428</v>
       </c>
-      <c r="B37" s="295" t="s">
-        <v>430</v>
-      </c>
-      <c r="C37" s="295"/>
-      <c r="D37" s="295"/>
-      <c r="E37" s="334"/>
+      <c r="C37" s="294"/>
+      <c r="D37" s="294"/>
+      <c r="E37" s="324"/>
     </row>
     <row r="38" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="213" t="s">
+        <v>427</v>
+      </c>
+      <c r="B38" s="323" t="s">
         <v>429</v>
       </c>
-      <c r="B38" s="319" t="s">
-        <v>431</v>
-      </c>
-      <c r="C38" s="319"/>
-      <c r="D38" s="319"/>
-      <c r="E38" s="335"/>
+      <c r="C38" s="323"/>
+      <c r="D38" s="323"/>
+      <c r="E38" s="325"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B3:V3"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="C23:H24"/>
+    <mergeCell ref="I23:L24"/>
+    <mergeCell ref="M23:P24"/>
+    <mergeCell ref="M22:P22"/>
     <mergeCell ref="S26:U26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C27:H27"/>
@@ -12629,31 +12650,22 @@
     <mergeCell ref="I28:L28"/>
     <mergeCell ref="I29:L29"/>
     <mergeCell ref="M28:P28"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="A23:B24"/>
-    <mergeCell ref="C23:H24"/>
-    <mergeCell ref="I23:L24"/>
-    <mergeCell ref="M23:P24"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="B3:V3"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="M29:P29"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
